--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/aryl_halide/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/aryl_halide/ranking_test3/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.886</v>
+        <v>18.926</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2598404734.782</v>
+        <v>-0.356</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1350598.901</v>
+        <v>30.859</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.919</v>
+        <v>0.6840000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.814</v>
+        <v>15.462</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-205400.9257965206</v>
+        <v>19.56586122436079</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-925388.6021751082</v>
+        <v>19.56162004882462</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-583799.2576973283</v>
+        <v>19.5778629412299</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-1508739.13250766</v>
+        <v>19.51263591334562</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>742608.3165786967</v>
+        <v>19.5681881279763</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>542169.0650401467</v>
+        <v>19.60988259570242</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>330234.4115264777</v>
+        <v>19.6227807666363</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>855304.4668626423</v>
+        <v>19.64543910365019</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-393028.9851768899</v>
+        <v>19.56889033794324</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1608838.368870234</v>
+        <v>19.64589226699062</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>648210.618503722</v>
+        <v>19.60905518961507</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>156482.6313827945</v>
+        <v>19.62319507215627</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>680522.1834293206</v>
+        <v>19.64626444108093</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-860216.8659581064</v>
+        <v>19.57034267017877</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1749149.606522657</v>
+        <v>19.64845064336659</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1396882.53349951</v>
+        <v>19.59466311329833</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-312637.4054976669</v>
+        <v>19.59816839263116</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>343112.8055106751</v>
+        <v>19.61526215787203</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-1791456.408170215</v>
+        <v>19.55367127614255</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2508981.814283198</v>
+        <v>19.61811210542704</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>206011.0809557326</v>
+        <v>19.58056200659104</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>360696.2992465877</v>
+        <v>19.60560576946555</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-247475.5603776925</v>
+        <v>19.51690629397545</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>573253.0130333345</v>
+        <v>19.59598956841086</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>176876.3946477245</v>
+        <v>19.63121114616382</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>382949.9387139926</v>
+        <v>19.66371794874787</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-318192.4673143233</v>
+        <v>19.55646071265122</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1092598.298354025</v>
+        <v>19.68612842554838</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1443743.333668292</v>
+        <v>19.72056523658535</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>647442.7369229244</v>
+        <v>19.61662151203835</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1711606.603932068</v>
+        <v>19.69781554094582</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1298334.716974622</v>
+        <v>19.76737613419668</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1711276.546853037</v>
+        <v>19.81068955731703</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>787809.0860007933</v>
+        <v>19.68578705333413</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>995411.4367726846</v>
+        <v>19.69037494714025</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1353926.618599688</v>
+        <v>19.72538808371304</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>470532.5299633902</v>
+        <v>19.62233848429051</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1909571.702451174</v>
+        <v>19.70537742143766</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1291866.609763666</v>
+        <v>19.77706208523484</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1722554.559077518</v>
+        <v>19.82089533299161</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>668515.4799018295</v>
+        <v>19.69722722381329</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>893757.2154092649</v>
+        <v>19.6406442832157</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1335898.267222236</v>
+        <v>19.66682081623713</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>224601.1153219338</v>
+        <v>19.58307888445586</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>2810871.212608619</v>
+        <v>19.66200515864269</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1546757.379098521</v>
+        <v>19.70843094669113</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>2060863.337383851</v>
+        <v>19.74171716595353</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>661156.9984229443</v>
+        <v>19.64079593295988</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2109544.538036354</v>
+        <v>19.59897619069057</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>492496.3945728895</v>
+        <v>19.59929946818141</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1015846.933594491</v>
+        <v>19.62191442648287</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>-470646.6043585264</v>
+        <v>19.53894354141967</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>817127.6815107572</v>
+        <v>19.59746410471024</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>2230077.228488638</v>
+        <v>19.64536818856832</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1132243.267913772</v>
+        <v>19.66455117628299</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1777526.189748577</v>
+        <v>19.69479885023301</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>96369.72413853518</v>
+        <v>19.59806940221321</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1383878.164809903</v>
+        <v>19.67933854165712</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>2272524.425442753</v>
+        <v>19.64095551362506</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1055911.689236366</v>
+        <v>19.66104643234443</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1707195.990088147</v>
+        <v>19.69161448764154</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>-209173.3382028862</v>
+        <v>19.59588619034406</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1425252.641657104</v>
+        <v>19.67804029899714</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>3637037.872782337</v>
+        <v>19.62328630141548</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>1336807.710252193</v>
+        <v>19.63123232483073</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>2182317.310198809</v>
+        <v>19.65435103202143</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>-473598.4655152134</v>
+        <v>19.5765031895276</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1933190.42911415</v>
+        <v>19.64415896974605</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>304383.5763756476</v>
+        <v>19.6173102098866</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>558531.3489104797</v>
+        <v>19.65147822156068</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>-161127.9731706791</v>
+        <v>19.53923797052424</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>963041.6186072995</v>
+        <v>19.6309236571976</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>364203.0203502045</v>
+        <v>19.67712472688493</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>641881.6811213141</v>
+        <v>19.72036564417095</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>-204405.4046165614</v>
+        <v>19.5856567553968</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>783504.9448780399</v>
+        <v>19.72988888332883</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1143589.110568391</v>
+        <v>19.7751836583661</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>260412.7276754245</v>
+        <v>19.64449475540099</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>1459854.060126231</v>
+        <v>19.7394388502226</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>903679.3279611132</v>
+        <v>19.82364131107997</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>1305062.842380115</v>
+        <v>19.87967208079966</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>315180.8738881329</v>
+        <v>19.72365081917975</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>712709.4164031177</v>
+        <v>19.72985404969464</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>1079751.564903201</v>
+        <v>19.77559773126076</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>132627.9485867292</v>
+        <v>19.64630901363753</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>1559449.836964332</v>
+        <v>19.74342368455212</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>914119.2746242692</v>
+        <v>19.82933937664586</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>1340718.586588865</v>
+        <v>19.88573927493154</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>250195.8106213725</v>
+        <v>19.73154886315721</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>776818.0755372182</v>
+        <v>19.67399777023028</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1250417.240072549</v>
+        <v>19.70880279840019</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>100635.2925991765</v>
+        <v>19.60350603553752</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>2317217.995073014</v>
+        <v>19.6950156829441</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>1242916.118014484</v>
+        <v>19.75229282704501</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>1796265.108891189</v>
+        <v>19.79571501058336</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>363723.704351478</v>
+        <v>19.6696661590764</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>1447673.17109061</v>
+        <v>19.59114121010466</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>367731.0537931554</v>
+        <v>19.59086939603942</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>763816.8416874483</v>
+        <v>19.61318283704095</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>-332146.8365345335</v>
+        <v>19.53104080896771</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>841832.4343023854</v>
+        <v>19.59302379102756</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>1794779.704538478</v>
+        <v>19.63710496288837</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>1103700.561490271</v>
+        <v>19.65566421806945</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>1650697.43820256</v>
+        <v>19.68559224931056</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>309135.8679867614</v>
+        <v>19.58975399680218</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>1438513.999537104</v>
+        <v>19.6747510304796</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>1856833.081637145</v>
+        <v>19.63304358411848</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1035955.517815012</v>
+        <v>19.65253782085956</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>1593926.35806546</v>
+        <v>19.68279617989458</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>10534.51860550995</v>
+        <v>19.58793074853114</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>1502194.919427833</v>
+        <v>19.6737384081002</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>2998247.209471556</v>
+        <v>19.6164232708131</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>1291193.10028631</v>
+        <v>19.62384267666773</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>2000285.332978001</v>
+        <v>19.6466939575557</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>-210514.5136710775</v>
+        <v>19.56957913747841</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>2033000.585255492</v>
+        <v>19.6404048141759</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>349861.1459746438</v>
+        <v>19.61261044867635</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>588347.7246655544</v>
+        <v>19.64645164173607</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>-99467.1436475043</v>
+        <v>19.53511274296357</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>923868.7138377373</v>
+        <v>19.62702793119836</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>379910.6135840296</v>
+        <v>19.67294724967125</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>648199.9429202195</v>
+        <v>19.71590072299108</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>-160041.2583034807</v>
+        <v>19.58202306345641</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>843079.3888059375</v>
+        <v>19.72503389234321</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>1191819.008646617</v>
+        <v>19.76998517069082</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>339618.5327818082</v>
+        <v>19.6402591037989</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>1478660.000875744</v>
+        <v>19.7355578483327</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>954077.623195507</v>
+        <v>19.81948472697462</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>1349395.127658857</v>
+        <v>19.87521637794459</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>392816.7424108707</v>
+        <v>19.72008159874965</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>789630.0176176102</v>
+        <v>19.72530474427281</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>1149115.878000351</v>
+        <v>19.77071634517725</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>226827.241528314</v>
+        <v>19.64235785865795</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>1598604.619219864</v>
+        <v>19.73983934295511</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>981747.5003143894</v>
+        <v>19.82550442241961</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>1407177.619619573</v>
+        <v>19.88161578201256</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>343547.873095349</v>
+        <v>19.72828153672991</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>897489.968980934</v>
+        <v>19.67002141000859</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1366655.307920182</v>
+        <v>19.70453829596654</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>231371.0402295896</v>
+        <v>19.60003352480233</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>2367405.88892941</v>
+        <v>19.69181714703238</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>1348500.31543761</v>
+        <v>19.74886215173519</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>1908073.490156538</v>
+        <v>19.79203243788434</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>499279.7101070409</v>
+        <v>19.66671276327535</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>25641.63864609663</v>
+        <v>19.55126379731675</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>-99509.61273333294</v>
+        <v>19.543824542651</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>273815.1860445447</v>
+        <v>19.55952697106044</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>-130569.2939088435</v>
+        <v>19.49482345401425</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>534285.9001878493</v>
+        <v>19.54693277105288</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>843164.192335711</v>
+        <v>19.59367789635004</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>1100380.95620965</v>
+        <v>19.60318807027585</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>1634274.326269669</v>
+        <v>19.62530405020028</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>847595.571454225</v>
+        <v>19.5492565378048</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>1503079.635880736</v>
+        <v>19.62233268121705</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>1013596.741593112</v>
+        <v>19.59329290829552</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>1011911.630823951</v>
+        <v>19.60416653590711</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>1548090.263114405</v>
+        <v>19.62672339632912</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>493800.5751727069</v>
+        <v>19.55127011022449</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>1650273.492474532</v>
+        <v>19.62552907361918</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>1747476.150814665</v>
+        <v>19.58184493880912</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>799640.686384486</v>
+        <v>19.58258184668196</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>1504257.650097186</v>
+        <v>19.59922717311452</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>48004.14683640018</v>
+        <v>19.53806690436224</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>2159536.715856068</v>
+        <v>19.59942366728092</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>117395.551154483</v>
+        <v>19.55517438432718</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>258796.1009665066</v>
+        <v>19.57949135286915</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>-265465.7143214319</v>
+        <v>19.49153517932052</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>561210.9501678722</v>
+        <v>19.5769238370047</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>187354.5922306869</v>
+        <v>19.60836677405909</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>358692.5685530454</v>
+        <v>19.64024518196131</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>-250301.5815127463</v>
+        <v>19.53339468699496</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>1047247.473014591</v>
+        <v>19.65820952986931</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>1382473.077830025</v>
+        <v>19.69191955249982</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>637877.9066650558</v>
+        <v>19.58869872876356</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>1613750.519539596</v>
+        <v>19.67674308841399</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>1235069.949991545</v>
+        <v>19.74236385781766</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>1605026.991903108</v>
+        <v>19.78506446813174</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>760093.9399682118</v>
+        <v>19.66050907742668</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>968773.2788041652</v>
+        <v>19.66325261465866</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>1312939.707333466</v>
+        <v>19.69757977526644</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>485081.2503447835</v>
+        <v>19.59520917248404</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>1789912.647274822</v>
+        <v>19.68490277408876</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>1224335.299022272</v>
+        <v>19.75280439732248</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>1610367.525817604</v>
+        <v>19.79606437333745</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>642475.5610769455</v>
+        <v>19.67270751914763</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>761011.4774125176</v>
+        <v>19.61838636222682</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>1185278.960804239</v>
+        <v>19.64396197788156</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>189267.6495634982</v>
+        <v>19.56083665268712</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>2572990.437523162</v>
+        <v>19.64542240964564</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>1410891.013014534</v>
+        <v>19.6886291524633</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>1873690.456179134</v>
+        <v>19.72140730020703</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>608150.7387029134</v>
+        <v>19.62079560354293</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>1288866.746904325</v>
+        <v>19.58331164622115</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>-381383.0808293399</v>
+        <v>19.58094896182259</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>90280.18905678033</v>
+        <v>19.59872409914068</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>-1584940.581273873</v>
+        <v>19.52955956443129</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>1265687.691481588</v>
+        <v>19.59948709834799</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>2132830.212992134</v>
+        <v>19.62898226310274</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>917423.1204142754</v>
+        <v>19.64391902311639</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>1543099.403623469</v>
+        <v>19.66823775353175</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>-484303.8799043882</v>
+        <v>19.58739124316071</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>1994974.567749605</v>
+        <v>19.6794960705481</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>2425559.968757864</v>
+        <v>19.62797674364046</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>856000.4111859816</v>
+        <v>19.64415358022186</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>1491346.014008764</v>
+        <v>19.66884128408524</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>-894626.552489488</v>
+        <v>19.58873840245627</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>2181074.715805218</v>
+        <v>19.68149217387227</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>3923192.652711037</v>
+        <v>19.61090664257397</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>785078.9976687126</v>
+        <v>19.61618773990297</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>1644474.616816302</v>
+        <v>19.63466006699892</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>-1634625.317241334</v>
+        <v>19.56953686941313</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>3154336.398017804</v>
+        <v>19.64673003097911</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>551282.0340404744</v>
+        <v>19.61662597393465</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>836877.6560672139</v>
+        <v>19.64385727045225</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>-81547.69538059848</v>
+        <v>19.55010613844692</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>1156223.927845415</v>
+        <v>19.62263119470348</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>501929.3089755898</v>
+        <v>19.66186016857219</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>762901.9408665342</v>
+        <v>19.69656192142386</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>-144118.0288456265</v>
+        <v>19.58419478666884</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>1278100.03974508</v>
+        <v>19.72482647140462</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>1739799.462348002</v>
+        <v>19.76162868007757</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>623240.9970047339</v>
+        <v>19.65217867757511</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>1983843.049067033</v>
+        <v>19.72596311650294</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>1368513.412680355</v>
+        <v>19.79974182718687</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>1821691.841003024</v>
+        <v>19.84542609559851</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>692779.3271006214</v>
+        <v>19.714957676739</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>1209932.312457185</v>
+        <v>19.72842700718859</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>1691124.082625762</v>
+        <v>19.76574481637054</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>457705.7364545648</v>
+        <v>19.65733878815164</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>2185593.897283174</v>
+        <v>19.73302690545157</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>1362896.194472564</v>
+        <v>19.80885969615671</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>1841392.812156973</v>
+        <v>19.85500199635646</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>563926.8577961461</v>
+        <v>19.72592173662137</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>1342396.742696454</v>
+        <v>19.67362025655152</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>1980738.404082111</v>
+        <v>19.70176311723165</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>415482.8676254855</v>
+        <v>19.61349161417477</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>3378672.480340465</v>
+        <v>19.68628485083163</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>1837725.246378536</v>
+        <v>19.73636994629066</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>2445341.555020509</v>
+        <v>19.77162753129278</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>740574.5656379521</v>
+        <v>19.66612906266071</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>879210.1389217322</v>
+        <v>19.59440467840325</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>-266575.16441523</v>
+        <v>19.59092807985716</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>13339.01835320282</v>
+        <v>19.62088573853355</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>-1093669.30822594</v>
+        <v>19.51104295052145</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>601489.6901334402</v>
+        <v>19.63277973243164</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>1000842.221420414</v>
+        <v>19.65355185756247</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>137808.010148093</v>
+        <v>19.67380429283672</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>461291.0001690476</v>
+        <v>19.71350728806193</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>-799401.0469846994</v>
+        <v>19.58591119045373</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>851053.7671239142</v>
+        <v>19.7399976848813</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>1078032.490885129</v>
+        <v>19.64951205718294</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>109117.9398767257</v>
+        <v>19.67123072906024</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>437193.6851024693</v>
+        <v>19.711311123491</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>-992237.4135003177</v>
+        <v>19.58512427454735</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>914662.8595204317</v>
+        <v>19.73900419057783</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>1829208.014713957</v>
+        <v>19.62844094892636</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>110911.9042477663</v>
+        <v>19.63534257051131</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>575567.0328783548</v>
+        <v>19.66581131830322</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>-1371887.302533704</v>
+        <v>19.56293075619205</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>1366082.871210458</v>
+        <v>19.69157524342699</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>310645.0350051067</v>
+        <v>19.66137975364698</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>509142.8374823094</v>
+        <v>19.70712699796059</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>18201.44665373235</v>
+        <v>19.55840370529368</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>561979.5010307302</v>
+        <v>19.67321864373712</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>266331.7239554226</v>
+        <v>19.7345095673283</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>438453.6157476254</v>
+        <v>19.79156759099755</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>-47984.46991264127</v>
+        <v>19.61494358016342</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>531684.2578019145</v>
+        <v>19.80791842201037</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>783688.8094981216</v>
+        <v>19.86792709058008</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>190435.1528721941</v>
+        <v>19.69537722420942</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>841513.197253397</v>
+        <v>19.81377548621461</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>565393.3273380755</v>
+        <v>19.92352473463493</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>802487.6548109305</v>
+        <v>19.99692519865854</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>225791.0839481826</v>
+        <v>19.79292059139764</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>517671.5601182629</v>
+        <v>19.80867616763003</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>781394.4969142248</v>
+        <v>19.8691976775905</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>133685.5534523327</v>
+        <v>19.69861018697819</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>933805.6332659256</v>
+        <v>19.81955711265981</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>595467.5821717173</v>
+        <v>19.93164900313</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>850738.1022334495</v>
+        <v>20.00546539975802</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>207141.8290054675</v>
+        <v>19.80395480902553</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>688455.4394405313</v>
+        <v>19.73289668905421</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>1044689.998867153</v>
+        <v>19.7792156291245</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>249195.2772684578</v>
+        <v>19.63992975028414</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>1413000.261485513</v>
+        <v>19.75428632805553</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>825844.5937627108</v>
+        <v>19.82973927678946</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>1167651.890238654</v>
+        <v>19.88680764737521</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>318400.9544770573</v>
+        <v>19.7217418788669</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>-160094.9709723253</v>
+        <v>19.54005398433021</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>-454442.7061449775</v>
+        <v>19.53112874586677</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>-330619.1093089649</v>
+        <v>19.55525407350651</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>-759974.2431687207</v>
+        <v>19.46013097570129</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>107567.8100412756</v>
+        <v>19.54211995326119</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>52769.67971862991</v>
+        <v>19.59349376470584</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>-45253.37256504867</v>
+        <v>19.60771897150585</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>159142.0971788098</v>
+        <v>19.64109026049378</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>-416247.6882563797</v>
+        <v>19.52954744391764</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>521312.1831520534</v>
+        <v>19.64207128728355</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>-6294.586578113158</v>
+        <v>19.58995390042148</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>-176896.9443119275</v>
+        <v>19.60562126434008</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>24980.74276414154</v>
+        <v>19.63953125578423</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>-666339.9817750816</v>
+        <v>19.52895820251278</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>542220.2853514863</v>
+        <v>19.64255403857672</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>172244.9224148074</v>
+        <v>19.57764872574228</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-407708.4436283225</v>
+        <v>19.57933051613218</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>-161709.4089184348</v>
+        <v>19.60455332171312</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>-1110819.544151915</v>
+        <v>19.51486970139997</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>735244.4142853688</v>
+        <v>19.60832579819008</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>2254.148037575433</v>
+        <v>19.556804802889</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>82717.93522302499</v>
+        <v>19.59432753808957</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>-181591.5675151662</v>
+        <v>19.46443918683688</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>155035.1490954416</v>
+        <v>19.59906848192947</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>84234.05162807771</v>
+        <v>19.64894518024008</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>195020.9266985498</v>
+        <v>19.69777353927851</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>-133641.5547463141</v>
+        <v>19.54012877637842</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>354701.7411413733</v>
+        <v>19.69498423591598</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>501681.8100662724</v>
+        <v>19.7460827125113</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>147696.5569611235</v>
+        <v>19.59404236056552</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>649321.0953816834</v>
+        <v>19.73510332586963</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>529353.1814622818</v>
+        <v>19.8327411622917</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>714009.6559291318</v>
+        <v>19.89723243225684</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>294354.4807828134</v>
+        <v>19.7138883159428</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>302741.9753468174</v>
+        <v>19.69742919053717</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>450900.6351303976</v>
+        <v>19.74926990439342</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>66576.34434702292</v>
+        <v>19.59862782101402</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>731208.0884098406</v>
+        <v>19.74211272057692</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>544048.8953967992</v>
+        <v>19.8422587087317</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>739763.4014107299</v>
+        <v>19.90739796934146</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>266496.8977500843</v>
+        <v>19.72597337961897</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>254241.4694604933</v>
+        <v>19.63684291175013</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>441337.7467691354</v>
+        <v>19.6757696887325</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>-27496.31075465945</v>
+        <v>19.55336063285277</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>1075731.791908035</v>
+        <v>19.6863702720173</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>699714.5412493875</v>
+        <v>19.7513256441205</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>949174.3849346685</v>
+        <v>19.80100230404611</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>321583.6623532516</v>
+        <v>19.65292951566123</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>-678193.6545896694</v>
+        <v>19.53434855067514</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>-1049927.565693289</v>
+        <v>19.52421417684457</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>-850649.4286290489</v>
+        <v>19.54364824864415</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>-1472765.006168162</v>
+        <v>19.46592930402796</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>-273361.7135846333</v>
+        <v>19.5277498117534</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>-137507.84631952</v>
+        <v>19.58077668255054</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-226184.3321078601</v>
+        <v>19.58962743682576</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>96697.96042594642</v>
+        <v>19.61648952439324</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-824008.330894453</v>
+        <v>19.52548589006053</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>266137.9662594054</v>
+        <v>19.61095767394724</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>-125400.9823913627</v>
+        <v>19.58065680233754</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-418016.1360414949</v>
+        <v>19.59108766893217</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-100116.9041986438</v>
+        <v>19.61840072038596</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>-1250570.178094025</v>
+        <v>19.52820025627229</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>290106.2639934007</v>
+        <v>19.61489486048108</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>213052.1638152481</v>
+        <v>19.57024629517706</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>-857810.5181855493</v>
+        <v>19.56952654976937</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>-436468.1826607684</v>
+        <v>19.5898598935126</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>-2009474.967451604</v>
+        <v>19.51660945471144</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>478006.2403541098</v>
+        <v>19.58849285550874</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>-415895.5395730218</v>
+        <v>19.53621663147486</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-357008.1067928578</v>
+        <v>19.56609762507273</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>-778093.829777553</v>
+        <v>19.46072529312616</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>77651.93345554068</v>
+        <v>19.5543134610226</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-222616.8441413919</v>
+        <v>19.58812944149728</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>-158405.5442814466</v>
+        <v>19.62662060567317</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>-663864.1075395449</v>
+        <v>19.49970730228774</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>86492.63053717978</v>
+        <v>19.65052110964777</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>287768.9532362272</v>
+        <v>19.69127036370738</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>-303559.8401391497</v>
+        <v>19.56804677241658</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>710163.1937116213</v>
+        <v>19.66429391144064</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>410804.2196029026</v>
+        <v>19.73651068045524</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>629740.5154222852</v>
+        <v>19.7874956966274</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>-62003.58105157083</v>
+        <v>19.63995337662971</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>-52800.22472475184</v>
+        <v>19.65654984953187</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>153444.0139708801</v>
+        <v>19.69792974962737</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>-506153.567209289</v>
+        <v>19.57583823552447</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>786516.4524096056</v>
+        <v>19.67403049593819</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>344655.2787634101</v>
+        <v>19.74885431597797</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>575611.4277941555</v>
+        <v>19.80040355104147</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>-217887.4140935622</v>
+        <v>19.65439268251432</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>-308322.264230986</v>
+        <v>19.6091430251316</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-45319.56714795128</v>
+        <v>19.64021037875361</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>-837703.8401096785</v>
+        <v>19.54090207186472</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>1344463.488443039</v>
+        <v>19.63388054012867</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>458950.3385565213</v>
+        <v>19.68115085688668</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>735779.7293795444</v>
+        <v>19.7204183945325</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>-303387.3048662979</v>
+        <v>19.60117923322802</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>1926210.719910553</v>
+        <v>19.63785936359342</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>462381.2906427665</v>
+        <v>19.64549280260137</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>876781.5354102189</v>
+        <v>19.67425227072642</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>-325442.4058167459</v>
+        <v>19.57316494584479</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>493287.7278026398</v>
+        <v>19.64198440390561</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>2021163.758659501</v>
+        <v>19.69605969227957</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>970770.3317820401</v>
+        <v>19.72653238608718</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>1468577.012409288</v>
+        <v>19.76439719831025</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>96269.12756629476</v>
+        <v>19.64696853681876</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>876879.5070750422</v>
+        <v>19.74212951820483</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>1995541.516865168</v>
+        <v>19.69028683371434</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>856249.1947701179</v>
+        <v>19.72167725091719</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>1363099.397796567</v>
+        <v>19.75984757362573</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>-204205.7219169011</v>
+        <v>19.64371504146409</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>907391.0896362042</v>
+        <v>19.74005844583517</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>3025790.430111469</v>
+        <v>19.66314418377554</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>959543.945406105</v>
+        <v>19.67901731486231</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>1608421.044592597</v>
+        <v>19.70811523015328</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>-535171.1168884967</v>
+        <v>19.61344281823341</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>1262601.919305159</v>
+        <v>19.6932452213576</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>138968.671888361</v>
+        <v>19.67467953213215</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>350842.6375288993</v>
+        <v>19.71793296845925</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-185026.9100882803</v>
+        <v>19.58128051118999</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>634503.7802887153</v>
+        <v>19.6784561090922</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>254639.8279711879</v>
+        <v>19.74149719009112</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>453799.4337519984</v>
+        <v>19.79519641461517</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>-112387.4770669593</v>
+        <v>19.63282228795369</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>500785.782566804</v>
+        <v>19.81169620490128</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>780837.6910443938</v>
+        <v>19.86821994980363</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>139396.0952891328</v>
+        <v>19.70965759674242</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>954216.6503972613</v>
+        <v>19.80946982045894</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>619259.3288236476</v>
+        <v>19.91785574050591</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>897723.6296172721</v>
+        <v>19.98674874370983</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>244134.9411644022</v>
+        <v>19.79918755086683</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>449368.6220553504</v>
+        <v>19.81093333778673</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>739190.2536298195</v>
+        <v>19.86788754410493</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>39694.33616664133</v>
+        <v>19.71112525316018</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>1012107.589679179</v>
+        <v>19.81372152492668</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>615415.8861839055</v>
+        <v>19.92396105240709</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>913656.0559749908</v>
+        <v>19.99319597377142</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>184852.5766580087</v>
+        <v>19.80792383360978</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>447276.1658350063</v>
+        <v>19.73679126354676</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>828181.1392046498</v>
+        <v>19.7804421480142</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>-45223.44905821464</v>
+        <v>19.65246429969536</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>1554485.506961359</v>
+        <v>19.7503899373187</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>841112.838496282</v>
+        <v>19.82559404698586</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>1232703.930279906</v>
+        <v>19.87917393196379</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>252768.8203365078</v>
+        <v>19.72742816644494</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-378035.8735249178</v>
+        <v>19.52876391845314</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>-670213.8659784906</v>
+        <v>19.5168350023721</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>-532360.7874496211</v>
+        <v>19.53615134282713</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-1015368.131687763</v>
+        <v>19.4564179071679</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>-152062.1532263542</v>
+        <v>19.51961360453076</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>102736.273711935</v>
+        <v>19.57402756888564</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>-30518.29031554976</v>
+        <v>19.58158191392426</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>215165.0353928628</v>
+        <v>19.60873409531908</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>-418585.7945401511</v>
+        <v>19.51495920591372</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>548086.9710665101</v>
+        <v>19.60420696766806</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>92727.17787109019</v>
+        <v>19.57114305433159</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>-132952.9161740075</v>
+        <v>19.57997731661868</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>102941.0047742889</v>
+        <v>19.60762349067972</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>-642956.3788636248</v>
+        <v>19.51462974393879</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>550128.3473295508</v>
+        <v>19.60486710919098</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>54856.47797322008</v>
+        <v>19.56216966682659</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>-538632.4930302395</v>
+        <v>19.55963932245579</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>-269241.474171501</v>
+        <v>19.580022506866</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-1274217.181762426</v>
+        <v>19.5047856030877</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>452039.6310856215</v>
+        <v>19.57814794294129</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-271472.8368583829</v>
+        <v>19.52500005678558</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-217840.727396274</v>
+        <v>19.55500199137151</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>-478262.1811791563</v>
+        <v>19.44629289010647</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>9019.047218845604</v>
+        <v>19.56151263196095</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-97208.47563091817</v>
+        <v>19.59625475252163</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>-8671.848177950014</v>
+        <v>19.63595156356186</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>-365893.5307355588</v>
+        <v>19.50322569414973</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>260944.8939983026</v>
+        <v>19.6417729375539</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>403820.5123656557</v>
+        <v>19.68325749820918</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>9802.97552801753</v>
+        <v>19.55562601406053</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>765110.249477457</v>
+        <v>19.67627389708489</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>533753.5220639309</v>
+        <v>19.75127256684662</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>722584.313840666</v>
+        <v>19.80424536274208</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>224147.6282288919</v>
+        <v>19.64951598012146</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>170029.3720137454</v>
+        <v>19.64419441853704</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>305970.8155118416</v>
+        <v>19.68636282834414</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>-109230.0766088641</v>
+        <v>19.55986068428154</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>853832.5812163072</v>
+        <v>19.68261451930784</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>531343.5077262982</v>
+        <v>19.75985005881482</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>725506.2574410635</v>
+        <v>19.81342361349457</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>170286.8363318728</v>
+        <v>19.66027809097325</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>-128488.5825537293</v>
+        <v>19.5958886638045</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>24359.00872078209</v>
+        <v>19.62728512786946</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>-429041.5132130795</v>
+        <v>19.52475297331463</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>1054109.591619392</v>
+        <v>19.63862584701391</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>549214.1281826088</v>
+        <v>19.68684600440687</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>779680.8404571245</v>
+        <v>19.72745544075816</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>87314.42148261311</v>
+        <v>19.60272715530654</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>-853397.4357748871</v>
+        <v>19.57222244171221</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>-1177201.220525253</v>
+        <v>19.56627848073955</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>-1004804.087342019</v>
+        <v>19.58841131983369</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>-1667122.950999494</v>
+        <v>19.50388488242044</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>483741.6236214178</v>
+        <v>19.59625764436358</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>-389420.5055076779</v>
+        <v>19.61814353760797</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>-489127.5707586817</v>
+        <v>19.63113231270825</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>-199437.9692984719</v>
+        <v>19.66103913836658</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>-1112528.290572419</v>
+        <v>19.56237577385899</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>981352.1899942722</v>
+        <v>19.6808536917282</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>-264555.8844211814</v>
+        <v>19.61489390438202</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>-494015.4906434008</v>
+        <v>19.6290714974652</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>-200209.3004274986</v>
+        <v>19.65935109929272</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>-1313825.832874773</v>
+        <v>19.56168192305915</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>1067968.96469888</v>
+        <v>19.68008272919809</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>74780.32741352994</v>
+        <v>19.6011221013798</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>-682160.6272686798</v>
+        <v>19.60381217493841</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>-277140.4091104689</v>
+        <v>19.62660349784279</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-1829596.904323999</v>
+        <v>19.54722892060988</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>1503654.367727252</v>
+        <v>19.64567479434646</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>206144.8857358503</v>
+        <v>19.61381290963097</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>394408.1359669919</v>
+        <v>19.64778279910518</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>-131504.9677762121</v>
+        <v>19.53307818311744</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>564905.7420394537</v>
+        <v>19.63224601295312</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>203375.5169017788</v>
+        <v>19.67691290870663</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>414359.5346328543</v>
+        <v>19.72030220868806</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-224493.3700311095</v>
+        <v>19.5822586410972</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>584757.2651063957</v>
+        <v>19.72982687479403</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>869160.6263524443</v>
+        <v>19.77517098424838</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>178315.5865416724</v>
+        <v>19.64147485074434</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>1108907.133633083</v>
+        <v>19.74448186659926</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>730846.8287637139</v>
+        <v>19.82809353322858</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>1054687.356758662</v>
+        <v>19.88457895979278</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>261387.9487083968</v>
+        <v>19.72457276960884</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>564438.8594154213</v>
+        <v>19.73051303045663</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>860531.5734389327</v>
+        <v>19.77636650399112</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>107738.6064857004</v>
+        <v>19.6440720102632</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>1265720.05743629</v>
+        <v>19.74911112388945</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>796493.1553396391</v>
+        <v>19.83464722378766</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>1148027.134698413</v>
+        <v>19.89155758660058</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>259580.2529833811</v>
+        <v>19.73340264281766</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>716634.0712005635</v>
+        <v>19.67396608033616</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>1110170.094072134</v>
+        <v>19.70874453258961</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>210760.8454338191</v>
+        <v>19.60105761393301</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>1859661.260612087</v>
+        <v>19.69950193853794</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>1095914.880637353</v>
+        <v>19.75604070938989</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>1563631.755303313</v>
+        <v>19.79976196955095</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>407871.7846663744</v>
+        <v>19.67052369032115</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-214761.2166432868</v>
+        <v>19.53938996288554</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>-455318.6214377633</v>
+        <v>19.52973649146474</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>-292029.4323763932</v>
+        <v>19.54798732162909</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>-735273.0299030924</v>
+        <v>19.47500126743885</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>-379912.4605989814</v>
+        <v>19.51716233771836</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>153184.2466015053</v>
+        <v>19.57767240226075</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>182433.2477758036</v>
+        <v>19.58528143372105</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>480637.206407977</v>
+        <v>19.61062358755223</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>-196271.4622202604</v>
+        <v>19.52493250485367</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>252616.4033624755</v>
+        <v>19.58805860078668</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>147581.5764804938</v>
+        <v>19.57467190799764</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>81365.00241472425</v>
+        <v>19.58339971669589</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>375470.0860228879</v>
+        <v>19.60916705042676</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-473230.4918563981</v>
+        <v>19.52421219980965</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>240171.6560169497</v>
+        <v>19.58858844171991</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>387122.5174455587</v>
+        <v>19.56820032906892</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-135645.8007727181</v>
+        <v>19.5668755887658</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>237734.1421647108</v>
+        <v>19.58601455584965</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-971289.482654433</v>
+        <v>19.51719508152719</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>241992.9133161913</v>
+        <v>19.56973340934079</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>-467683.4737010149</v>
+        <v>19.52174181200028</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>-393163.2879834067</v>
+        <v>19.54988084334792</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>-693959.949141116</v>
+        <v>19.45066623235088</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>86958.26711070852</v>
+        <v>19.56250794814481</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-118434.4984467252</v>
+        <v>19.59426870535437</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>42886.34298070331</v>
+        <v>19.63133015895239</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-495581.6283051751</v>
+        <v>19.51001134852852</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>36652.77255352175</v>
+        <v>19.62100907534628</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>220165.8409231465</v>
+        <v>19.65952320091158</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-246159.876454366</v>
+        <v>19.54323166675099</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>727541.3253728348</v>
+        <v>19.66091269138429</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>498306.3078416898</v>
+        <v>19.72834710689591</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>779133.1031811478</v>
+        <v>19.77741261723699</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>90864.7024957902</v>
+        <v>19.63620189002862</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>-64666.96351381813</v>
+        <v>19.62313338046323</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>117340.8560693163</v>
+        <v>19.66223824243882</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-384146.2557830676</v>
+        <v>19.54700206941476</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>821030.4709538821</v>
+        <v>19.66626616627596</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>511157.2283352818</v>
+        <v>19.73569718806663</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>810598.312248635</v>
+        <v>19.78527456222445</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>41180.27405070397</v>
+        <v>19.64554216037245</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>-305469.8956202718</v>
+        <v>19.58542661938268</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>-79965.57446087938</v>
+        <v>19.61472682421611</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>-651131.9222604597</v>
+        <v>19.52121018043294</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>1177996.170669609</v>
+        <v>19.63086111995323</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>607941.7707337227</v>
+        <v>19.67465994939785</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>994545.4174769855</v>
+        <v>19.71243317973779</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>-9684.044377804588</v>
+        <v>19.5985003322988</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>-1396135.201339703</v>
+        <v>19.4968981623676</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>-981946.4425743918</v>
+        <v>19.47887014177897</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>-981698.8394702472</v>
+        <v>19.49603859063673</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>-872693.8353841697</v>
+        <v>19.42336089548404</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>-738092.7951840075</v>
+        <v>19.47495142449731</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>-1046495.451053417</v>
+        <v>19.53220713440219</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>-477536.1922523364</v>
+        <v>19.53115853936467</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>-372926.3059706003</v>
+        <v>19.55547759616932</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>-489949.6138247713</v>
+        <v>19.46991802239034</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>-228654.0678193208</v>
+        <v>19.5436597492023</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>-1033937.51423746</v>
+        <v>19.53054705531147</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>-538403.0325449876</v>
+        <v>19.53092317812236</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>-444466.2721004475</v>
+        <v>19.55573203319566</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>-679840.8437164443</v>
+        <v>19.47085565201282</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>-254605.6507960373</v>
+        <v>19.54557503783599</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>-1244418.132235622</v>
+        <v>19.53123777397395</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>-888375.5204450035</v>
+        <v>19.52268053392787</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>-751076.2067675467</v>
+        <v>19.54093808556832</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>-1115074.836014909</v>
+        <v>19.47229090166131</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>-395986.2147018356</v>
+        <v>19.53359028163689</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>-620689.4274991684</v>
+        <v>19.47130661697934</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>-619277.5330717971</v>
+        <v>19.49816638026272</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>-713447.3160896193</v>
+        <v>19.39920606480172</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>-261394.4823286519</v>
+        <v>19.52211596762243</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>-307273.2695287745</v>
+        <v>19.54638269869034</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>-227381.4480543029</v>
+        <v>19.5824138333866</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-551944.9873789252</v>
+        <v>19.46062105827839</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-239585.5099892749</v>
+        <v>19.56837373126137</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>-142525.5230398196</v>
+        <v>19.60571962409839</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>-394752.5688269903</v>
+        <v>19.48943188860655</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>302266.0238880665</v>
+        <v>19.61911735236801</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>219451.6783957664</v>
+        <v>19.67924786534327</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>404186.2251901486</v>
+        <v>19.72744049618925</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>-67342.6937104667</v>
+        <v>19.58541209323151</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>-333673.0602226379</v>
+        <v>19.57220773344744</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>-240031.6497845264</v>
+        <v>19.6102287268932</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-512408.4106867877</v>
+        <v>19.49493086738462</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>388427.2251010528</v>
+        <v>19.62595591402582</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>236265.2771605608</v>
+        <v>19.68841849877584</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>434404.5006465618</v>
+        <v>19.73720485954899</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>-100320.9549711029</v>
+        <v>19.5966043883934</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>-579174.6524197692</v>
+        <v>19.54230450156209</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>-466348.0898777957</v>
+        <v>19.57058570596638</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>-726919.3184013102</v>
+        <v>19.47715695671073</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>562053.058125663</v>
+        <v>19.59693768777218</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>245765.31909557</v>
+        <v>19.63452357620063</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>501585.6049076723</v>
+        <v>19.6715140215171</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>-176041.0652763418</v>
+        <v>19.55699852280217</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>459439.912205307</v>
+        <v>19.56594050549022</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>-15963.50455761197</v>
+        <v>19.56126821448001</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>285110.6817825602</v>
+        <v>19.57989552785223</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>-283532.9311605425</v>
+        <v>19.50511160764717</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>-37090.23973675098</v>
+        <v>19.5556232095091</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>1202579.748802957</v>
+        <v>19.61609221270593</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>1056124.985311478</v>
+        <v>19.63108383617952</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>1505019.507018273</v>
+        <v>19.6570904537091</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>660572.1409031413</v>
+        <v>19.56928515622984</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>734103.5092470461</v>
+        <v>19.64311025011074</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>1369218.128515239</v>
+        <v>19.61481047342659</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>1007850.282466731</v>
+        <v>19.63118709345547</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>1457064.490789217</v>
+        <v>19.6576670544464</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>397330.3407472385</v>
+        <v>19.57057592715191</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>845208.8704718356</v>
+        <v>19.64603279506013</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>1852616.412511035</v>
+        <v>19.59827085928033</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>687728.9669398806</v>
+        <v>19.60240789833083</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>1232331.485150859</v>
+        <v>19.62201928069162</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>-200467.8335866194</v>
+        <v>19.55139738077492</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>1122766.058123858</v>
+        <v>19.61336981762085</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>-260936.57698915</v>
+        <v>19.56806115833044</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>-154541.1025276851</v>
+        <v>19.59669792406233</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>-540009.8348966746</v>
+        <v>19.49511872650816</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>238374.8709153022</v>
+        <v>19.59081142575592</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>-11781.36074354014</v>
+        <v>19.62995355129966</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>131803.4865295267</v>
+        <v>19.66726141447625</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>-365567.4389435727</v>
+        <v>19.54409745407861</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>490725.542848799</v>
+        <v>19.68734076567897</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>750439.3230066281</v>
+        <v>19.72677052619023</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>199996.7523095706</v>
+        <v>19.60767655411456</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>1136036.059316879</v>
+        <v>19.70631609325544</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>869165.4902160991</v>
+        <v>19.78474245345436</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>1173157.057541151</v>
+        <v>19.83447924217046</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>495955.9384581723</v>
+        <v>19.69101250842006</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>426635.9142945033</v>
+        <v>19.69221165353268</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>690912.7001036074</v>
+        <v>19.73230725723938</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>78219.90289370032</v>
+        <v>19.61423001372299</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>1286585.761762776</v>
+        <v>19.71487327985804</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>871197.3977814369</v>
+        <v>19.79573574251484</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>1188506.821040716</v>
+        <v>19.84607142598758</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>414325.1343206463</v>
+        <v>19.7040194116177</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>147030.4546459893</v>
+        <v>19.63756977171839</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>461707.4098994235</v>
+        <v>19.66752478538384</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>-277524.5511433536</v>
+        <v>19.57161082616918</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>1818064.337581937</v>
+        <v>19.66669137492624</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>953128.0633494261</v>
+        <v>19.71875411109571</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>1324280.921827471</v>
+        <v>19.75696633908987</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>312133.356183324</v>
+        <v>19.64107717656556</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>1932009.799995362</v>
+        <v>19.59211508063109</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>801075.7084004141</v>
+        <v>19.59056453365809</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>1220599.291699893</v>
+        <v>19.61000104912106</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>4276.045200101216</v>
+        <v>19.53531753363234</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>582784.2819385261</v>
+        <v>19.58746937165797</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>2115518.177548159</v>
+        <v>19.63607482414298</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>1405121.688995769</v>
+        <v>19.6523066308771</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>1945646.627423723</v>
+        <v>19.6788349438272</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>614421.1651091705</v>
+        <v>19.59139724341985</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>1204752.754038617</v>
+        <v>19.66537930131518</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>2174621.360230818</v>
+        <v>19.63187259280304</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>1356266.655143291</v>
+        <v>19.64898148746208</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>1895963.918715627</v>
+        <v>19.67587472595098</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>381199.7912750379</v>
+        <v>19.58925949568181</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>1234938.455269317</v>
+        <v>19.66417802506871</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>3258227.871692974</v>
+        <v>19.61559857638106</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>1648614.769953988</v>
+        <v>19.6214242498762</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>2342339.812829726</v>
+        <v>19.64155398986283</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>184345.6769427889</v>
+        <v>19.57130054137942</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>1548339.012415248</v>
+        <v>19.63251937173182</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>177399.8922187325</v>
+        <v>19.60259255773729</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>353602.2703407325</v>
+        <v>19.63212185744881</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>-224907.1394637734</v>
+        <v>19.53094092973692</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>674453.4379644538</v>
+        <v>19.6186971344324</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>241276.9635544868</v>
+        <v>19.65883888622547</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>450143.902611124</v>
+        <v>19.69695553873978</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>-256468.0711529107</v>
+        <v>19.57443399411591</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>674236.5670227265</v>
+        <v>19.70944040862945</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>958075.3780573633</v>
+        <v>19.7493140473016</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>232472.2884946163</v>
+        <v>19.63101343680179</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>1309058.71898648</v>
+        <v>19.72207302917506</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>847372.8597655868</v>
+        <v>19.7981108784867</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>1181737.298469621</v>
+        <v>19.84815172868378</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>326409.9921112803</v>
+        <v>19.70578224782896</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>594073.9835024906</v>
+        <v>19.70949608450127</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>878046.0669667122</v>
+        <v>19.74988132367694</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>108522.2448245005</v>
+        <v>19.63274184726439</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>1420781.729768168</v>
+        <v>19.72592705420514</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>860991.2179493726</v>
+        <v>19.8036511698502</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>1213228.761575553</v>
+        <v>19.85412814546856</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>271134.1152201585</v>
+        <v>19.71332786810737</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>558903.0848117372</v>
+        <v>19.65744808038513</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>916470.3149494505</v>
+        <v>19.68788665202957</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>-9201.930001000175</v>
+        <v>19.59272698680358</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>2000789.246482757</v>
+        <v>19.68039320114492</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>1103374.812507833</v>
+        <v>19.73137809798013</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>1550716.932898855</v>
+        <v>19.76997285462303</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>325874.7533374385</v>
+        <v>19.65510069934053</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>2442241.166107963</v>
+        <v>19.60294751273211</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>296513.5579718573</v>
+        <v>19.60504643450214</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>912249.0396630277</v>
+        <v>19.62344158386715</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>-850213.70294468</v>
+        <v>19.5546035040961</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>1081842.076462832</v>
+        <v>19.60684726164297</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>2998864.950022467</v>
+        <v>19.64908632827089</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>1599534.554892939</v>
+        <v>19.66847545341365</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>2400337.209917217</v>
+        <v>19.69336459079525</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>297005.112497561</v>
+        <v>19.61300306451272</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>1888070.55370048</v>
+        <v>19.68557457881792</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>3133628.893892189</v>
+        <v>19.64715929056357</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>1429781.46658508</v>
+        <v>19.66757981070292</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>2237950.076995361</v>
+        <v>19.69279563775285</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>-241014.4198098776</v>
+        <v>19.61320090192221</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>2025553.763742405</v>
+        <v>19.68689253440224</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>4919983.946634616</v>
+        <v>19.62718715228143</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>1394661.884287091</v>
+        <v>19.63621608117935</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>2427209.5313744</v>
+        <v>19.65518139519866</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>-994144.035840605</v>
+        <v>19.59043225762293</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>2940601.827601658</v>
+        <v>19.65142463970493</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>287721.7683433988</v>
+        <v>19.62656315277878</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>565776.4536037697</v>
+        <v>19.65441733185818</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>-312130.6121887577</v>
+        <v>19.56125644615783</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>1074316.03334635</v>
+        <v>19.62923819722964</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>349470.640375081</v>
+        <v>19.67068369452511</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>634531.8418218883</v>
+        <v>19.70587840988683</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>-304071.7375457979</v>
+        <v>19.59446131225548</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>1154123.057991232</v>
+        <v>19.73311522145731</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>1630654.261056856</v>
+        <v>19.77044306687037</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>547737.9916324443</v>
+        <v>19.66181306860959</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>2005638.538629087</v>
+        <v>19.73076202708732</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>1360706.184732398</v>
+        <v>19.8062642662542</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>1859653.459721693</v>
+        <v>19.85231795328716</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>699296.1042918727</v>
+        <v>19.72307574206407</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>1042440.579125169</v>
+        <v>19.73585809510856</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>1533948.311999539</v>
+        <v>19.77364861701337</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>335793.9457151697</v>
+        <v>19.66608991162515</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>2175457.61284544</v>
+        <v>19.73704381115443</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>1327781.562427256</v>
+        <v>19.81440742968943</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>1852446.037188692</v>
+        <v>19.86086715239363</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>538442.1135704812</v>
+        <v>19.73303385185079</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>979839.1011542426</v>
+        <v>19.68026754209192</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>1606717.373890857</v>
+        <v>19.70887737673177</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>90398.00886296396</v>
+        <v>19.62124733375737</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>3320756.095193819</v>
+        <v>19.68987068340693</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>1684618.344143731</v>
+        <v>19.74150847878686</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>2331149.89758309</v>
+        <v>19.77710876814539</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>571503.3496147422</v>
+        <v>19.67258577319192</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>4330453.238011331</v>
+        <v>19.58503313567525</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>588157.8981413945</v>
+        <v>19.58357348455465</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>1393410.933355225</v>
+        <v>19.59582351480034</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>-960919.8649070485</v>
+        <v>19.54733311661367</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>3304608.912745589</v>
+        <v>19.59050474244128</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>5480109.869822209</v>
+        <v>19.61878773355755</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>2910608.410390304</v>
+        <v>19.62996464744356</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>4009898.904504059</v>
+        <v>19.646912326189</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>1118554.055316744</v>
+        <v>19.59009976253104</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>4380222.064794539</v>
+        <v>19.64881569033829</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>6203504.058977425</v>
+        <v>19.61803410229476</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>2956790.077049503</v>
+        <v>19.63011869193797</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>4075011.857325904</v>
+        <v>19.64735556444648</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>576663.9399600598</v>
+        <v>19.59102704977145</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>4822395.969536295</v>
+        <v>19.65049098822596</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>9495348.373465952</v>
+        <v>19.60483333069873</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>3079102.782795159</v>
+        <v>19.60892964325175</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>4566252.032920666</v>
+        <v>19.62175782500053</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>-372319.7192834347</v>
+        <v>19.57601463559533</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>6999484.968533739</v>
+        <v>19.62537383107973</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>782222.6941268571</v>
+        <v>19.60170389219993</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>1113209.964866879</v>
+        <v>19.62046490835757</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>-137124.7928292374</v>
+        <v>19.55471715394982</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>3087497.233262882</v>
+        <v>19.60754400634139</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>982541.5320842745</v>
+        <v>19.63480405406516</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>1347556.664677939</v>
+        <v>19.65894181676474</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>-55810.83936497444</v>
+        <v>19.57976506572412</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>2121817.183484776</v>
+        <v>19.68045874342511</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>2790617.298881628</v>
+        <v>19.70608647482747</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>1229691.523779477</v>
+        <v>19.62915243242088</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>4500879.494120504</v>
+        <v>19.68291452587867</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>2634725.920845919</v>
+        <v>19.73524984331684</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>3357124.540731007</v>
+        <v>19.7672748011786</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>1590999.924284079</v>
+        <v>19.67517604797265</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>2047822.899632171</v>
+        <v>19.68336089393505</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>2742448.23275551</v>
+        <v>19.70939557163958</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>994117.1985063826</v>
+        <v>19.63314429181053</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>4970809.661597224</v>
+        <v>19.68829238647235</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>2677800.621379617</v>
+        <v>19.74218324582735</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>3436348.363077571</v>
+        <v>19.77457467913453</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>1417996.763624199</v>
+        <v>19.68340542741688</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>2157290.462025197</v>
+        <v>19.64383910395053</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>3057701.925355072</v>
+        <v>19.66337260582884</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>799736.3676949969</v>
+        <v>19.60135101810182</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>7419939.733252857</v>
+        <v>19.65436031349134</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>3457092.845420101</v>
+        <v>19.68969194187545</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>4392105.851645771</v>
+        <v>19.71434851215287</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>1663102.728122284</v>
+        <v>19.63989629026052</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>1041268.976695906</v>
+        <v>19.58283218170929</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>202346.8931269528</v>
+        <v>19.58089728049796</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>695821.315101399</v>
+        <v>19.59974407089136</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>-631094.7599320458</v>
+        <v>19.52804176363552</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>283590.937087882</v>
+        <v>19.57787441686659</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>2101764.421559643</v>
+        <v>19.62651107177438</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>1561650.479735435</v>
+        <v>19.6416794466099</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>2267664.782538828</v>
+        <v>19.66725899371039</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>623967.7368607086</v>
+        <v>19.58345449254825</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>1366646.35108258</v>
+        <v>19.65395395837082</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>2245067.8035917</v>
+        <v>19.623735092358</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>1501283.636848997</v>
+        <v>19.63986448757298</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>2210067.924310857</v>
+        <v>19.66577204544753</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>281542.4487571062</v>
+        <v>19.58278443439286</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>1451722.770348408</v>
+        <v>19.6543056748289</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>2765519.077973731</v>
+        <v>19.60732882153499</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>1229528.210794599</v>
+        <v>19.61256574768471</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>2058342.127454937</v>
+        <v>19.63199913973315</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>-542040.7237082719</v>
+        <v>19.56460935464346</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>1536181.02693968</v>
+        <v>19.62323485832702</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>-176547.9246419924</v>
+        <v>19.59190882208817</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>33612.52486051605</v>
+        <v>19.62049586453981</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>-707559.074651271</v>
+        <v>19.52336004192868</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>568361.2798966483</v>
+        <v>19.60113213579539</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>67783.36106719801</v>
+        <v>19.63775760694584</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>297488.9703054448</v>
+        <v>19.67424956996289</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>-540548.2525971651</v>
+        <v>19.5574823624071</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>712137.8189000355</v>
+        <v>19.69567869022035</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>1092396.194352563</v>
+        <v>19.73408405622443</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>123221.9729140825</v>
+        <v>19.62069896054267</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>1635368.111937042</v>
+        <v>19.70069660034467</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>1048128.671901817</v>
+        <v>19.7714687067821</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>1465340.44475688</v>
+        <v>19.81924794428758</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>395789.4797777052</v>
+        <v>19.68371010262551</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>612385.9851381457</v>
+        <v>19.69737861648537</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>997632.9412791732</v>
+        <v>19.73624465570888</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>-52118.81366315726</v>
+        <v>19.62400712385035</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>1791882.572472115</v>
+        <v>19.70604827400583</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>1050730.540380092</v>
+        <v>19.77860490261378</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>1491616.701062245</v>
+        <v>19.82677769470817</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>295540.6181299736</v>
+        <v>19.69275967048406</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>226042.6555231263</v>
+        <v>19.64676002778891</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>683273.5310483064</v>
+        <v>19.67611261844879</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>-558579.9110587413</v>
+        <v>19.58483012615757</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>2326808.06722239</v>
+        <v>19.66288406474009</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>1151342.822773114</v>
+        <v>19.71007737676057</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>1683854.831330192</v>
+        <v>19.74694345928794</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>151926.9436595208</v>
+        <v>19.6375191340243</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>-352637.0338330184</v>
+        <v>19.55159322558077</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>-906679.6627942254</v>
+        <v>19.54426247451981</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>-648074.9111682429</v>
+        <v>19.56000710029602</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>-1445875.256232531</v>
+        <v>19.49575035151524</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>120519.4059897922</v>
+        <v>19.55172852413352</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>562082.5713963497</v>
+        <v>19.59249127492784</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>341135.6154980452</v>
+        <v>19.60151867211203</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>765145.2124669863</v>
+        <v>19.62355981956003</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>-334969.1141363807</v>
+        <v>19.5481297274818</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>1137652.956099613</v>
+        <v>19.62565905668446</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>670024.4714143496</v>
+        <v>19.59127695671078</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>223400.54487089</v>
+        <v>19.60149400281411</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>636064.7702070617</v>
+        <v>19.62393809620377</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>-699237.6152392039</v>
+        <v>19.54913524340178</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>1249165.65971573</v>
+        <v>19.62759979800457</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>1059527.205462944</v>
+        <v>19.58003622362197</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>-319320.7339695181</v>
+        <v>19.58045652323343</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>164722.9284938876</v>
+        <v>19.59705313055892</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>-1664624.960069102</v>
+        <v>19.5363958485252</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>1731237.089789969</v>
+        <v>19.60078088576853</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>-224408.4920997205</v>
+        <v>19.5597961157604</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>-109456.1649715199</v>
+        <v>19.58427507557357</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>-619137.1110991349</v>
+        <v>19.4967429337909</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>190564.1182896271</v>
+        <v>19.58192100401962</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-152598.2055077061</v>
+        <v>19.61266162755237</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>-13402.80992823644</v>
+        <v>19.64461426244021</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>-626512.1367933375</v>
+        <v>19.53853646171271</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>696704.5878742751</v>
+        <v>19.66054688937428</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>977163.7115575442</v>
+        <v>19.69426447612055</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>273036.2564296217</v>
+        <v>19.59167543005301</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>1496848.297142443</v>
+        <v>19.68013365032182</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>1060046.023008167</v>
+        <v>19.7441284864419</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>1386547.047392112</v>
+        <v>19.78672797976312</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>548359.831110644</v>
+        <v>19.6631962371539</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>612995.6136948891</v>
+        <v>19.66410837154427</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>890319.5221449229</v>
+        <v>19.69838559865643</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>122910.0993142864</v>
+        <v>19.59669670957383</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>1694839.399505281</v>
+        <v>19.68692678432311</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>1088224.164722637</v>
+        <v>19.75296909699729</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>1424594.070116845</v>
+        <v>19.79606988270872</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>477056.1145401792</v>
+        <v>19.67378001095021</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>413011.5415294648</v>
+        <v>19.6190108760541</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>729253.6144423503</v>
+        <v>19.64460605469548</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>-214255.0456886686</v>
+        <v>19.56200107505087</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>2176259.733534886</v>
+        <v>19.64654888386577</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>1066326.96582446</v>
+        <v>19.68846928734758</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>1428228.904466307</v>
+        <v>19.72117962114108</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>205307.4789602819</v>
+        <v>19.62141108681051</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>680758.6237531354</v>
+        <v>19.57353201448144</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>-1066325.400953011</v>
+        <v>19.57064908465199</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>-433414.2689727931</v>
+        <v>19.58240275179265</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>-2126120.969491588</v>
+        <v>19.53514989320636</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>1169827.825260376</v>
+        <v>19.57356287899029</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>2357280.556847736</v>
+        <v>19.60619070263986</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>1498965.270925305</v>
+        <v>19.6157657535684</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>2447350.806915652</v>
+        <v>19.63215560400641</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>168002.0988405078</v>
+        <v>19.57671256141908</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>2610711.938169589</v>
+        <v>19.63033134432172</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>3202944.318022733</v>
+        <v>19.60580010365226</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>1642859.483313151</v>
+        <v>19.61632093390912</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>2611255.641815682</v>
+        <v>19.63301146010357</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>-251398.505529157</v>
+        <v>19.5780194918589</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>3077094.3947876</v>
+        <v>19.63253222735663</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>5339565.278637125</v>
+        <v>19.59446134300321</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>1293038.234947042</v>
+        <v>19.59725603638951</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>2556470.039174336</v>
+        <v>19.60962979440938</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>-1467803.688416766</v>
+        <v>19.56500607531871</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>4529971.404975407</v>
+        <v>19.6100916945718</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>-283744.6413529008</v>
+        <v>19.58232524799526</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>-73401.62764131816</v>
+        <v>19.60038723593211</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>-1082110.810222027</v>
+        <v>19.5362346934428</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>863721.5194602219</v>
+        <v>19.59083917744377</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>-244939.8834166241</v>
+        <v>19.61564366194701</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>26543.13052430676</v>
+        <v>19.63904605802024</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>-1173800.743223411</v>
+        <v>19.56155190526262</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>1272832.827355931</v>
+        <v>19.65925751409755</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>1831848.677639475</v>
+        <v>19.6841003818332</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>499666.3655398143</v>
+        <v>19.60893055791179</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>2751593.025385011</v>
+        <v>19.6646915437404</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>1704877.46534097</v>
+        <v>19.71428384498084</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>2343006.01941779</v>
+        <v>19.74548207140661</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>760530.4965059051</v>
+        <v>19.65524415045296</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>1222269.39521223</v>
+        <v>19.66275148348595</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>1802873.045580912</v>
+        <v>19.68801719970061</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>291662.5789350723</v>
+        <v>19.61348765485808</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>3232842.354077156</v>
+        <v>19.67058640204014</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>1757324.668748327</v>
+        <v>19.72179919720114</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>2427236.597979263</v>
+        <v>19.7533804196005</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>598036.1218271874</v>
+        <v>19.66402711413838</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>949245.7349729076</v>
+        <v>19.62633681290777</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>1684516.102767439</v>
+        <v>19.64522980253709</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>-250960.5290464159</v>
+        <v>19.58465134180524</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>4836350.254442457</v>
+        <v>19.63926551026987</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>2045050.657789586</v>
+        <v>19.67235267863574</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>2846813.768868596</v>
+        <v>19.696334817636</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>386445.9724127593</v>
+        <v>19.62340489980345</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>2524415.168193685</v>
+        <v>19.60467081945612</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>683641.3917950952</v>
+        <v>19.60574350455357</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>1108028.708164932</v>
+        <v>19.62551139636741</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>-188919.948208433</v>
+        <v>19.55096972814477</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>937791.7669875134</v>
+        <v>19.60561988429301</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>2662307.403480534</v>
+        <v>19.65110271037524</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>1425268.723941263</v>
+        <v>19.6703442511693</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>1976582.323315915</v>
+        <v>19.6971601626592</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>458771.4467276344</v>
+        <v>19.61006462524001</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>1440412.446003832</v>
+        <v>19.68632639144251</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>2704259.487225201</v>
+        <v>19.64770578873486</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>1266793.947413107</v>
+        <v>19.66791744889303</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>1812158.056331054</v>
+        <v>19.69508728977025</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>34846.99081436798</v>
+        <v>19.60881434293099</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>1558468.397198186</v>
+        <v>19.6862283557765</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>4049623.719496012</v>
+        <v>19.62846221936235</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>1309458.02076752</v>
+        <v>19.63684763519623</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>2001498.722272307</v>
+        <v>19.65725302632399</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>-508467.0578448611</v>
+        <v>19.58712482446285</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>2295605.810044477</v>
+        <v>19.65120388784732</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>241032.3103725775</v>
+        <v>19.62482028128813</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>441823.8439113862</v>
+        <v>19.65486359224912</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>-162846.7788667835</v>
+        <v>19.55387757544878</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>835432.8409995637</v>
+        <v>19.63239749788548</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>311831.5036465965</v>
+        <v>19.6754816018214</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>520542.0164971505</v>
+        <v>19.7137070830184</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>-168241.9392863837</v>
+        <v>19.59241448124761</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>765887.1708387601</v>
+        <v>19.73492803695236</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>1092506.73506969</v>
+        <v>19.77526218913774</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>338610.4581841597</v>
+        <v>19.6574132794874</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>1534930.647776043</v>
+        <v>19.73821611381769</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>1015755.753997925</v>
+        <v>19.81753569599732</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>1370110.658397255</v>
+        <v>19.86757878658191</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>517935.9745767807</v>
+        <v>19.72682754107463</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>705318.3732191606</v>
+        <v>19.73620985422378</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>1038142.197688507</v>
+        <v>19.77704292352721</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>208866.594908773</v>
+        <v>19.66034833940509</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>1731584.606718004</v>
+        <v>19.74340036452401</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>1053644.556771945</v>
+        <v>19.82456520915968</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>1427667.72827873</v>
+        <v>19.87504124859814</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>464898.0051766227</v>
+        <v>19.73582524055791</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>762496.474391925</v>
+        <v>19.68011975856455</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>1189815.630452984</v>
+        <v>19.71099999922827</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>134037.4005805241</v>
+        <v>19.61599725603654</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>2547450.667104876</v>
+        <v>19.69512229725089</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>1360741.87561073</v>
+        <v>19.74905505744849</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>1825111.459173371</v>
+        <v>19.78772131938347</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>541875.9129780206</v>
+        <v>19.67394046069452</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>818478.559396188</v>
+        <v>19.58568628824846</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>-162213.5615332342</v>
+        <v>19.5842068610036</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>291484.5210350261</v>
+        <v>19.60358943637014</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>-939897.441142199</v>
+        <v>19.53011486224609</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>446290.6007948372</v>
+        <v>19.58165664732914</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>2151810.844476852</v>
+        <v>19.63137599246806</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>1410627.27356603</v>
+        <v>19.64749118603402</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>2061632.449445268</v>
+        <v>19.673759022791</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>517129.3128253836</v>
+        <v>19.58791025680645</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>1508827.2763399</v>
+        <v>19.66062783789908</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>2350727.083294951</v>
+        <v>19.62877791845468</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>1381170.757875697</v>
+        <v>19.64589527004222</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>2036893.434118509</v>
+        <v>19.67249523674362</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>211097.0190512628</v>
+        <v>19.58748417249155</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>1613169.010836918</v>
+        <v>19.66127325397263</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>2748382.143606941</v>
+        <v>19.61095943171986</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>912845.6708851757</v>
+        <v>19.6168048750429</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>1693735.626250872</v>
+        <v>19.6367710923453</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>-778381.0147872927</v>
+        <v>19.56771769356712</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>1804820.888911768</v>
+        <v>19.62825715809909</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>-8002.286724745791</v>
+        <v>19.59680011903301</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>211208.9133608961</v>
+        <v>19.62618357701822</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>-475689.0460458055</v>
+        <v>19.5266952790163</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>483989.7288591794</v>
+        <v>19.60213076961082</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>-2078.77297643284</v>
+        <v>19.63967429689406</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>202592.7885282163</v>
+        <v>19.67702469780434</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>-553748.9030343912</v>
+        <v>19.55764545635754</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>868945.753093261</v>
+        <v>19.70420386269371</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>1246715.757932657</v>
+        <v>19.74362545246666</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>343067.5659631882</v>
+        <v>19.62752571065007</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>1590491.321669376</v>
+        <v>19.70482408581489</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>1003251.578276063</v>
+        <v>19.77733312206998</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>1390019.07101058</v>
+        <v>19.82621080306652</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>404101.1039578654</v>
+        <v>19.68766334245983</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>788940.6122049462</v>
+        <v>19.70624607817448</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>1173599.416092587</v>
+        <v>19.74613390320294</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>190188.9810707281</v>
+        <v>19.63120873826265</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>1737914.049724345</v>
+        <v>19.71067790355328</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>999298.5600535845</v>
+        <v>19.78504793616234</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>1407813.041292747</v>
+        <v>19.83432572544547</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>301481.4497574984</v>
+        <v>19.69732934879962</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>502458.4795069193</v>
+        <v>19.65307279809797</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>973835.3563475952</v>
+        <v>19.6832160607222</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>-194487.1607959107</v>
+        <v>19.58972257749291</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>2146382.229984486</v>
+        <v>19.66578053852726</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>1001725.535421932</v>
+        <v>19.71415580136014</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>1489771.762858154</v>
+        <v>19.75187506342952</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>85291.83639849638</v>
+        <v>19.63999783289906</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/aryl_halide/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/aryl_halide/ranking_test3/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.46</v>
+        <v>0.5639999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.926</v>
+        <v>16.886</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.356</v>
+        <v>0.655</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.859</v>
+        <v>15.554</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.919</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.462</v>
+        <v>7.814</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>19.56586122436079</v>
+        <v>15.03732963384014</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>19.56162004882462</v>
+        <v>4.090805749143389</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>19.5778629412299</v>
+        <v>8.93023207058944</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>19.51263591334562</v>
+        <v>-4.643582461089952</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>19.5681881279763</v>
+        <v>30.7367132853823</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>19.60988259570242</v>
+        <v>23.82396533215856</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>19.6227807666363</v>
+        <v>22.62596947589634</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>19.64543910365019</v>
+        <v>31.2514689102093</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>19.56889033794324</v>
+        <v>10.60276004085367</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>19.64589226699062</v>
+        <v>51.20337252297776</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>19.60905518961507</v>
+        <v>24.73822929009025</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>19.62319507215627</v>
+        <v>19.64798808395541</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>19.64626444108093</v>
+        <v>27.84224715825092</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>19.57034267017877</v>
+        <v>3.454477091804797</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>19.64845064336659</v>
+        <v>52.38964912763699</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>19.59466311329833</v>
+        <v>28.84610309708533</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>19.59816839263116</v>
+        <v>13.69628620610422</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>19.61526215787203</v>
+        <v>21.047744858348</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>19.55367127614255</v>
+        <v>-3.323854190356144</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>19.61811210542704</v>
+        <v>53.38893242494908</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>19.58056200659104</v>
+        <v>22.2507148579172</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>19.60560576946555</v>
+        <v>26.0423669758476</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>19.51690629397545</v>
+        <v>11.00147989518772</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>19.59598956841086</v>
+        <v>29.08748079525788</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>19.63121114616382</v>
+        <v>22.13305421791625</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>19.66371794874787</v>
+        <v>27.87936075290991</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>19.55646071265122</v>
+        <v>8.133150783954353</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>19.68612842554838</v>
+        <v>48.25489849779426</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>19.72056523658535</v>
+        <v>58.23519938291133</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>19.61662151203835</v>
+        <v>36.00708628511197</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>19.69781554094582</v>
+        <v>58.35263263620946</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>19.76737613419668</v>
+        <v>59.17968709943301</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>19.81068955731703</v>
+        <v>72.53127316868829</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>19.68578705333413</v>
+        <v>43.23281998025966</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>19.69037494714025</v>
+        <v>44.13104075804276</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>19.72538808371304</v>
+        <v>53.83040519438134</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>19.62233848429051</v>
+        <v>30.21062962740663</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>19.70537742143766</v>
+        <v>60.90265942496471</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>19.77706208523484</v>
+        <v>56.96029464215783</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>19.82089533299161</v>
+        <v>70.2154653845587</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>19.69722722381329</v>
+        <v>38.22781359952465</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>19.6406442832157</v>
+        <v>34.5368826527537</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>19.66682081623713</v>
+        <v>43.11290733430221</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>19.58307888445586</v>
+        <v>21.65329344127925</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>19.66200515864269</v>
+        <v>63.32143732427097</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>19.70843094669113</v>
+        <v>51.33084309437587</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>19.74171716595353</v>
+        <v>62.67480342426131</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>19.64079593295988</v>
+        <v>32.11036566567611</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>19.59897619069057</v>
+        <v>46.37183450525794</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>19.59929946818141</v>
+        <v>26.35950420587697</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>19.62191442648287</v>
+        <v>36.09170847476786</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>19.53894354141967</v>
+        <v>8.256553748688887</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>19.59746410471024</v>
+        <v>36.75057763384721</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>19.64536818856832</v>
+        <v>52.95763435107685</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>19.66455117628299</v>
+        <v>41.61483020695664</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>19.69479885023301</v>
+        <v>55.52864260714253</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>19.59806940221321</v>
+        <v>19.32463510724005</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>19.67933854165712</v>
+        <v>55.59137220488257</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>19.64095551362506</v>
+        <v>51.88459613033895</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>19.66104643234443</v>
+        <v>38.87318890894939</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>19.69161448764154</v>
+        <v>52.24053542465431</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>19.59588619034406</v>
+        <v>12.81345602448289</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>19.67804029899714</v>
+        <v>54.83628317252911</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>19.62328630141548</v>
+        <v>56.99828621421614</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>19.63123232483073</v>
+        <v>36.87242598740104</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>19.65435103202143</v>
+        <v>49.31420821290114</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>19.5765031895276</v>
+        <v>10.07887680663728</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>19.64415896974605</v>
+        <v>53.79997543537095</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>19.6173102098866</v>
+        <v>26.99414674521334</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>19.65147822156068</v>
+        <v>35.17116467293781</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>19.53923797052424</v>
+        <v>11.90269085176234</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>19.6309236571976</v>
+        <v>43.41169996170658</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>19.67712472688493</v>
+        <v>30.53102622800516</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>19.72036564417095</v>
+        <v>40.6944030512671</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>19.5856567553968</v>
+        <v>9.554804315645466</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>19.72988888332883</v>
+        <v>46.43067320164886</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>19.7751836583661</v>
+        <v>59.86420163126635</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>19.64449475540099</v>
+        <v>27.12939352192022</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>19.7394388502226</v>
+        <v>63.27122653901024</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>19.82364131107997</v>
+        <v>55.55258903391892</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>19.87967208079966</v>
+        <v>72.58721042872492</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>19.72365081917975</v>
+        <v>30.87085539924681</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>19.72985404969464</v>
+        <v>42.50990010334837</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>19.77559773126076</v>
+        <v>55.54398775509192</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>19.64630901363753</v>
+        <v>22.01405227036932</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>19.74342368455212</v>
+        <v>64.04578030659472</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>19.82933937664586</v>
+        <v>54.1285731454297</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>19.88573927493154</v>
+        <v>71.36200333446193</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>19.73154886315721</v>
+        <v>27.53005270197974</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>19.67399777023028</v>
+        <v>36.97853912780234</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>19.70880279840019</v>
+        <v>49.03625600983703</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>19.60350603553752</v>
+        <v>19.81940181033436</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>19.6950156829441</v>
+        <v>67.10639471567565</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>19.75229282704501</v>
+        <v>53.19925545326534</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>19.79571501058336</v>
+        <v>69.22580965730408</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>19.6696661590764</v>
+        <v>27.9668962310872</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>19.59114121010466</v>
+        <v>37.21950600534321</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>19.59086939603942</v>
+        <v>24.03937325804938</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>19.61318283704095</v>
+        <v>31.40496765105089</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>19.53104080896771</v>
+        <v>10.88870145970709</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>19.59302379102756</v>
+        <v>37.34163362085084</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>19.63710496288837</v>
+        <v>45.97817736203862</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>19.65566421806945</v>
+        <v>40.99938254960828</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>19.68559224931056</v>
+        <v>52.79391742497982</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>19.58975399680218</v>
+        <v>24.01321333982819</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>19.6747510304796</v>
+        <v>57.10703686080275</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>19.63304358411848</v>
+        <v>45.54027666330429</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>19.65253782085956</v>
+        <v>38.46359657244263</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>19.68279617989458</v>
+        <v>49.91572209970042</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>19.58793074853114</v>
+        <v>17.42199066551368</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>19.6737384081002</v>
+        <v>56.86802819186877</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>19.6164232708131</v>
+        <v>50.00852920376852</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>19.62384267666773</v>
+        <v>36.20120115029372</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>19.6466939575557</v>
+        <v>46.63558431696701</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>19.56957913747841</v>
+        <v>14.03528489822077</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>19.6404048141759</v>
+        <v>55.68956880260106</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>19.61261044867635</v>
+        <v>28.45735414699872</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>19.64645164173607</v>
+        <v>36.13048466483717</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>19.53511274296357</v>
+        <v>13.93018998533857</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>19.62702793119836</v>
+        <v>42.34554393840129</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>19.67294724967125</v>
+        <v>31.10594325108</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>19.71590072299108</v>
+        <v>40.92565912024978</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>19.58202306345641</v>
+        <v>11.21427782085473</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>19.72503389234321</v>
+        <v>48.6531952185484</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>19.76998517069082</v>
+        <v>61.66349682034863</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>19.6402591037989</v>
+        <v>30.14924621982372</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>19.7355578483327</v>
+        <v>63.86470844655352</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>19.81948472697462</v>
+        <v>57.69148076071114</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>19.87521637794459</v>
+        <v>74.46866212806385</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>19.72008159874965</v>
+        <v>34.23812618372537</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>19.72530474427281</v>
+        <v>45.2414388722658</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>19.77071634517725</v>
+        <v>58.00719406669857</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>19.64235785865795</v>
+        <v>25.43270521220327</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>19.73983934295511</v>
+        <v>65.22196590593315</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>19.82550442241961</v>
+        <v>56.86056608013881</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>19.88161578201256</v>
+        <v>74.04676412530986</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>19.72828153672991</v>
+        <v>31.384110009822</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>19.67002141000859</v>
+        <v>40.05081550774648</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>19.70453829596654</v>
+        <v>51.99564829338678</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>19.60003352480233</v>
+        <v>23.22106399108343</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>19.69181714703238</v>
+        <v>68.18727966945045</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>19.74886215173519</v>
+        <v>56.25727289070727</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>19.79203243788434</v>
+        <v>72.46409708957414</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>19.66671276327535</v>
+        <v>31.97928004808271</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>19.55126379731675</v>
+        <v>17.47921559802613</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>19.543824542651</v>
+        <v>15.75017035458542</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>19.55952697106044</v>
+        <v>21.19366176009188</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>19.49482345401425</v>
+        <v>15.25543233045158</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>19.54693277105288</v>
+        <v>27.22397300571907</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>19.59367789635004</v>
+        <v>27.80150492408077</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>19.60318807027585</v>
+        <v>35.80529991954653</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>19.62530405020028</v>
+        <v>44.83186799988066</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>19.5492565378048</v>
+        <v>31.84642584981535</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>19.62233268121705</v>
+        <v>49.89588392524458</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>19.59329290829552</v>
+        <v>29.33091459695843</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>19.60416653590711</v>
+        <v>33.48616470613593</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>19.62672339632912</v>
+        <v>42.11508109878582</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>19.55127011022449</v>
+        <v>25.32268851727926</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>19.62552907361918</v>
+        <v>51.37002458958976</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>19.58184493880912</v>
+        <v>32.19417923513628</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>19.58258184668196</v>
+        <v>26.42755859590235</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>19.59922717311452</v>
+        <v>34.55753544759799</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>19.53806690436224</v>
+        <v>17.76723304176236</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>19.59942366728092</v>
+        <v>49.25838500504011</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>19.55517438432718</v>
+        <v>20.16258941272705</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>19.57949135286915</v>
+        <v>23.7298259064422</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>19.49153517932052</v>
+        <v>10.35659332326885</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>19.5769238370047</v>
+        <v>29.17760794061136</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>19.60836677405909</v>
+        <v>22.5777893299514</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>19.64024518196131</v>
+        <v>27.49502832472775</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>19.53339468699496</v>
+        <v>9.859561120574124</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>19.65820952986931</v>
+        <v>47.83515053014015</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>19.69191955249982</v>
+        <v>57.64123024920622</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>19.58869872876356</v>
+        <v>36.27033117100817</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>19.67674308841399</v>
+        <v>57.13294870687353</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>19.74236385781766</v>
+        <v>58.3003223403163</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>19.78506446813174</v>
+        <v>70.6114097411856</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>19.66050907742668</v>
+        <v>43.05047045505302</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>19.66325261465866</v>
+        <v>44.17575157501982</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>19.69757977526644</v>
+        <v>53.75883714001131</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>19.59520917248404</v>
+        <v>31.00454528986137</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>19.68490277408876</v>
+        <v>59.36043736834742</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>19.75280439732248</v>
+        <v>55.98229341879609</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>19.79606437333745</v>
+        <v>68.21006458150177</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>19.67270751914763</v>
+        <v>37.99889481467744</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>19.61838636222682</v>
+        <v>32.39312873422459</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>19.64396197788156</v>
+        <v>40.86279044929308</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>19.56083665268712</v>
+        <v>21.06243643018711</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>19.64542240964564</v>
+        <v>60.65119712364971</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>19.6886291524633</v>
+        <v>49.24203590761591</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>19.72140730020703</v>
+        <v>59.75211596457895</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>19.62079560354293</v>
+        <v>31.31553523170792</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>19.58331164622115</v>
+        <v>30.77923997224992</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>19.58094896182259</v>
+        <v>11.79793912895475</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>19.59872409914068</v>
+        <v>18.48017228419445</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>19.52955956443129</v>
+        <v>-5.746887160062872</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>19.59948709834799</v>
+        <v>40.27096759634624</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>19.62898226310274</v>
+        <v>43.25447262834814</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>19.64391902311639</v>
+        <v>32.27191257410672</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>19.66823775353175</v>
+        <v>42.55010378314184</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>19.58739124316071</v>
+        <v>9.070399314911944</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>19.6794960705481</v>
+        <v>59.36425427685933</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>19.62797674364046</v>
+        <v>45.40429899429273</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>19.64415358022186</v>
+        <v>30.5861508474308</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>19.66884128408524</v>
+        <v>40.52087132971619</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>19.58873840245627</v>
+        <v>2.904595713796233</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>19.68149217387227</v>
+        <v>61.07892617062235</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>19.61090664257397</v>
+        <v>49.90624085605583</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>19.61618773990297</v>
+        <v>26.00252204758191</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>19.63466006699892</v>
+        <v>35.63700062497798</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>19.56953686941313</v>
+        <v>-1.527012086692874</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>19.64673003097911</v>
+        <v>62.69707543902244</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>19.61662597393465</v>
+        <v>30.71401442195141</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>19.64385727045225</v>
+        <v>37.71454916660438</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>19.55010613844692</v>
+        <v>15.15811275819059</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>19.62263119470348</v>
+        <v>41.17543770750478</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>19.66186016857219</v>
+        <v>31.19706917570275</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>19.69656192142386</v>
+        <v>38.4742223245171</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>19.58419478666884</v>
+        <v>13.0938651836615</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>19.72482647140462</v>
+        <v>53.52725894036554</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>19.76162868007757</v>
+        <v>66.64975446970732</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>19.65217867757511</v>
+        <v>35.30410079087473</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>19.72596311650294</v>
+        <v>64.89793498754641</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>19.79974182718687</v>
+        <v>61.44876431115364</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>19.84542609559851</v>
+        <v>76.10131426537276</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>19.714957676739</v>
+        <v>40.09269971795358</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>19.72842700718859</v>
+        <v>49.93474519773594</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>19.76574481637054</v>
+        <v>62.95303446193647</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>19.65733878815164</v>
+        <v>29.85598245490467</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>19.73302690545157</v>
+        <v>67.21958960914884</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>19.80885969615671</v>
+        <v>59.14635365443883</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>19.85500199635646</v>
+        <v>73.87291932030506</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>19.72592173662137</v>
+        <v>34.93816340571247</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>19.67362025655152</v>
+        <v>43.23895553957663</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>19.70176311723165</v>
+        <v>55.62060121770722</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>19.61349161417477</v>
+        <v>25.43712911558433</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>19.68628485083163</v>
+        <v>72.63783215747169</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>19.73636994629066</v>
+        <v>57.75116927519801</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>19.77162753129278</v>
+        <v>71.15847411176257</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>19.66612906266071</v>
+        <v>33.90126556996275</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>19.59440467840325</v>
+        <v>37.42321964386368</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>19.59092807985716</v>
+        <v>8.955356779555194</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>19.62088573853355</v>
+        <v>17.61344213042982</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>19.51104295052145</v>
+        <v>-17.37125322665957</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>19.63277973243164</v>
+        <v>41.13687062669401</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>19.65355185756247</v>
+        <v>43.89282257319813</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>19.67380429283672</v>
+        <v>22.14328998569588</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>19.71350728806193</v>
+        <v>33.74510241742371</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>19.58591119045373</v>
+        <v>-12.1002033615977</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>19.7399976848813</v>
+        <v>56.47059357176177</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>19.64951205718294</v>
+        <v>44.56776524392715</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>19.67123072906024</v>
+        <v>20.9259913140603</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>19.711311123491</v>
+        <v>32.12622642688856</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>19.58512427454735</v>
+        <v>-17.41796029657007</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>19.73900419057783</v>
+        <v>57.37449280735434</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>19.62844094892636</v>
+        <v>50.49346365290366</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>19.63534257051131</v>
+        <v>19.91565357959857</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>19.66581131830322</v>
+        <v>31.28860558284075</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>19.56293075619205</v>
+        <v>-17.11559496077056</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>19.69157524342699</v>
+        <v>60.21872860046776</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>19.66137975364698</v>
+        <v>33.82507206418534</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>19.70712699796059</v>
+        <v>44.44796401654495</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>19.55840370529368</v>
+        <v>18.19592848297938</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>19.67321864373712</v>
+        <v>42.64158607230303</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>19.7345095673283</v>
+        <v>33.41458405531743</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>19.79156759099755</v>
+        <v>43.89334786563323</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>19.61494358016342</v>
+        <v>14.21481028666199</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>19.80791842201037</v>
+        <v>50.1930479788419</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>19.86792709058008</v>
+        <v>65.83074802558943</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>19.69537722420942</v>
+        <v>29.27715832562405</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>19.81377548621461</v>
+        <v>61.37295799284027</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>19.92352473463493</v>
+        <v>57.11203564674437</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>19.99692519865854</v>
+        <v>73.84883989394146</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>19.79292059139764</v>
+        <v>33.48938164231957</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>19.80867616763003</v>
+        <v>47.77754572344929</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>19.8691976775905</v>
+        <v>63.35480401056537</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>19.69861018697819</v>
+        <v>25.27028310261195</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>19.81955711265981</v>
+        <v>63.85850488172007</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>19.93164900313</v>
+        <v>57.21202920408633</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>20.00546539975802</v>
+        <v>74.36465687396831</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>19.80395480902553</v>
+        <v>31.42481446926111</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>19.73289668905421</v>
+        <v>46.35534246076696</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>19.7792156291245</v>
+        <v>61.44115209077016</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>19.63992975028414</v>
+        <v>27.98551114866153</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>19.75428632805553</v>
+        <v>67.8183207521473</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>19.82973927678946</v>
+        <v>56.9854088423569</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>19.88680764737521</v>
+        <v>73.45188927984809</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>19.7217418788669</v>
+        <v>32.87657973030523</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>19.54005398433021</v>
+        <v>13.51872937164479</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>19.53112874586677</v>
+        <v>3.144385735259167</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>19.55525407350651</v>
+        <v>6.974399846210936</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>19.46013097570129</v>
+        <v>-6.822784616138271</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>19.54211995326119</v>
+        <v>21.48133910558884</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>19.59349376470584</v>
+        <v>18.60826109397067</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>19.60771897150585</v>
+        <v>15.57773973653699</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>19.64109026049378</v>
+        <v>22.90844328206109</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>19.52954744391764</v>
+        <v>1.943760400386173</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>19.64207128728355</v>
+        <v>41.25539308366649</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>19.58995390042148</v>
+        <v>17.04115177820876</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>19.60562126434008</v>
+        <v>11.16167927545696</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>19.63953125578423</v>
+        <v>18.05361686057228</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>19.52895820251278</v>
+        <v>-6.047537194322917</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>19.64255403857672</v>
+        <v>41.01605212955194</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>19.57764872574228</v>
+        <v>20.33600283002918</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>19.57933051613218</v>
+        <v>7.221842705966949</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>19.60455332171312</v>
+        <v>13.24294317857992</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>19.51486970139997</v>
+        <v>-10.58521601151017</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>19.60832579819008</v>
+        <v>40.35365399572765</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>19.556804802889</v>
+        <v>17.32109554421968</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>19.59432753808957</v>
+        <v>21.62722944938935</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>19.46443918683688</v>
+        <v>7.268699799406395</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>19.59906848192947</v>
+        <v>24.21909171908403</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>19.64894518024008</v>
+        <v>22.32849570909934</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>19.69777353927851</v>
+        <v>29.07318974574113</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>19.54012877637842</v>
+        <v>8.885390833587719</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>19.69498423591598</v>
+        <v>39.21070861065472</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>19.7460827125113</v>
+        <v>48.33129875566325</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>19.59404236056552</v>
+        <v>26.5667956020141</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>19.73510332586963</v>
+        <v>51.28446316587184</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>19.8327411622917</v>
+        <v>54.56791376498938</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>19.89723243225684</v>
+        <v>67.60306015196117</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>19.7138883159428</v>
+        <v>38.43574903914224</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>19.69742919053717</v>
+        <v>35.08235244142662</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>19.74926990439342</v>
+        <v>43.83360380757998</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>19.59862782101402</v>
+        <v>21.2192302403649</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>19.74211272057692</v>
+        <v>53.73563530053774</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>19.8422587087317</v>
+        <v>53.75700592403409</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>19.90739796934146</v>
+        <v>66.90783137164198</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>19.72597337961897</v>
+        <v>35.50077980408224</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>19.63684291175013</v>
+        <v>27.967263268368</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>19.6757696887325</v>
+        <v>35.89041038386132</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>19.55336063285277</v>
+        <v>16.01063027997965</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>19.6863702720173</v>
+        <v>55.73643676225569</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>19.7513256441205</v>
+        <v>50.90912532324118</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>19.80100230404611</v>
+        <v>62.92679047648375</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>19.65292951566123</v>
+        <v>33.03327608891629</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>19.53434855067514</v>
+        <v>7.823111921275308</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>19.52421417684457</v>
+        <v>-2.323345875076463</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>19.54364824864415</v>
+        <v>1.382421849667114</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>19.46592930402796</v>
+        <v>-10.78841433273337</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>19.5277498117534</v>
+        <v>10.66084942764651</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>19.58077668255054</v>
+        <v>14.99633825281161</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>19.58962743682576</v>
+        <v>12.32394686513248</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>19.61648952439324</v>
+        <v>19.28604595940637</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>19.52548589006053</v>
+        <v>-0.9570903427345598</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>19.61095767394724</v>
+        <v>24.58389658189688</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>19.58065680233754</v>
+        <v>15.2872383260032</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>19.59108766893217</v>
+        <v>8.621417211304756</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>19.61840072038596</v>
+        <v>15.14617020099248</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>19.52820025627229</v>
+        <v>-9.030612191445311</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>19.61489486048108</v>
+        <v>24.86150122089703</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>19.57024629517706</v>
+        <v>19.53244726647188</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>19.56952654976937</v>
+        <v>4.578337229499343</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>19.5898598935126</v>
+        <v>10.77844374669727</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>19.51660945471144</v>
+        <v>-13.01851920455617</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>19.58849285550874</v>
+        <v>26.25061074661643</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>19.53621663147486</v>
+        <v>3.81969518368653</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>19.56609762507273</v>
+        <v>5.714355084729771</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>19.46072529312616</v>
+        <v>-8.384057630053974</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>19.5543134610226</v>
+        <v>19.31434105125474</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>19.58812944149728</v>
+        <v>9.05270523048271</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>19.62662060567317</v>
+        <v>11.40291692833463</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>19.49970730228774</v>
+        <v>-7.631586218227429</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>19.65052110964777</v>
+        <v>20.42748941115733</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>19.69127036370738</v>
+        <v>27.93643165526466</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>19.56804677241658</v>
+        <v>5.627003915865942</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>19.66429391144064</v>
+        <v>39.61232154756102</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>19.73651068045524</v>
+        <v>34.63508603691767</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>19.7874956966274</v>
+        <v>43.92669063673132</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>19.63995337662971</v>
+        <v>14.51137852798693</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>19.65654984953187</v>
+        <v>15.32577478834046</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>19.69792974962737</v>
+        <v>22.64974424474049</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>19.57583823552447</v>
+        <v>-1.168418000603072</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>19.67403049593819</v>
+        <v>40.82733638247574</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>19.74885431597797</v>
+        <v>31.12380557409875</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>19.80040355104147</v>
+        <v>40.45379406545217</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>19.65439268251432</v>
+        <v>8.205149479900323</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>19.6091430251316</v>
+        <v>9.351136095876839</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>19.64021037875361</v>
+        <v>16.04711931989672</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>19.54090207186472</v>
+        <v>-4.595594074925121</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>19.63388054012867</v>
+        <v>46.15640799295092</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>19.68115085688668</v>
+        <v>30.4933858018379</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>19.7204183945325</v>
+        <v>38.51114911295795</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>19.60117923322802</v>
+        <v>8.220774304537301</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>19.63785936359342</v>
+        <v>54.20658096024854</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>19.64549280260137</v>
+        <v>29.1469680323636</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>19.67425227072642</v>
+        <v>39.85336548437643</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>19.57316494584479</v>
+        <v>8.608019783447688</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>19.64198440390561</v>
+        <v>33.59738909840192</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>19.69605969227957</v>
+        <v>62.22475882084892</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>19.72653238608718</v>
+        <v>46.28239917449352</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>19.76439719831025</v>
+        <v>61.19527876582741</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>19.64696853681876</v>
+        <v>20.14819730297085</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>19.74212951820483</v>
+        <v>50.9971065983799</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>19.69028683371434</v>
+        <v>59.51458551085064</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>19.72167725091719</v>
+        <v>41.6171769650422</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>19.75984757362573</v>
+        <v>56.07021147767021</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>19.64371504146409</v>
+        <v>11.24988027983595</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>19.74005844583517</v>
+        <v>50.48996146763996</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>19.66314418377554</v>
+        <v>63.19999266909709</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>19.67901731486231</v>
+        <v>36.81808236234238</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>19.70811523015328</v>
+        <v>50.0838173704413</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>19.61344281823341</v>
+        <v>6.019416142190092</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>19.6932452213576</v>
+        <v>50.41062452419841</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>19.67467953213215</v>
+        <v>23.41259781349221</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>19.71793296845925</v>
+        <v>32.88349355872157</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>19.58128051118999</v>
+        <v>8.747982504331073</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>19.6784561090922</v>
+        <v>41.19314979712671</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>19.74149719009112</v>
+        <v>30.14922246695286</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>19.79519641461517</v>
+        <v>40.27670722632222</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>19.63282228795369</v>
+        <v>11.35984155832456</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>19.81169620490128</v>
+        <v>43.156796491113</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>19.86821994980363</v>
+        <v>57.67221057729199</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>19.70965759674242</v>
+        <v>24.58434324144546</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>19.80946982045894</v>
+        <v>59.03798384828563</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>19.91785574050591</v>
+        <v>53.71360445202463</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>19.98674874370983</v>
+        <v>70.13262699410498</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>19.79918755086683</v>
+        <v>31.91162307046652</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>19.81093333778673</v>
+        <v>39.3708687889148</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>19.86788754410493</v>
+        <v>53.66969257981461</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>19.71112525316018</v>
+        <v>19.20194636186149</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>19.81372152492668</v>
+        <v>59.44053152389738</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>19.92396105240709</v>
+        <v>51.74063676424134</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>19.99319597377142</v>
+        <v>68.47936794845702</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>19.80792383360978</v>
+        <v>27.80329337274239</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>19.73679126354676</v>
+        <v>33.02180282496841</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>19.7804421480142</v>
+        <v>46.49515358810643</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>19.65246429969536</v>
+        <v>15.56595771829324</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>19.7503899373187</v>
+        <v>63.71361521825712</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>19.82559404698586</v>
+        <v>51.04612613553584</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>19.87917393196379</v>
+        <v>66.80331195078732</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>19.72742816644494</v>
+        <v>27.59537638572816</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>19.52876391845314</v>
+        <v>10.65936179326856</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>19.5168350023721</v>
+        <v>1.604269609239592</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>19.53615134282713</v>
+        <v>4.812282616595901</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>19.4564179071679</v>
+        <v>-6.947287418252451</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>19.51961360453076</v>
+        <v>12.64815329881883</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>19.57402756888564</v>
+        <v>19.26242794513035</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>19.58158191392426</v>
+        <v>16.37742999640555</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>19.60873409531908</v>
+        <v>23.00680774169321</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>19.51495920591372</v>
+        <v>5.657760408898458</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>19.60420696766806</v>
+        <v>36.22803964873862</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>19.57114305433159</v>
+        <v>18.97206853825355</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>19.57997731661868</v>
+        <v>13.78607506799902</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>19.60762349067972</v>
+        <v>19.84495654644339</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>19.51462974393879</v>
+        <v>0.3237503646489195</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>19.60486710919098</v>
+        <v>35.37978489651084</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>19.56216966682659</v>
+        <v>17.95230679177369</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>19.55963932245579</v>
+        <v>7.282297856486492</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>19.580022506866</v>
+        <v>12.24305854351914</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>19.5047856030877</v>
+        <v>-6.779058285064547</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>19.57814794294129</v>
+        <v>27.91052516115646</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>19.52500005678558</v>
+        <v>6.270287577945066</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>19.55500199137151</v>
+        <v>8.429695213135497</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>19.44629289010647</v>
+        <v>-2.479025287924237</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>19.56151263196095</v>
+        <v>17.50797900263504</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>19.59625475252163</v>
+        <v>12.74812670296037</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>19.63595156356186</v>
+        <v>16.80339514585909</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>19.50322569414973</v>
+        <v>0.07307459611105216</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>19.6417729375539</v>
+        <v>29.38306701662366</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>19.68325749820918</v>
+        <v>36.05336612678998</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>19.55562601406053</v>
+        <v>17.66828342563323</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>19.67627389708489</v>
+        <v>47.41674318433468</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>19.75127256684662</v>
+        <v>45.54797223067317</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>19.80424536274208</v>
+        <v>55.57672395467017</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>19.64951598012146</v>
+        <v>29.36653462286205</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>19.64419441853704</v>
+        <v>24.75657967885342</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>19.68636282834414</v>
+        <v>30.79770280596335</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>19.55986068428154</v>
+        <v>12.23981234566872</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>19.68261451930784</v>
+        <v>49.29776781364193</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>19.75985005881482</v>
+        <v>44.06187696621462</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>19.81342361349457</v>
+        <v>53.87751655897445</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>19.66027809097325</v>
+        <v>25.99834114670951</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>19.5958886638045</v>
+        <v>13.10709837996476</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>19.62728512786946</v>
+        <v>17.97692910221193</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>19.52475297331463</v>
+        <v>3.230794800300714</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>19.63862584701391</v>
+        <v>45.61066627552388</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>19.68684600440687</v>
+        <v>37.10675168607</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>19.72745544075816</v>
+        <v>45.4599030716124</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>19.60272715530654</v>
+        <v>20.43497424297871</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>19.57222244171221</v>
+        <v>4.163631143654985</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>19.56627848073955</v>
+        <v>-6.984402361619704</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>19.58841131983369</v>
+        <v>-3.442527855876879</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>19.50388488242044</v>
+        <v>-17.80263702724475</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>19.59625764436358</v>
+        <v>29.98726477447568</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>19.61814353760797</v>
+        <v>10.30282881021337</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>19.63113231270825</v>
+        <v>5.548912569911419</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>19.66103913836658</v>
+        <v>12.44993546824328</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>19.56237577385899</v>
+        <v>-9.884376997012577</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>19.6808536917282</v>
+        <v>47.2778903372549</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>19.61489390438202</v>
+        <v>12.74025795746705</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>19.6290714974652</v>
+        <v>5.998884162130201</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>19.65935109929272</v>
+        <v>12.66112192972782</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>19.56168192305915</v>
+        <v>-13.24567631023016</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>19.68008272919809</v>
+        <v>48.35728867138405</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>19.6011221013798</v>
+        <v>18.10518887359463</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>19.60381217493841</v>
+        <v>6.111006873989584</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>19.62660349784279</v>
+        <v>12.69554543758523</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>19.54722892060988</v>
+        <v>-13.1970240528316</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>19.64567479434646</v>
+        <v>48.65142654184581</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>19.61381290963097</v>
+        <v>24.52843893536453</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>19.64778279910518</v>
+        <v>31.22048288117198</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>19.53307818311744</v>
+        <v>12.42350624513153</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>19.63224601295312</v>
+        <v>34.1870388797403</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>19.67691290870663</v>
+        <v>25.42460478383831</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>19.72030220868806</v>
+        <v>33.95618876309449</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>19.5822586410972</v>
+        <v>7.923270842381838</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>19.72982687479403</v>
+        <v>41.30229628492901</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>19.77517098424838</v>
+        <v>53.02439540200018</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>19.64147485074434</v>
+        <v>24.71174201736294</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>19.74448186659926</v>
+        <v>55.86348313964815</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>19.82809353322858</v>
+        <v>51.46819316640368</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>19.88457895979278</v>
+        <v>66.65228225024123</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>19.72457276960884</v>
+        <v>29.72578984649044</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>19.73051303045663</v>
+        <v>39.34522339131723</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>19.77636650399112</v>
+        <v>50.96176920271503</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>19.6440720102632</v>
+        <v>21.52048923658011</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>19.74911112388945</v>
+        <v>59.20700171362445</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>19.83464722378766</v>
+        <v>52.74886368661208</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>19.89155758660058</v>
+        <v>68.43816048615169</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>19.73340264281766</v>
+        <v>29.04056457313062</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>19.67396608033616</v>
+        <v>37.35837642843883</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>19.70874453258961</v>
+        <v>48.42775490585878</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>19.60105761393301</v>
+        <v>23.259474689988</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>19.69950193853794</v>
+        <v>61.44951176288382</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>19.75604070938989</v>
+        <v>52.26814139937902</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>19.79976196955095</v>
+        <v>67.23424210754725</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>19.67052369032115</v>
+        <v>30.53885793484872</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>19.53938996288554</v>
+        <v>14.23143553432849</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>19.52973649146474</v>
+        <v>8.73397665376431</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>19.54798732162909</v>
+        <v>11.77049543870307</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>19.47500126743885</v>
+        <v>3.227405677068154</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>19.51716233771836</v>
+        <v>8.111645334260716</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>19.57767240226075</v>
+        <v>19.65722614664817</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>19.58528143372105</v>
+        <v>21.13469972645578</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>19.61062358755223</v>
+        <v>27.56467609341581</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>19.52493250485367</v>
+        <v>12.87590660417842</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>19.58805860078668</v>
+        <v>24.2087919444737</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>19.57467190799764</v>
+        <v>19.45352321073644</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>19.58339971669589</v>
+        <v>18.87101283708715</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>19.60916705042676</v>
+        <v>24.90740057049186</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>19.52421219980965</v>
+        <v>7.274662111959428</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>19.58858844171991</v>
+        <v>23.54292326885009</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>19.56820032906892</v>
+        <v>21.43715493438448</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>19.5668755887658</v>
+        <v>15.20508368578685</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>19.58601455584965</v>
+        <v>20.69941744342849</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>19.51719508152719</v>
+        <v>2.594312455542086</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>19.56973340934079</v>
+        <v>21.78243601781093</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>19.52174181200028</v>
+        <v>2.153456437697502</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>19.54988084334792</v>
+        <v>4.551088683350358</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>19.45066623235088</v>
+        <v>-5.617611388349101</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>19.56250794814481</v>
+        <v>19.56762846355507</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>19.59426870535437</v>
+        <v>12.86590583684576</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>19.63133015895239</v>
+        <v>18.77044490484433</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>19.51001134852852</v>
+        <v>-1.336856376936435</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>19.62100907534628</v>
+        <v>18.56813203600561</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>19.65952320091158</v>
+        <v>25.41438703981355</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>19.54323166675099</v>
+        <v>7.815472740346582</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>19.66091269138429</v>
+        <v>40.16074434997388</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>19.72834710689591</v>
+        <v>38.34865396100251</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>19.77741261723699</v>
+        <v>50.26687671872698</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>19.63620189002862</v>
+        <v>21.1416760290915</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>19.62313338046323</v>
+        <v>14.90437328404831</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>19.66223824243882</v>
+        <v>21.36767970115517</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>19.54700206941476</v>
+        <v>3.259435342109317</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>19.66626616627596</v>
+        <v>41.8641162915592</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>19.73569718806663</v>
+        <v>37.85002299594622</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>19.78527456222445</v>
+        <v>49.94661309962848</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>19.64554216037245</v>
+        <v>18.90080729674419</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>19.58542661938268</v>
+        <v>9.4237566909426</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>19.61472682421611</v>
+        <v>15.16504059477499</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>19.52121018043294</v>
+        <v>0.2588902450921395</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>19.63086111995323</v>
+        <v>42.5712402313513</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>19.67465994939785</v>
+        <v>34.80859971402414</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>19.71243317973779</v>
+        <v>46.00573642551194</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>19.5985003322988</v>
+        <v>16.91423058347248</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>19.4968981623676</v>
+        <v>-4.127859943377356</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>19.47887014177897</v>
+        <v>-2.972920805173672</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>19.49603859063673</v>
+        <v>-2.967833834723876</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>19.42336089548404</v>
+        <v>-1.122448519718077</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>19.47495142449731</v>
+        <v>-2.308461321511992</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>19.53220713440219</v>
+        <v>-1.3366875745815</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>19.53115853936467</v>
+        <v>5.825043877671066</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>19.55547759616932</v>
+        <v>8.317074026433948</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>19.46991802239034</v>
+        <v>5.272770481435195</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>19.5436597492023</v>
+        <v>10.19293614378363</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>19.53054705531147</v>
+        <v>-0.232743447749268</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>19.53092317812236</v>
+        <v>4.992369092279587</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>19.55573203319566</v>
+        <v>7.12244345436029</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>19.47085565201282</v>
+        <v>1.446320780952261</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>19.54557503783599</v>
+        <v>9.773138634889113</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>19.53123777397395</v>
+        <v>2.157482021754875</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>19.52268053392787</v>
+        <v>2.758507774853031</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>19.54093808556832</v>
+        <v>4.990625049826793</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>19.47229090166131</v>
+        <v>-1.325486761657626</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>19.53359028163689</v>
+        <v>8.918582772148561</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>19.47130661697934</v>
+        <v>-4.862382445210347</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>19.49816638026272</v>
+        <v>-4.812194957512929</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>19.39920606480172</v>
+        <v>-8.717023528524816</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>19.52211596762243</v>
+        <v>9.340983518498117</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>19.54638269869034</v>
+        <v>4.775443524187338</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>19.5824138333866</v>
+        <v>8.006037914678227</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>19.46062105827839</v>
+        <v>-5.608976390027937</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>19.56837373126137</v>
+        <v>7.325807140159547</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>19.60571962409839</v>
+        <v>11.32627598953603</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>19.48943188860655</v>
+        <v>0.5727232445865802</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>19.61911735236801</v>
+        <v>27.73946548206204</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>19.67924786534327</v>
+        <v>27.49012726987552</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>19.72744049618925</v>
+        <v>36.15187764669012</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>19.58541209323151</v>
+        <v>13.97361931845888</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>19.57220773344744</v>
+        <v>4.109779342498554</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>19.6102287268932</v>
+        <v>7.783593937315352</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>19.49493086738462</v>
+        <v>-3.344405205416702</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>19.62595591402582</v>
+        <v>30.09177236007262</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>19.68841849877584</v>
+        <v>27.74535912594053</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>19.73720485954899</v>
+        <v>36.58850165962366</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>19.5966043883934</v>
+        <v>12.62476107778856</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>19.54230450156209</v>
+        <v>0.9098777841980592</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>19.57058570596638</v>
+        <v>4.083462540099482</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>19.47715695671073</v>
+        <v>-3.695327275923606</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>19.59693768777218</v>
+        <v>30.57439045920935</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>19.63452357620063</v>
+        <v>25.06488095655848</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>19.6715140215171</v>
+        <v>33.25067105316561</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>19.55699852280217</v>
+        <v>11.44400450725833</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>19.56594050549022</v>
+        <v>23.55425944603523</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>19.56126821448001</v>
+        <v>16.90420564035094</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>19.57989552785223</v>
+        <v>22.50296834924321</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>19.50511160764717</v>
+        <v>11.81259455905482</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>19.5556232095091</v>
+        <v>16.31359448256854</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>19.61609221270593</v>
+        <v>36.48298409179129</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>19.63108383617952</v>
+        <v>39.97354160545265</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>19.6570904537091</v>
+        <v>49.65275974552</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>19.56928515622984</v>
+        <v>31.75756791399017</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>19.64311025011074</v>
+        <v>37.56583119013857</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>19.61481047342659</v>
+        <v>38.09825246528543</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>19.63118709345547</v>
+        <v>37.88674799907032</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>19.6576670544464</v>
+        <v>47.10668770062867</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>19.57057592715191</v>
+        <v>25.53531884248722</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>19.64603279506013</v>
+        <v>39.51959282686157</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>19.59827085928033</v>
+        <v>37.47284051205197</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>19.60240789833083</v>
+        <v>27.32114901549902</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>19.62201928069162</v>
+        <v>35.33504493278566</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>19.55139738077492</v>
+        <v>14.18637266355583</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>19.61336981762085</v>
+        <v>38.45712281127052</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>19.56806115833044</v>
+        <v>8.805385998412529</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>19.59669792406233</v>
+        <v>12.22858224925191</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>19.49511872650816</v>
+        <v>-0.5555042831014525</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>19.59081142575592</v>
+        <v>23.68868420665994</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>19.62995355129966</v>
+        <v>16.76954043681968</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>19.66726141447625</v>
+        <v>22.02492054018932</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>19.54409745407861</v>
+        <v>3.526419950398166</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>19.68734076567897</v>
+        <v>35.50805900330924</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>19.72677052619023</v>
+        <v>45.19710612545907</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>19.60767655411456</v>
+        <v>24.82593424945803</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>19.70631609325544</v>
+        <v>53.05210868806269</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>19.78474245345436</v>
+        <v>54.08782992511698</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>19.83447924217046</v>
+        <v>66.98916012571542</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>19.69101250842006</v>
+        <v>38.71154302304295</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>19.69221165353268</v>
+        <v>32.35110194743494</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>19.73230725723938</v>
+        <v>41.7358737090249</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>19.61423001372299</v>
+        <v>20.03949153154148</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>19.71487327985804</v>
+        <v>55.8491111555733</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>19.79573574251484</v>
+        <v>52.39464824820774</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>19.84607142598758</v>
+        <v>65.21306975216602</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>19.7040194116177</v>
+        <v>34.30616243828933</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>19.63756977171839</v>
+        <v>20.94430301176673</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>19.66752478538384</v>
+        <v>28.95589999055166</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>19.57161082616918</v>
+        <v>9.979919786078771</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>19.66669137492624</v>
+        <v>56.35623892018548</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>19.71875411109571</v>
+        <v>44.80617253029098</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>19.75696633908987</v>
+        <v>55.55581064738169</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>19.64107717656556</v>
+        <v>26.43985007072486</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>19.59211508063109</v>
+        <v>42.57653092175316</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>19.59056453365809</v>
+        <v>31.35045262605889</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>19.61000104912106</v>
+        <v>38.76048408819037</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>19.53531753363234</v>
+        <v>17.27825945409669</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>19.58746937165797</v>
+        <v>30.44443928180717</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>19.63607482414298</v>
+        <v>49.41902784918777</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>19.6523066308771</v>
+        <v>45.97866105296632</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>19.6788349438272</v>
+        <v>57.04889606819032</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>19.59139724341985</v>
+        <v>30.06128791738187</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>19.66537930131518</v>
+        <v>48.94543695913541</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>19.63187259280304</v>
+        <v>48.72524356918609</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>19.64898148746208</v>
+        <v>43.64125154848332</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>19.67587472595098</v>
+        <v>54.16256465625239</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>19.58925949568181</v>
+        <v>24.79581695991123</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>19.66417802506871</v>
+        <v>48.17475944917237</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>19.61559857638106</v>
+        <v>51.06456790267501</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>19.6214242498762</v>
+        <v>40.24357675861085</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>19.64155398986283</v>
+        <v>49.93966495918765</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>19.57130054137942</v>
+        <v>19.83434232963131</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>19.63251937173182</v>
+        <v>45.0433536953651</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>19.60259255773729</v>
+        <v>22.62220250006042</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>19.63212185744881</v>
+        <v>28.00695244288268</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>19.53094092973692</v>
+        <v>10.17659932569072</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>19.6186971344324</v>
+        <v>34.63634463643943</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>19.65883888622547</v>
+        <v>25.58874729751832</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>19.69695553873978</v>
+        <v>32.84998002908948</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>19.57443399411591</v>
+        <v>8.088709730136541</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>19.70944040862945</v>
+        <v>41.09227772442265</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>19.7493140473016</v>
+        <v>51.15007750830149</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>19.63101343680179</v>
+        <v>25.61945994318587</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>19.72207302917506</v>
+        <v>56.43975358813402</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>19.7981108784867</v>
+        <v>51.35870470803407</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>19.84815172868378</v>
+        <v>64.83709936629464</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>19.70578224782896</v>
+        <v>30.64763634202273</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>19.70949608450127</v>
+        <v>37.23861707621516</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>19.74988132367694</v>
+        <v>46.81685187757151</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>19.63274184726439</v>
+        <v>20.94164764147237</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>19.72592705420514</v>
+        <v>57.7390054893649</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>19.8036511698502</v>
+        <v>50.23732881485925</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>19.85412814546856</v>
+        <v>63.75283622304856</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>19.71332786810737</v>
+        <v>27.83291770639729</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>19.65744808038513</v>
+        <v>30.71658062711581</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>19.68788665202957</v>
+        <v>39.36341215748737</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>19.59272698680358</v>
+        <v>16.9735411205693</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>19.68039320114492</v>
+        <v>58.12963859895397</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>19.73137809798013</v>
+        <v>47.55444089050214</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>19.76997285462303</v>
+        <v>59.86069727875457</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>19.65510069934053</v>
+        <v>26.36267213633357</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>19.60294751273211</v>
+        <v>41.22622839899049</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>19.60504643450214</v>
+        <v>21.12381055109568</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>19.62344158386715</v>
+        <v>29.26953739660206</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>19.5546035040961</v>
+        <v>5.706216862144412</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>19.60684726164297</v>
+        <v>35.61428213143019</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>19.64908632827089</v>
+        <v>51.4077512801739</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>19.66847545341365</v>
+        <v>41.7372854278638</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>19.69336459079525</v>
+        <v>54.02125123347102</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>19.61300306451272</v>
+        <v>21.85718454874943</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>19.68557457881792</v>
+        <v>54.46258971221093</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>19.64715929056357</v>
+        <v>51.22467662601474</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>19.66757981070292</v>
+        <v>38.07780848484276</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>19.69279563775285</v>
+        <v>49.87812610330323</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>19.61320090192221</v>
+        <v>13.60464740079841</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>19.68689253440224</v>
+        <v>55.25197030991374</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>19.62718715228143</v>
+        <v>55.49997417234206</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>19.63621608117935</v>
+        <v>31.80110967082991</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>19.65518139519866</v>
+        <v>42.61025300936907</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>19.59043225762293</v>
+        <v>6.565324763936317</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>19.65142463970493</v>
+        <v>56.80587218763783</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>19.62656315277878</v>
+        <v>23.78663600501449</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>19.65441733185818</v>
+        <v>30.15101423882109</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>19.56125644615783</v>
+        <v>9.89960233241732</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>19.62923819722964</v>
+        <v>38.0020468839341</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>19.67068369452511</v>
+        <v>26.30055601663359</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>19.70587840988683</v>
+        <v>33.72306540066644</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>19.59446131225548</v>
+        <v>9.109380948882304</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>19.73311522145731</v>
+        <v>47.83151227986482</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>19.77044306687037</v>
+        <v>60.4787167541495</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>19.66181306860959</v>
+        <v>32.05749177240445</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>19.73076202708732</v>
+        <v>62.22894945485638</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>19.8062642662542</v>
+        <v>58.28313308148502</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>19.85231795328716</v>
+        <v>73.34728655240228</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>19.72307574206407</v>
+        <v>38.77799031341566</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>19.73585809510856</v>
+        <v>43.53593591434841</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>19.77364861701337</v>
+        <v>55.95280710677173</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>19.66608991162515</v>
+        <v>25.87050400930002</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>19.73704381115443</v>
+        <v>63.69093390309105</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>19.81440742968943</v>
+        <v>55.35974279393511</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>19.86086715239363</v>
+        <v>70.43797265482014</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>19.73303385185079</v>
+        <v>33.01519224404761</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>19.68026754209192</v>
+        <v>34.94811531061168</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>19.70887737673177</v>
+        <v>46.30226183803518</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>19.62124733375737</v>
+        <v>18.87435991932542</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>19.68987068340693</v>
+        <v>68.07965402285059</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>19.74150847878686</v>
+        <v>51.91143282882574</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>19.77710876814539</v>
+        <v>65.23277187208284</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>19.67258577319192</v>
+        <v>29.23528601175994</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>19.58503313567525</v>
+        <v>41.7465047800483</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>19.58357348455465</v>
+        <v>21.6844503410047</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>19.59582351480034</v>
+        <v>27.82244466000231</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>19.54733311661367</v>
+        <v>9.715694035043667</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>19.59050474244128</v>
+        <v>49.60858066610713</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>19.61878773355755</v>
+        <v>53.217667028714</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>19.62996464744356</v>
+        <v>42.92622661187079</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>19.646912326189</v>
+        <v>52.64214854382845</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>19.59009976253104</v>
+        <v>27.30471160048653</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>19.64881569033829</v>
+        <v>67.00897298075671</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>19.61803410229476</v>
+        <v>56.00976098166043</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>19.63011869193797</v>
+        <v>42.07667109174193</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>19.64735556444648</v>
+        <v>51.48425531879565</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>19.59102704977145</v>
+        <v>22.15933830438902</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>19.65049098822596</v>
+        <v>69.39784280826976</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>19.60483333069873</v>
+        <v>59.78957449332511</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>19.60892964325175</v>
+        <v>35.77349802175516</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>19.62175782500053</v>
+        <v>44.74353391025205</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>19.57601463559533</v>
+        <v>14.90619345545159</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>19.62537383107973</v>
+        <v>71.51818645972787</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>19.60170389219993</v>
+        <v>27.51723351196672</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>19.62046490835757</v>
+        <v>31.88234666219489</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>19.55471715394982</v>
+        <v>15.35297626420192</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>19.60754400634139</v>
+        <v>51.64547231896924</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>19.63480405406516</v>
+        <v>31.94195657754029</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>19.65894181676474</v>
+        <v>37.41819014796984</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>19.57976506572412</v>
+        <v>16.34539716886228</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>19.68045874342511</v>
+        <v>49.64775002962041</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>19.70608647482747</v>
+        <v>59.87497915340245</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>19.62915243242088</v>
+        <v>36.41877300199324</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>19.68291452587867</v>
+        <v>75.42292606525574</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>19.73524984331684</v>
+        <v>63.03468292273345</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>19.7672748011786</v>
+        <v>75.60150405452688</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>19.67517604797265</v>
+        <v>45.48641333282406</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>19.68336089393505</v>
+        <v>47.0091199883213</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>19.70939557163958</v>
+        <v>57.12004498115445</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>19.63314429181053</v>
+        <v>31.98950383796574</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>19.68829238647235</v>
+        <v>78.40713544353501</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>19.74218324582735</v>
+        <v>61.54208762893607</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>19.77457467913453</v>
+        <v>74.10267850550918</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>19.68340542741688</v>
+        <v>41.19743412319963</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>19.64383910395053</v>
+        <v>39.71446072817776</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>19.66337260582884</v>
+        <v>49.1110607707385</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>19.60135101810182</v>
+        <v>25.73061368383911</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>19.65436031349134</v>
+        <v>82.70351528618792</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>19.68969194187545</v>
+        <v>58.2430960645471</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>19.71434851215287</v>
+        <v>69.34338435580241</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>19.63989629026052</v>
+        <v>37.37918445455109</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>19.58283218170929</v>
+        <v>28.44959053535299</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>19.58089728049796</v>
+        <v>20.14070813537554</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>19.59974407089136</v>
+        <v>27.30961237044764</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>19.52804176363552</v>
+        <v>7.831433417828972</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>19.57787441686659</v>
+        <v>22.50147778492374</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>19.62651107177438</v>
+        <v>43.52742066730016</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>19.6416794466099</v>
+        <v>43.50676456857409</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>19.66725899371039</v>
+        <v>55.39942622915251</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>19.58345449254825</v>
+        <v>27.94272054466851</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>19.65395395837082</v>
+        <v>46.81870590533143</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>19.623735092358</v>
+        <v>43.96900404913409</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>19.63986448757298</v>
+        <v>41.27281618713588</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>19.66577204544753</v>
+        <v>52.63752388206171</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>19.58278443439286</v>
+        <v>21.81460262429042</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>19.6543056748289</v>
+        <v>47.14831163733717</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>19.60732882153499</v>
+        <v>40.84136016683977</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>19.61256574768471</v>
+        <v>31.33541403880529</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>19.63199913973315</v>
+        <v>40.86317119227772</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>19.56460935464346</v>
+        <v>10.8331041491742</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>19.62323485832702</v>
+        <v>39.92098560689853</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>19.59190882208817</v>
+        <v>12.76342441957231</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>19.62049586453981</v>
+        <v>18.04579934681579</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>19.52336004192868</v>
+        <v>-0.9744443812839059</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>19.60113213579539</v>
+        <v>29.28552693581209</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>19.63775760694584</v>
+        <v>19.13904401587804</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>19.67424956996289</v>
+        <v>25.70709801113495</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>19.5574823624071</v>
+        <v>1.405056684343911</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>19.69567869022035</v>
+        <v>37.95573646627275</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>19.73408405622443</v>
+        <v>49.03815264111259</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>19.62069896054267</v>
+        <v>20.8710424896476</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>19.70069660034467</v>
+        <v>57.51882413568747</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>19.7714687067821</v>
+        <v>51.95099900224643</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>19.81924794428758</v>
+        <v>65.78344875050583</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>19.68371010262551</v>
+        <v>30.61143810418523</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>19.69737861648537</v>
+        <v>34.18958097163208</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>19.73624465570888</v>
+        <v>44.87701647459784</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>19.62400712385035</v>
+        <v>15.72324479766296</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>19.70604827400583</v>
+        <v>59.25138343012092</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>19.77860490261378</v>
+        <v>50.36068692699851</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>19.82677769470817</v>
+        <v>64.27454718233209</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>19.69275967048406</v>
+        <v>26.73276123154966</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>19.64676002778891</v>
+        <v>21.69691420528621</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>19.67611261844879</v>
+        <v>30.79100521535495</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>19.58483012615757</v>
+        <v>5.846958232187976</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>19.66288406474009</v>
+        <v>56.3491895476071</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>19.71007737676057</v>
+        <v>43.25144624442126</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>19.74694345928794</v>
+        <v>55.3001418419378</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>19.6375191340243</v>
+        <v>20.71406489488951</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>19.55159322558077</v>
+        <v>13.37772212978354</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>19.54426247451981</v>
+        <v>3.980731933478651</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>19.56000710029602</v>
+        <v>7.751477267052451</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>19.49575035151524</v>
+        <v>-4.344752317907187</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>19.55172852413352</v>
+        <v>19.46193812691693</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>19.59249127492784</v>
+        <v>24.26772051977659</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>19.60151867211203</v>
+        <v>22.96869219609897</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>19.62355981956003</v>
+        <v>30.1374485590497</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>19.5481297274818</v>
+        <v>11.41325755335056</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>19.62565905668446</v>
+        <v>41.94715009291576</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>19.59127695671078</v>
+        <v>25.21937640149382</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>19.60149400281411</v>
+        <v>20.79637099634042</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>19.62393809620377</v>
+        <v>27.43752542551275</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>19.54913524340178</v>
+        <v>5.700665686795549</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>19.62759979800457</v>
+        <v>43.06506602948274</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>19.58003622362197</v>
+        <v>26.29173504018135</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>19.58045652323343</v>
+        <v>13.51681288026611</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>19.59705313055892</v>
+        <v>19.10178169836216</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>19.5363958485252</v>
+        <v>-2.427690220362155</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>19.60078088576853</v>
+        <v>42.90048815021021</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>19.5597961157604</v>
+        <v>11.53959708054186</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>19.58427507557357</v>
+        <v>14.43960091301817</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>19.4967429337909</v>
+        <v>1.238093083703676</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>19.58192100401962</v>
+        <v>21.26777261003797</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>19.61266162755237</v>
+        <v>12.82146332854377</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>19.64461426244021</v>
+        <v>16.81624044525812</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>19.53853646171271</v>
+        <v>-1.174651095145478</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>19.66054688937428</v>
+        <v>37.58100697052132</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>19.69426447612055</v>
+        <v>45.78504772776536</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>19.59167543005301</v>
+        <v>25.3633309970792</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>19.68013365032182</v>
+        <v>54.24022236852829</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>19.7441284864419</v>
+        <v>52.47603838777287</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>19.78672797976312</v>
+        <v>63.34103673162151</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>19.6631962371539</v>
+        <v>35.84970585334602</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>19.66410837154427</v>
+        <v>34.26935884106192</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>19.69838559865643</v>
+        <v>41.99125883941814</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>19.59669670957383</v>
+        <v>20.69846821129683</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>19.68692678432311</v>
+        <v>57.12108963983205</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>19.75296909699729</v>
+        <v>51.67090258822002</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>19.79606988270872</v>
+        <v>62.3255939421669</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>19.67378001095021</v>
+        <v>32.64397495120208</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>19.6190108760541</v>
+        <v>25.44599785765454</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>19.64460605469548</v>
+        <v>31.75914577139934</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>19.56200107505087</v>
+        <v>12.82983757287688</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>19.64654888386577</v>
+        <v>53.95160327074127</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>19.68846928734758</v>
+        <v>41.41705734680339</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>19.72117962114108</v>
+        <v>49.63577585235457</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>19.62141108681051</v>
+        <v>21.96595807339226</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>19.57353201448144</v>
+        <v>21.04433061376384</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>19.57064908465199</v>
+        <v>9.105956763858401</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>19.58240275179265</v>
+        <v>13.91087109770266</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>19.53514989320636</v>
+        <v>0.7054420501233309</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>19.57356287899029</v>
+        <v>28.62721969573269</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>19.60619070263986</v>
+        <v>32.63145294487128</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>19.6157657535684</v>
+        <v>30.39630741604226</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>19.63215560400641</v>
+        <v>38.74474623820815</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>19.57671256141908</v>
+        <v>18.71262153101752</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>19.63033134432172</v>
+        <v>46.76829691780053</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>19.60580010365226</v>
+        <v>37.15793350880611</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>19.61632093390912</v>
+        <v>30.96697257550365</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>19.63301146010357</v>
+        <v>39.08129068095148</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>19.5780194918589</v>
+        <v>15.04843164100846</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>19.63253222735663</v>
+        <v>50.37302121870276</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>19.59446134300321</v>
+        <v>41.05379923810136</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>19.59725603638951</v>
+        <v>24.969110294973</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>19.60962979440938</v>
+        <v>32.55908331995879</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>19.56500607531871</v>
+        <v>8.189735328228075</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>19.6100916945718</v>
+        <v>52.21296999208583</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>19.58232524799526</v>
+        <v>13.47414513006122</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>19.60038723593211</v>
+        <v>16.23701931805369</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>19.5362346934428</v>
+        <v>2.675104935450443</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>19.59083917744377</v>
+        <v>26.79813818347899</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>19.61564366194701</v>
+        <v>13.54113930941694</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>19.63904605802024</v>
+        <v>17.59774278799484</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>19.56155190526262</v>
+        <v>-0.7237890783017384</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>19.65925751409755</v>
+        <v>36.5868348846243</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>19.6841003818332</v>
+        <v>45.10085302977397</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>19.60893055791179</v>
+        <v>24.97849297179657</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>19.6646915437404</v>
+        <v>52.65154874140224</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>19.71428384498084</v>
+        <v>46.7397243809469</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>19.74548207140661</v>
+        <v>57.79591473643427</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>19.65524415045296</v>
+        <v>30.66763647697255</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>19.66275148348595</v>
+        <v>34.9208183560231</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>19.68801719970061</v>
+        <v>43.33804140269513</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>19.61348765485808</v>
+        <v>21.52240780376388</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>19.67058640204014</v>
+        <v>56.84722325709576</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>19.72179919720114</v>
+        <v>46.1830722386868</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>19.7533804196005</v>
+        <v>57.23132661074069</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>19.66402711413838</v>
+        <v>27.2807559304344</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>19.62633681290777</v>
+        <v>27.06756851590972</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>19.64522980253709</v>
+        <v>34.70989511057067</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>19.58465134180524</v>
+        <v>14.53540522081145</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>19.63926551026987</v>
+        <v>59.72410602797805</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>19.67235267863574</v>
+        <v>41.3819127750091</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>19.696334817636</v>
+        <v>50.86198137161867</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>19.62340489980345</v>
+        <v>21.87095909983292</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>19.60467081945612</v>
+        <v>48.53685566817796</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>19.60574350455357</v>
+        <v>28.61324113338706</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>19.62551139636741</v>
+        <v>35.6976133222814</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>19.55096972814477</v>
+        <v>13.97809495529949</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>19.60561988429301</v>
+        <v>37.34173115838913</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>19.65110271037524</v>
+        <v>55.52012622287714</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>19.6703442511693</v>
+        <v>44.78860099122333</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>19.6971601626592</v>
+        <v>55.45984649903039</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>19.61006462524001</v>
+        <v>26.27622629964128</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>19.68632639144251</v>
+        <v>53.07107465163064</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>19.64770578873486</v>
+        <v>54.2506897626791</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>19.66791744889303</v>
+        <v>40.54107375026948</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>19.69508728977025</v>
+        <v>50.58911903013903</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>19.60881434293099</v>
+        <v>17.85720804642306</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>19.6862283557765</v>
+        <v>54.14316111773981</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>19.62846221936235</v>
+        <v>56.97881757786311</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>19.63684763519623</v>
+        <v>34.4983652780444</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>19.65725302632399</v>
+        <v>43.63983708034603</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>19.58712482446285</v>
+        <v>10.33694914592879</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>19.65120388784732</v>
+        <v>56.21427148817018</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>19.62482028128813</v>
+        <v>24.16240959305215</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>19.65486359224912</v>
+        <v>29.96169486632558</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>19.55387757544878</v>
+        <v>12.39413123137694</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>19.63239749788548</v>
+        <v>37.61208798347533</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>19.6754816018214</v>
+        <v>27.44638274385836</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>19.7137070830184</v>
+        <v>34.30379534282133</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>19.59241448124761</v>
+        <v>11.55152726488958</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>19.73492803695236</v>
+        <v>42.84985723093434</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>19.77526218913774</v>
+        <v>53.78812884777079</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>19.6574132794874</v>
+        <v>28.78988910716892</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>19.73821611381769</v>
+        <v>60.68410637167412</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>19.81753569599732</v>
+        <v>55.89820638354696</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>19.86757878658191</v>
+        <v>69.39814631500636</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>19.72682754107463</v>
+        <v>37.36635835669441</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>19.73620985422378</v>
+        <v>39.68466573677136</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>19.77704292352721</v>
+        <v>50.29427865626288</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>19.66034833940509</v>
+        <v>24.00533075129983</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>19.74340036452401</v>
+        <v>63.89428568483883</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>19.82456520915968</v>
+        <v>55.40979961765738</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>19.87504124859814</v>
+        <v>68.97326055158875</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>19.73582524055791</v>
+        <v>34.43023247855997</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>19.68011975856455</v>
+        <v>34.6275796338624</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>19.71099999922827</v>
+        <v>44.3938096930532</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>19.61599725603654</v>
+        <v>20.33169339894622</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>19.69512229725089</v>
+        <v>66.45110426420854</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>19.74905505744849</v>
+        <v>52.57925595617718</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>19.78772131938347</v>
+        <v>64.65253487196485</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>19.67394046069452</v>
+        <v>31.59898537233221</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>19.58568628824846</v>
+        <v>26.38703356287336</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>19.5842068610036</v>
+        <v>14.75285163189149</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>19.60358943637014</v>
+        <v>21.60046541486088</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>19.53011486224609</v>
+        <v>2.703538877917595</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>19.58165664732914</v>
+        <v>25.86706686084628</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>19.63137599246806</v>
+        <v>45.20343251977218</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>19.64749118603402</v>
+        <v>41.88772332034883</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>19.673759022791</v>
+        <v>53.28062074983789</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>19.58791025680645</v>
+        <v>26.45000625004137</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>19.66062783789908</v>
+        <v>51.17281695083553</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>19.62877791845468</v>
+        <v>46.31973936546854</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>19.64589527004222</v>
+        <v>40.20893013854977</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>19.67249523674362</v>
+        <v>51.13209712444393</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>19.58748417249155</v>
+        <v>20.79488302116519</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>19.66127325397263</v>
+        <v>51.77407265414163</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>19.61095943171986</v>
+        <v>41.60935393306507</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>19.6168048750429</v>
+        <v>28.1034028723351</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>19.6367710923453</v>
+        <v>37.42966596300383</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>19.56771769356712</v>
+        <v>7.700535038111989</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>19.62825715809909</v>
+        <v>44.93313776574352</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>19.59680011903301</v>
+        <v>16.99196654945973</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>19.62618357701822</v>
+        <v>22.7163030500176</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>19.5266952790163</v>
+        <v>4.506053667025958</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>19.60213076961082</v>
+        <v>27.8921641086302</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>19.63967429689406</v>
+        <v>17.13911841722593</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>19.67702469780434</v>
+        <v>23.21916348592585</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>19.55764545635754</v>
+        <v>0.3894225905176043</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>19.70420386269371</v>
+        <v>43.51156802114861</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>19.74362545246666</v>
+        <v>54.95002175647707</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>19.62752571065007</v>
+        <v>27.81688096432872</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>19.70482408581489</v>
+        <v>57.93873465155855</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>19.77733312206998</v>
+        <v>51.75783315433958</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>19.82621080306652</v>
+        <v>65.0800559714811</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>19.68766334245983</v>
+        <v>31.42601122262249</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>19.70624607817448</v>
+        <v>39.93943734788522</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>19.74613390320294</v>
+        <v>51.02592938151089</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>19.63120873826265</v>
+        <v>22.80291924709388</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>19.71067790355328</v>
+        <v>59.57239192060734</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>19.78504793616234</v>
+        <v>49.96509705296965</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>19.83432572544547</v>
+        <v>63.35917458140504</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>19.69732934879962</v>
+        <v>27.30283497689159</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>19.65307279809797</v>
+        <v>27.5836741869862</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>19.6832160607222</v>
+        <v>37.32406097576825</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>19.58972257749291</v>
+        <v>13.09385971153085</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>19.66578053852726</v>
+        <v>54.71922483092705</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>19.71415580136014</v>
+        <v>40.74840988863637</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>19.75187506342952</v>
+        <v>52.22084917774328</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>19.63999783289906</v>
+        <v>19.24998301937098</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/aryl_halide/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/aryl_halide/ranking_test3/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.579</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.886</v>
+        <v>16.474</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.655</v>
+        <v>0.599</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.554</v>
+        <v>16.778</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.919</v>
+        <v>0.974</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.814</v>
+        <v>4.425</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>15.03732963384002</v>
+        <v>12.19876835874042</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4.090805749143804</v>
+        <v>13.06423233327468</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8.930232070589351</v>
+        <v>13.82791850459776</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-4.643582461090119</v>
+        <v>11.57246369122219</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>30.73671328538237</v>
+        <v>21.55835211330671</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>23.82396533215863</v>
+        <v>18.57577165916568</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>22.62596947589696</v>
+        <v>24.74224082174864</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>31.25146891020927</v>
+        <v>27.46496621819299</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>10.60276004085395</v>
+        <v>21.33023093960522</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>51.20337252297746</v>
+        <v>43.17145777294209</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>24.73822929009009</v>
+        <v>18.20089812768983</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>19.64798808395595</v>
+        <v>21.55637865640576</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>27.84224715825113</v>
+        <v>23.96968031853369</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3.454477091805044</v>
+        <v>15.23940838363806</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>52.38964912763689</v>
+        <v>41.14726297328716</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>28.84610309708508</v>
+        <v>19.54465920090478</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>13.69628620610472</v>
+        <v>17.97556761925348</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>21.04774485834797</v>
+        <v>19.9694762880341</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-3.323854190356002</v>
+        <v>11.77319901812309</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>53.38893242494918</v>
+        <v>41.79548060746302</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>22.25071485791739</v>
+        <v>26.61114487436662</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>26.04236697584801</v>
+        <v>27.51004125529827</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>11.00147989518747</v>
+        <v>19.58151348109346</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>29.08748079525763</v>
+        <v>17.38621847582859</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>22.13305421791615</v>
+        <v>24.66402099000258</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>27.87936075290977</v>
+        <v>26.18709909415483</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>8.133150783954283</v>
+        <v>17.74079146301435</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>48.25489849779433</v>
+        <v>50.6963608277229</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>58.23519938291132</v>
+        <v>55.97824014126388</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>36.00708628511232</v>
+        <v>46.33729710008772</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>58.35263263620969</v>
+        <v>47.42639531615522</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>59.17968709943284</v>
+        <v>60.07945383218201</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>72.53127316868849</v>
+        <v>67.55148736990557</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>43.23281998025979</v>
+        <v>55.59047386146962</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>44.13104075804281</v>
+        <v>46.26174673861014</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>53.83040519438133</v>
+        <v>50.79606928898609</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>30.21062962740666</v>
+        <v>41.44412388615219</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>60.90265942496487</v>
+        <v>47.82711805690037</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>56.96029464215761</v>
+        <v>57.19718267363839</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>70.21546538455841</v>
+        <v>64.12361596949158</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>38.22781359952464</v>
+        <v>51.13935280981966</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>34.53688265275341</v>
+        <v>39.08335844881709</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>43.1129073343018</v>
+        <v>42.75284321322935</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>21.65329344127927</v>
+        <v>35.01929266054827</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>63.321437324271</v>
+        <v>49.94835934503763</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>51.33084309437582</v>
+        <v>55.63891843855272</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>62.67480342426134</v>
+        <v>61.82122595648876</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>32.11036566567585</v>
+        <v>48.57731528647606</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>46.37183450525751</v>
+        <v>39.75201067757847</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>26.35950420587724</v>
+        <v>33.27470853119252</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>36.09170847476737</v>
+        <v>38.12521317301781</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>8.256553748688782</v>
+        <v>25.88751899286291</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>36.75057763384746</v>
+        <v>24.36806028249516</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>52.95763435107635</v>
+        <v>44.99769941667465</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>41.61483020695648</v>
+        <v>45.84559129967972</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>55.52864260714198</v>
+        <v>53.33806918944392</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>19.32463510723998</v>
+        <v>38.17870055613102</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>55.59137220488279</v>
+        <v>46.46278795046949</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>51.88459613033842</v>
+        <v>41.75741456770236</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>38.87318890894943</v>
+        <v>41.04005738961833</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>52.24053542465383</v>
+        <v>47.58422322455866</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>12.8134560244828</v>
+        <v>29.94136175984738</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>54.83628317252939</v>
+        <v>45.16511617998695</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>56.99828621421568</v>
+        <v>45.42558133809248</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>36.87242598740142</v>
+        <v>41.46137394821286</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>49.31420821290121</v>
+        <v>47.81728489290255</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>10.07887680663733</v>
+        <v>30.46408202065544</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>53.79997543537092</v>
+        <v>44.68036347283351</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>26.99414674521269</v>
+        <v>29.67562888598985</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>35.1711646729371</v>
+        <v>32.94479278097619</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>11.90269085176244</v>
+        <v>23.21937702464583</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>43.41169996170652</v>
+        <v>34.9280661563872</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>30.53102622800518</v>
+        <v>35.86407297058936</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>40.6944030512669</v>
+        <v>39.59188220428029</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>9.554804315645448</v>
+        <v>26.78193497938554</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>46.43067320164842</v>
+        <v>50.15604166566452</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>59.86420163126657</v>
+        <v>57.03913440639148</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>27.12939352192009</v>
+        <v>43.1434863000658</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>63.27122653901023</v>
+        <v>53.45249797968873</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>55.55258903391868</v>
+        <v>58.79803142572588</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>72.5872104287251</v>
+        <v>67.75390334004301</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>30.87085539924695</v>
+        <v>49.94513600187511</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>42.50990010334819</v>
+        <v>47.70290809815783</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>55.54398775509175</v>
+        <v>53.81928855559814</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>22.01405227036934</v>
+        <v>40.8721476379761</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>64.04578030659491</v>
+        <v>52.37101257233811</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>54.12857314542975</v>
+        <v>57.17413121726935</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>71.36200333446223</v>
+        <v>65.7982357646093</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>27.53005270197973</v>
+        <v>47.70812039934114</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>36.97853912780224</v>
+        <v>42.67673238951079</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>49.03625600983653</v>
+        <v>47.65806147434979</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>19.81940181033456</v>
+        <v>38.27593993055849</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>67.10639471567549</v>
+        <v>52.292313550873</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>53.19925545326524</v>
+        <v>55.57691644174431</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>69.22580965730396</v>
+        <v>63.17413973117242</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>27.96689623108744</v>
+        <v>47.49601998250725</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>37.21950600534298</v>
+        <v>28.68496552072529</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>24.03937325804956</v>
+        <v>25.46525191742975</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>31.40496765105069</v>
+        <v>28.98511010273269</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>10.88870145970671</v>
+        <v>19.3965774593676</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>37.34163362085083</v>
+        <v>26.2565893197694</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>45.97817736203839</v>
+        <v>40.74959121760911</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>40.99938254960826</v>
+        <v>44.8000719617493</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>52.79391742497945</v>
+        <v>51.25309228897804</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>24.01321333982802</v>
+        <v>38.20573550444426</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>57.10703686080288</v>
+        <v>47.88039741368415</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>45.54027666330413</v>
+        <v>38.35067068407058</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>38.46359657244276</v>
+        <v>39.8980827602475</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>49.91572209970012</v>
+        <v>45.63010927961388</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>17.42199066551349</v>
+        <v>28.88184472874149</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>56.86802819186892</v>
+        <v>47.57287527406513</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>50.00852920376813</v>
+        <v>42.83927390540958</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>36.20120115029438</v>
+        <v>41.70834503290212</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>46.6355843169672</v>
+        <v>47.74024267787318</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>14.03528489822073</v>
+        <v>30.40242137586584</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>55.68956880260113</v>
+        <v>45.32497606533573</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>28.45735414699851</v>
+        <v>30.20872975264221</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>36.13048466483657</v>
+        <v>33.73739700772987</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>13.93018998533817</v>
+        <v>23.11968492760472</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>42.34554393840116</v>
+        <v>34.07496996792964</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>31.10594325107963</v>
+        <v>35.14737122106695</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>40.92565912024952</v>
+        <v>38.51882950094321</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>11.21427782085466</v>
+        <v>26.2986361509817</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>48.65319521854872</v>
+        <v>51.0726740234419</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>61.66349682034854</v>
+        <v>58.00750872539193</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>30.14924621982375</v>
+        <v>43.54852554877264</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>63.86470844655359</v>
+        <v>53.56026577391428</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>57.6914807607109</v>
+        <v>59.78986424347595</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>74.46866212806388</v>
+        <v>68.14702774533862</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>34.23812618372565</v>
+        <v>51.72506257096738</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>45.24143887226579</v>
+        <v>49.66554314312329</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>58.00719406669883</v>
+        <v>56.18543171242857</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>25.43270521220324</v>
+        <v>42.08249388382318</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>65.22196590593312</v>
+        <v>53.56094351186076</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>56.8605660801386</v>
+        <v>59.12670659501032</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>74.04676412530992</v>
+        <v>67.56901054475043</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>31.38411000982215</v>
+        <v>50.14785057445813</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>40.05081550774658</v>
+        <v>43.95811683958813</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>51.99564829338676</v>
+        <v>50.12755696549872</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>23.22106399108334</v>
+        <v>38.46579678462535</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>68.18727966945026</v>
+        <v>55.50997991569592</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>56.2572728907069</v>
+        <v>58.99018318036124</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>72.46409708957403</v>
+        <v>67.30994515237305</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>31.97928004808283</v>
+        <v>50.35250970565096</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>17.47921559802657</v>
+        <v>14.88415535570726</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>15.75017035458566</v>
+        <v>25.2710035651006</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>21.19366176009171</v>
+        <v>28.1627194330566</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>15.25543233045146</v>
+        <v>34.75312215642106</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>27.22397300571859</v>
+        <v>15.57571102788787</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>27.80150492408055</v>
+        <v>20.91819664782966</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>35.80529991954693</v>
+        <v>35.21026295711196</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>44.83186799988086</v>
+        <v>40.14342445687983</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>31.84642584981537</v>
+        <v>41.00912185098574</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>49.89588392524382</v>
+        <v>45.00518276215078</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>29.33091459695854</v>
+        <v>20.9566488392181</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>33.48616470613565</v>
+        <v>33.03194061278307</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>42.11508109878588</v>
+        <v>37.78165516273769</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>25.32268851727936</v>
+        <v>36.3268816345789</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>51.37002458958973</v>
+        <v>41.55907129663604</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>32.19417923513609</v>
+        <v>23.24727044942015</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>26.42755859590233</v>
+        <v>31.40275827379843</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>34.55753544759786</v>
+        <v>35.97840902010552</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>17.76723304176193</v>
+        <v>36.45836650200109</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>49.2583850050401</v>
+        <v>36.53786383439086</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>20.16258941272699</v>
+        <v>20.1300332073962</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>23.72982590644225</v>
+        <v>21.21816693144942</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>10.35659332326869</v>
+        <v>14.29215776393736</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>29.17760794061106</v>
+        <v>18.6332380112504</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>22.57778932995145</v>
+        <v>23.52907537406378</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>27.49502832472756</v>
+        <v>25.15827518052945</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>9.85956112057395</v>
+        <v>19.30059656985297</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>47.83515053013996</v>
+        <v>50.53451897380064</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>57.64123024920627</v>
+        <v>56.09743130825849</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>36.27033117100792</v>
+        <v>45.63041511725238</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>57.13294870687335</v>
+        <v>49.41421206001024</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>58.3003223403163</v>
+        <v>59.4737516058034</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>70.6114097411857</v>
+        <v>66.41879882923324</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>43.05047045505285</v>
+        <v>54.18361910340886</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>44.1757515750204</v>
+        <v>46.24894878902407</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>53.75883714001083</v>
+        <v>51.02767380611277</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>31.0045452898615</v>
+        <v>41.33213769815926</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>59.36043736834718</v>
+        <v>47.30160727886877</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>55.9822934187959</v>
+        <v>55.49656797331811</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>68.21006458150157</v>
+        <v>61.48944494193232</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>37.99889481467748</v>
+        <v>48.72333321599277</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>32.39312873422458</v>
+        <v>34.18169701049018</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>40.86279044929286</v>
+        <v>37.99006002328636</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>21.06243643018696</v>
+        <v>30.87588231329721</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>60.65119712364944</v>
+        <v>45.58835070435708</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>49.2420359076157</v>
+        <v>49.06877235940578</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>59.75211596457845</v>
+        <v>54.33639946495333</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>31.31553523170779</v>
+        <v>43.16384980555366</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>30.77923997224983</v>
+        <v>23.96400725462113</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>11.79793912895462</v>
+        <v>17.77917901075385</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>18.48017228419449</v>
+        <v>20.91000242792567</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>-5.746887160062329</v>
+        <v>8.364063568649289</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>40.27096759634615</v>
+        <v>27.78104249458359</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>43.2544726283483</v>
+        <v>38.11933497291576</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>32.27191257410671</v>
+        <v>34.03889101463652</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>42.55010378314189</v>
+        <v>39.08665275138612</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>9.0703993149118</v>
+        <v>15.08455551476424</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>59.36425427685919</v>
+        <v>47.02736218608068</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>45.40429899429259</v>
+        <v>39.37899655192967</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>30.58615084743104</v>
+        <v>34.02534049038535</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>40.52087132971638</v>
+        <v>38.83576970875198</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>2.904595713796423</v>
+        <v>11.43689175647813</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>61.07892617062224</v>
+        <v>46.37609311534487</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>49.90624085605592</v>
+        <v>43.46263772020717</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>26.00252204758201</v>
+        <v>32.44282359238617</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>35.63700062497807</v>
+        <v>37.31173179521585</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>-1.527012086692398</v>
+        <v>11.08804609153147</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>62.69707543902246</v>
+        <v>47.3087237710341</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>30.71401442195141</v>
+        <v>35.05837362529782</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>37.71454916660419</v>
+        <v>38.48206925943654</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>15.15811275819063</v>
+        <v>28.86855512219566</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>41.17543770750487</v>
+        <v>30.81215801957766</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>31.1970691757031</v>
+        <v>35.59163909795344</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>38.47422232451712</v>
+        <v>38.38065323782273</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>13.09386518366111</v>
+        <v>28.98928617226641</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>53.5272589403656</v>
+        <v>55.39995954176018</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>66.64975446970745</v>
+        <v>62.56515348120276</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>35.30410079087489</v>
+        <v>49.04520295751857</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>64.89793498754661</v>
+        <v>50.95551813922825</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>61.44876431115384</v>
+        <v>60.55782599302638</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>76.10131426537289</v>
+        <v>68.54799212668544</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>40.09269971795352</v>
+        <v>54.16859807817161</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>49.93474519773561</v>
+        <v>52.99716265569133</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>62.95303446193644</v>
+        <v>59.90680510642466</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>29.85598245490473</v>
+        <v>45.92896436223302</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>67.21958960914873</v>
+        <v>49.77004638394411</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>59.1463536544389</v>
+        <v>57.47643258187977</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>73.87291932030487</v>
+        <v>65.06372117470174</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>34.93816340571252</v>
+        <v>49.42061083538163</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>43.23895553957644</v>
+        <v>48.52323598168466</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>55.62060121770674</v>
+        <v>55.75008672038842</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>25.43712911558399</v>
+        <v>44.02125252448089</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>72.637832157472</v>
+        <v>56.33419994854057</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>57.75116927519782</v>
+        <v>60.49558668991327</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>71.15847411176226</v>
+        <v>68.72956677398528</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>33.90126556996259</v>
+        <v>52.57295446146734</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>37.4232196438635</v>
+        <v>32.31494365182949</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>8.955356779555263</v>
+        <v>18.90657012585987</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>17.61344213042976</v>
+        <v>22.73492880951709</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>-17.37125322665958</v>
+        <v>7.329866536834331</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>41.13687062669372</v>
+        <v>33.78953012793639</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>43.89282257319812</v>
+        <v>37.79023032406243</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>22.1432899856957</v>
+        <v>31.11089960080555</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>33.74510241742358</v>
+        <v>35.18319252256003</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>-12.1002033615978</v>
+        <v>9.786490556974105</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>56.47059357176188</v>
+        <v>48.76324797016888</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>44.56776524392754</v>
+        <v>38.91430821302067</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>20.92599131406005</v>
+        <v>33.67923008239392</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>32.12622642688834</v>
+        <v>37.3728151433869</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>-17.41796029657023</v>
+        <v>7.954541054791591</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>57.37449280735407</v>
+        <v>48.3081500043102</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>50.49346365290359</v>
+        <v>45.10362155519908</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>19.91565357959815</v>
+        <v>35.22651042585732</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>31.28860558284064</v>
+        <v>40.15593402620227</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>-17.1155949607706</v>
+        <v>9.524999827422114</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>60.21872860046817</v>
+        <v>50.16634318754443</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>33.82507206418543</v>
+        <v>37.4632151774995</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>44.44796401654465</v>
+        <v>42.24553251680778</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>18.19592848297957</v>
+        <v>31.46253564203459</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>42.6415860723031</v>
+        <v>35.04552912929398</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>33.41458405531762</v>
+        <v>37.51473516503609</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>43.89334786563292</v>
+        <v>41.36035093469454</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>14.21481028666154</v>
+        <v>29.71701367571897</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>50.19304797884232</v>
+        <v>54.20609279823915</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>65.83074802558912</v>
+        <v>62.01204235381822</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>29.2771583256239</v>
+        <v>47.17052689705937</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>61.37295799284017</v>
+        <v>50.39582174309332</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>57.11203564674477</v>
+        <v>57.50957320870953</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>73.84883989394156</v>
+        <v>65.62135208983231</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>33.48938164231953</v>
+        <v>50.85428856474709</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>47.77754572344906</v>
+        <v>53.12444669499553</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>63.35480401056532</v>
+        <v>60.90533303795482</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>25.2702831026119</v>
+        <v>45.83358623796484</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>63.85850488172025</v>
+        <v>51.21627822136206</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>57.21202920408646</v>
+        <v>58.24205058486837</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>74.364656873968</v>
+        <v>66.49091351077188</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>31.42481446926097</v>
+        <v>51.03068794634741</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>46.35534246076715</v>
+        <v>50.61246589128768</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>61.44115209076989</v>
+        <v>58.11166296672318</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>27.98551114866118</v>
+        <v>45.65544831682102</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>67.81832075214741</v>
+        <v>53.23155699692584</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>56.98540884235716</v>
+        <v>57.56253142891353</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>73.45188927984807</v>
+        <v>65.71331137840258</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>32.87657973030527</v>
+        <v>49.68581872419196</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>13.51872937164487</v>
+        <v>12.09590080007594</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>3.144385735259238</v>
+        <v>13.00572584036716</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>6.974399846210559</v>
+        <v>13.44600338001645</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>-6.822784616138151</v>
+        <v>10.26895327150139</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>21.48133910558863</v>
+        <v>19.38630978445727</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>18.6082610939707</v>
+        <v>16.02553117356236</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>15.57773973653697</v>
+        <v>21.54144884195766</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>22.90844328206111</v>
+        <v>23.53776555359789</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>1.943760400386074</v>
+        <v>17.14548235193611</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>41.25539308366646</v>
+        <v>37.68611663761354</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>17.04115177820873</v>
+        <v>13.93230614118316</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>11.16167927545683</v>
+        <v>17.59637573661349</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>18.0536168605721</v>
+        <v>19.02228107086794</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>-6.047537194322945</v>
+        <v>10.42782374509077</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>41.01605212955171</v>
+        <v>36.40344467065722</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>20.33600283002901</v>
+        <v>14.69380067668587</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>7.221842705967084</v>
+        <v>16.11412292720982</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>13.24294317857968</v>
+        <v>17.42806567338749</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>-10.5852160115103</v>
+        <v>9.091941586117684</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>40.35365399572785</v>
+        <v>33.63556361312851</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>17.32109554421921</v>
+        <v>23.02775629828604</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>21.62722944938898</v>
+        <v>24.9211752524159</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>7.268699799406427</v>
+        <v>17.79213340353387</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>24.21909171908392</v>
+        <v>20.13074833542929</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>22.32849570909941</v>
+        <v>26.22694804979799</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>29.07318974574103</v>
+        <v>28.22259936642505</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>8.885390833587513</v>
+        <v>20.16038939513265</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>39.21070861065492</v>
+        <v>40.17035225117728</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>48.331298755663</v>
+        <v>44.89611450934262</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>26.56679560201363</v>
+        <v>34.85415581122426</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>51.2844631658718</v>
+        <v>45.1919899493046</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>54.56791376498944</v>
+        <v>53.44279274786525</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>67.60306015196082</v>
+        <v>59.90752372953459</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>38.43574903914221</v>
+        <v>48.78781719882841</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>35.08235244142666</v>
+        <v>37.42804456811072</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>43.83360380757979</v>
+        <v>41.47257715192976</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>21.21923024036485</v>
+        <v>32.17955865980488</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>53.73563530053765</v>
+        <v>46.51393317930049</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>53.75700592403437</v>
+        <v>53.07692525505534</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>66.90783137164219</v>
+        <v>59.4270334495974</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>35.50077980408203</v>
+        <v>47.56225877371222</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>27.96726326836777</v>
+        <v>31.8031880205635</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>35.89041038386138</v>
+        <v>35.37987273091942</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>16.01063027997961</v>
+        <v>27.9150058114567</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>55.73643676225561</v>
+        <v>48.15240012691037</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>50.90912532324096</v>
+        <v>53.62540758704874</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>62.92679047648372</v>
+        <v>60.02507823534754</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>33.03327608891622</v>
+        <v>47.2574833291179</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>7.823111921274998</v>
+        <v>6.700819633241554</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>-2.323345875076409</v>
+        <v>9.48861842276229</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>1.382421849666688</v>
+        <v>9.87147966910975</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>-10.78841433273383</v>
+        <v>10.30289008364677</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>10.66084942764681</v>
+        <v>8.561928719895835</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>14.99633825281159</v>
+        <v>11.97116663057342</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>12.32394686513232</v>
+        <v>16.03187001876171</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>19.28604595940632</v>
+        <v>18.08776147693426</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-0.9570903427345527</v>
+        <v>14.04422459429539</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>24.58389658189673</v>
+        <v>19.25276674756504</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>15.28723832600312</v>
+        <v>11.2449806727618</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>8.621417211304658</v>
+        <v>13.09014127733997</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>15.1461702009924</v>
+        <v>14.88686522074962</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>-9.030612191445424</v>
+        <v>8.868177200400996</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>24.86150122089671</v>
+        <v>18.07882465325992</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>19.53244726647181</v>
+        <v>9.587665460652374</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>4.578337229499446</v>
+        <v>9.196449486623937</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>10.77844374669693</v>
+        <v>10.18689854146868</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>-13.01851920455632</v>
+        <v>5.629807942781131</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>26.25061074661639</v>
+        <v>13.21701767432559</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>3.819695183686555</v>
+        <v>15.68404753894654</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>5.714355084729949</v>
+        <v>15.11438506599199</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>-8.384057630053981</v>
+        <v>9.578644126306564</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>19.31434105125465</v>
+        <v>15.09378808129617</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>9.05270523048269</v>
+        <v>17.13892525357939</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>11.40291692833431</v>
+        <v>16.34620485094012</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>-7.631586218227628</v>
+        <v>8.67579449084575</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>20.42748941115724</v>
+        <v>24.77391054253867</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>27.93643165526421</v>
+        <v>26.68822880854965</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>5.62700391586559</v>
+        <v>17.61876072204505</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>39.61232154756107</v>
+        <v>35.88281825457492</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>34.63508603691771</v>
+        <v>37.9387304558277</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>43.92669063673134</v>
+        <v>41.268597432823</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>14.51137852798652</v>
+        <v>27.77115076206739</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>15.32577478834015</v>
+        <v>21.20194322963641</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>22.64974424474071</v>
+        <v>22.51441330457044</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>-1.168418000603403</v>
+        <v>13.69175584081955</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>40.82733638247564</v>
+        <v>35.25060449530284</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>31.12380557409858</v>
+        <v>33.28267622972588</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>40.45379406545203</v>
+        <v>35.4825045878438</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>8.205149479900339</v>
+        <v>20.65449001304838</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>9.3511360958769</v>
+        <v>13.03046329033761</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>16.0471193198964</v>
+        <v>14.14525627603974</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>-4.595594074925504</v>
+        <v>9.36561702117298</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>46.1564079929509</v>
+        <v>37.09029830851669</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>30.49338580183764</v>
+        <v>33.00820197128553</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>38.51114911295785</v>
+        <v>34.47728995964778</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>8.220774304537095</v>
+        <v>21.14857833410242</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>54.2065809602484</v>
+        <v>42.49620230229409</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>29.14696803236364</v>
+        <v>29.79542819492054</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>39.85336548437628</v>
+        <v>33.86009447313189</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>8.608019783447732</v>
+        <v>27.30867271532433</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>33.59738909840192</v>
+        <v>23.74348724164933</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>62.22475882084906</v>
+        <v>49.85470592452323</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>46.28239917449376</v>
+        <v>49.57042098285477</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>61.19527876582754</v>
+        <v>56.38150094823192</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>20.14819730297107</v>
+        <v>44.16638690412675</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>50.99710659837974</v>
+        <v>41.14017204117606</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>59.51458551085085</v>
+        <v>46.68700788750354</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>41.61717696504243</v>
+        <v>46.00152140886163</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>56.07021147767045</v>
+        <v>52.02969362228185</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>11.24988027983594</v>
+        <v>35.83750730060699</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>50.48996146764017</v>
+        <v>40.72669712009539</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>63.19999266909674</v>
+        <v>49.29982772880595</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>36.81808236234262</v>
+        <v>42.28016814252388</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>50.08381737044118</v>
+        <v>47.44512049913678</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>6.019416142189931</v>
+        <v>30.12140292894214</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>50.4106245241984</v>
+        <v>38.92796626825636</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>23.41259781349182</v>
+        <v>26.9221379771058</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>32.88349355872163</v>
+        <v>30.45714055652583</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>8.747982504331024</v>
+        <v>21.76806217709024</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>41.19314979712679</v>
+        <v>33.90136374578517</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>30.14922246695278</v>
+        <v>35.20777092276241</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>40.27670722632207</v>
+        <v>38.37636903974656</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>11.35984155832457</v>
+        <v>28.04350234469859</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>43.1567964911127</v>
+        <v>45.18108846541304</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>57.67221057729242</v>
+        <v>51.5312244838363</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>24.58434324144523</v>
+        <v>39.98557188024375</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>59.03798384828531</v>
+        <v>49.66031170098003</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>53.71360445202485</v>
+        <v>55.03748691242832</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>70.13262699410512</v>
+        <v>62.48434644632088</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>31.91162307046661</v>
+        <v>49.43572909430205</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>39.37086878891473</v>
+        <v>43.66405567081834</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>53.66969257981408</v>
+        <v>49.66987201085966</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>19.20194636186102</v>
+        <v>38.18613096568183</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>59.44053152389723</v>
+        <v>50.52130791897642</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>51.74063676424133</v>
+        <v>55.13250007501797</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>68.47936794845695</v>
+        <v>62.66660470882665</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>27.80329337274235</v>
+        <v>48.87453962431742</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>33.02180282496839</v>
+        <v>37.27729282081651</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>46.49515358810649</v>
+        <v>42.84369308393374</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>15.56595771829327</v>
+        <v>33.33437387765201</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>63.71361521825698</v>
+        <v>51.29627165398045</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>51.04612613553566</v>
+        <v>54.58146657879939</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>66.80331195078699</v>
+        <v>61.85151853207589</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>27.59537638572851</v>
+        <v>47.77909325810901</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>10.65936179326842</v>
+        <v>7.735082766789706</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>1.604269609239719</v>
+        <v>9.74174848693162</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>4.812282616595873</v>
+        <v>9.717949826508988</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-6.947287418252497</v>
+        <v>6.526893655705134</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>12.64815329881902</v>
+        <v>9.503120773048195</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>19.26242794513019</v>
+        <v>15.59306658649339</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>16.37742999640536</v>
+        <v>19.60393260493123</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>23.0068077416932</v>
+        <v>21.42448759709863</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>5.657760408898492</v>
+        <v>16.16870415724296</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>36.22803964873843</v>
+        <v>32.84233905306193</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>18.97206853825328</v>
+        <v>13.82850863987185</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>13.78607506799876</v>
+        <v>15.68651273921349</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>19.8449565464433</v>
+        <v>16.84446837456246</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>0.3237503646486388</v>
+        <v>10.19753504885232</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>35.37978489651069</v>
+        <v>29.62824866275708</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>17.95230679177365</v>
+        <v>10.4031517628202</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>7.282297856486423</v>
+        <v>12.57577019774272</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>12.24305854351937</v>
+        <v>13.44250791244512</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-6.779058285064536</v>
+        <v>8.510526291855093</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>27.91052516115638</v>
+        <v>21.05460218520797</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>6.27028757794535</v>
+        <v>13.69031911917924</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>8.429695213135625</v>
+        <v>14.46678547632475</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>-2.479025287924465</v>
+        <v>9.663169147069997</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>17.50797900263504</v>
+        <v>10.58403594092767</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>12.74812670296041</v>
+        <v>16.36736431417608</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>16.80339514585889</v>
+        <v>17.02525088890255</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>0.07307459611093492</v>
+        <v>12.86344805303001</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>29.38306701662392</v>
+        <v>33.88327856368866</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>36.05336612679037</v>
+        <v>37.35539125777581</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>17.66828342563326</v>
+        <v>28.67958179751761</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>47.41674318433466</v>
+        <v>43.35646487468948</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>45.54797223067351</v>
+        <v>50.10180163173133</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>55.5767239546702</v>
+        <v>54.61543753747728</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>29.36653462286205</v>
+        <v>44.61111191285155</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>24.7565796788538</v>
+        <v>28.74004900084833</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>30.79770280596338</v>
+        <v>30.95684390904066</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>12.23981234566877</v>
+        <v>24.00745522295511</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>49.29776781364214</v>
+        <v>42.25960778332281</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>44.06187696621478</v>
+        <v>46.13855869198578</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>53.87751655897448</v>
+        <v>49.39531484612438</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>25.99834114670943</v>
+        <v>38.95541017276181</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>13.10709837996548</v>
+        <v>17.23784773791211</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>17.97692910221224</v>
+        <v>18.50972470179097</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>3.230794800300618</v>
+        <v>15.1237268813106</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>45.61066627552391</v>
+        <v>39.24804253080302</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>37.10675168606993</v>
+        <v>40.79134137170965</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>45.45990307161223</v>
+        <v>43.33368451591028</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>20.43497424297868</v>
+        <v>34.01061419246648</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>4.163631143654978</v>
+        <v>2.490215228915854</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>-6.984402361619541</v>
+        <v>2.345756410397332</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>-3.442527855877003</v>
+        <v>1.884564124309996</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>-17.80263702724483</v>
+        <v>2.037824005477287</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>29.98726477447556</v>
+        <v>23.42947714879454</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>10.30282881021335</v>
+        <v>6.345673159360139</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>5.548912569911884</v>
+        <v>10.16070231879597</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>12.44993546824332</v>
+        <v>10.74926710091016</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>-9.884376997012318</v>
+        <v>7.638197438286674</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>47.27789033725487</v>
+        <v>39.73390736119886</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>12.7402579574671</v>
+        <v>9.008594869036386</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>5.998884162130512</v>
+        <v>11.19822176693049</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>12.66112192972809</v>
+        <v>11.16679500461497</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>-13.24567631023004</v>
+        <v>5.011093576141967</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>48.35728867138393</v>
+        <v>40.03608718007492</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>18.10518887359467</v>
+        <v>12.56684371581034</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>6.111006873989622</v>
+        <v>12.79576901941767</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>12.69554543758531</v>
+        <v>13.51352222110133</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-13.19702405283173</v>
+        <v>8.283870552781696</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>48.65142654184578</v>
+        <v>38.53881903053313</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>24.52843893536478</v>
+        <v>27.22014982922304</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>31.22048288117184</v>
+        <v>29.9486013081884</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>12.42350624513136</v>
+        <v>21.68844246675783</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>34.18703887974038</v>
+        <v>27.37040627459547</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>25.42460478383845</v>
+        <v>29.20707968697589</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>33.95618876309476</v>
+        <v>31.7905554583346</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>7.923270842381937</v>
+        <v>21.81509064883418</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>41.30229628492941</v>
+        <v>43.04329428588261</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>53.02439540200042</v>
+        <v>48.84813527123206</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>24.71174201736279</v>
+        <v>36.88620190780534</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>55.86348313964834</v>
+        <v>47.76917657691605</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>51.46819316640386</v>
+        <v>54.36922152620672</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>66.65228225024104</v>
+        <v>61.91169778320317</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>29.72578984649041</v>
+        <v>47.34307037516891</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>39.34522339131739</v>
+        <v>42.63057174165306</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>50.96176920271513</v>
+        <v>48.15948329347874</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>21.52048923657996</v>
+        <v>36.45138513281884</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>59.20700171362454</v>
+        <v>49.76811335112262</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>52.74886368661217</v>
+        <v>56.26827425557434</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>68.43816048615179</v>
+        <v>64.02643058378871</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>29.04056457313068</v>
+        <v>48.4093724872299</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>37.35837642843893</v>
+        <v>38.40421974493376</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>48.42775490585849</v>
+        <v>43.56678629447244</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>23.25947468998832</v>
+        <v>34.53773054086812</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>61.44951176288417</v>
+        <v>50.96134700360609</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>52.26814139937922</v>
+        <v>55.84945124287923</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>67.23424210754729</v>
+        <v>63.70181775369912</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>30.53885793484881</v>
+        <v>48.63397349323792</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>14.23143553432824</v>
+        <v>10.66585499761602</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>8.733976653764316</v>
+        <v>13.42031522046168</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>11.77049543870319</v>
+        <v>13.493929870963</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>3.227405677068086</v>
+        <v>11.54999875715314</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>8.111645334260603</v>
+        <v>5.996194249067305</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>19.65722614664796</v>
+        <v>17.21376293537169</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>21.1346997264561</v>
+        <v>23.45191116999589</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>27.56467609341584</v>
+        <v>25.47748641576723</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>12.87590660417842</v>
+        <v>20.82513087215035</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>24.20879194447408</v>
+        <v>22.26137733881529</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>19.45352321073631</v>
+        <v>16.57784297028503</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>18.8710128370873</v>
+        <v>20.66314766203895</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>24.90740057049184</v>
+        <v>22.21403077858983</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>7.274662111959342</v>
+        <v>15.30745811918073</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>23.54292326884982</v>
+        <v>21.03808692854644</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>21.43715493438406</v>
+        <v>15.29751667356017</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>15.20508368578671</v>
+        <v>17.73426728041931</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>20.69941744342846</v>
+        <v>19.31962582322148</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>2.594312455542156</v>
+        <v>13.46809530133203</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>21.78243601781096</v>
+        <v>16.66266099145772</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>2.153456437697656</v>
+        <v>9.602609620093261</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>4.551088683350041</v>
+        <v>9.38579836713501</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>-5.617611388349207</v>
+        <v>6.075026983734855</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>19.56762846355489</v>
+        <v>16.71242079839025</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>12.86590583684557</v>
+        <v>19.68809429683647</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>18.77044490484427</v>
+        <v>20.79723283483757</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-1.336856376936559</v>
+        <v>14.47463972011332</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>18.56813203600554</v>
+        <v>24.08340376162153</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>25.41438703981337</v>
+        <v>26.0704445170354</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>7.815472740346465</v>
+        <v>19.93275303075428</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>40.1607443499734</v>
+        <v>34.25348531913605</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>38.34865396100231</v>
+        <v>41.71732786626726</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>50.2668767187273</v>
+        <v>46.22853791335712</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>21.14167602909151</v>
+        <v>35.36277292457142</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>14.90437328404826</v>
+        <v>21.78131644135325</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>21.36767970115523</v>
+        <v>23.17265386789535</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>3.259435342109427</v>
+        <v>17.5662293950375</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>41.86411629155919</v>
+        <v>34.41863002280311</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>37.85002299594618</v>
+        <v>41.16514809149962</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>49.94661309962864</v>
+        <v>45.44294409056999</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>18.90080729674423</v>
+        <v>33.50554386758789</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>9.423756690942593</v>
+        <v>14.411303169362</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>15.1650405947757</v>
+        <v>15.48588977712383</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>0.2588902450918233</v>
+        <v>11.70355295122142</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>42.57124023135108</v>
+        <v>33.47286063273521</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>34.80859971402406</v>
+        <v>37.06083721137731</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>46.00573642551196</v>
+        <v>41.26819013092108</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>16.91423058347246</v>
+        <v>30.68121337983698</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>-4.127859943377391</v>
+        <v>3.508592593682504</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>-2.972920805173857</v>
+        <v>7.09990937723482</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>-2.967833834724132</v>
+        <v>6.473432481996721</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>-1.12244851971834</v>
+        <v>7.277745884879963</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>-2.308461321511963</v>
+        <v>-0.8233161933494557</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>-1.336687574581447</v>
+        <v>5.341512442980772</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>5.825043877670975</v>
+        <v>10.84150768463138</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>8.317074026433952</v>
+        <v>11.16133810474222</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>5.27277048143497</v>
+        <v>10.15702352300188</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>10.19293614378332</v>
+        <v>7.311334706791666</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>-0.2327434477492147</v>
+        <v>6.0603291258635</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>4.992369092279766</v>
+        <v>9.98432465056073</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>7.122443454360178</v>
+        <v>9.922169111973609</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>1.446320780952192</v>
+        <v>7.346281661054007</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>9.773138634888991</v>
+        <v>5.85592806682331</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>2.157482021754888</v>
+        <v>6.961298597694331</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>2.758507774853115</v>
+        <v>10.1822339259412</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>4.990625049826615</v>
+        <v>10.61201688079272</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>-1.32548676165765</v>
+        <v>9.059128526788417</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>8.91858277214838</v>
+        <v>4.857294568621381</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>-4.862382445210375</v>
+        <v>3.981420797058483</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>-4.812194957513128</v>
+        <v>3.346167575925993</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>-8.717023528525086</v>
+        <v>2.715293919665221</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>9.340983518498</v>
+        <v>11.05527110882414</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>4.775443524187256</v>
+        <v>14.16728419888902</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>8.006037914678132</v>
+        <v>14.43412654683291</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-5.608976390027973</v>
+        <v>11.41039736317085</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>7.325807140159569</v>
+        <v>9.879372925847242</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>11.32627598953588</v>
+        <v>10.55439209790183</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>0.5727232445864985</v>
+        <v>8.306849996873446</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>27.7394654820621</v>
+        <v>23.45959251506027</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>27.4901272698756</v>
+        <v>30.15672562648048</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>36.15187764669</v>
+        <v>32.69687495773893</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>13.97361931845892</v>
+        <v>26.4034199988996</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>4.109779342498697</v>
+        <v>7.800125767947971</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>7.78359393731505</v>
+        <v>7.879061172100958</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-3.344405205416937</v>
+        <v>6.663256449208426</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>30.09177236007255</v>
+        <v>23.96958651018648</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>27.74535912594075</v>
+        <v>30.0018544564154</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>36.58850165962319</v>
+        <v>32.19176547366624</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>12.62476107778867</v>
+        <v>25.30134720007278</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>0.9098777841979278</v>
+        <v>5.702847722475763</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>4.083462540099129</v>
+        <v>5.956279206989851</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>-3.695327275923599</v>
+        <v>6.039087701480994</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>30.5743904592093</v>
+        <v>24.40978693181848</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>25.06488095655821</v>
+        <v>27.54237733802075</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>33.25067105316563</v>
+        <v>30.14267923414943</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>11.44400450725843</v>
+        <v>24.10559156956309</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>23.55425944603507</v>
+        <v>16.7419523280512</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>16.90420564035092</v>
+        <v>19.55086661042477</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>22.50296834924301</v>
+        <v>21.4275450945054</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>11.81259455905474</v>
+        <v>19.42814546450221</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>16.31359448256845</v>
+        <v>5.808174484941116</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>36.48298409179118</v>
+        <v>32.41783455178567</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>39.97354160545255</v>
+        <v>43.0346612685856</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>49.6527597455199</v>
+        <v>48.07234411259854</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>31.75756791398998</v>
+        <v>42.29697722338337</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>37.56583119013872</v>
+        <v>24.15432723781522</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>38.09825246528489</v>
+        <v>35.4897834644923</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>37.88674799907045</v>
+        <v>44.05208359275041</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>47.1066877006285</v>
+        <v>48.96700449473225</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>25.5353188424872</v>
+        <v>41.3008956014742</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>39.51959282686151</v>
+        <v>25.79816864776398</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>37.47284051205223</v>
+        <v>29.80372848111313</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>27.32114901549893</v>
+        <v>32.00582159406013</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>35.33504493278546</v>
+        <v>35.24242218278995</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>14.18637266355553</v>
+        <v>30.39453456056961</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>38.45712281126993</v>
+        <v>26.67924042927807</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>8.805385998413009</v>
+        <v>10.94114013006502</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>12.22858224925195</v>
+        <v>11.18549925029067</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>-0.5555042831012678</v>
+        <v>7.706031310786848</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>23.68868420665975</v>
+        <v>15.37909743157705</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>16.7695404368195</v>
+        <v>18.36134493556997</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>22.02492054018928</v>
+        <v>19.21045160388007</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>3.526419950397981</v>
+        <v>13.04299184817395</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>35.50805900330899</v>
+        <v>34.14855863885178</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>45.1971061254586</v>
+        <v>38.22328194198023</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>24.82593424945802</v>
+        <v>32.43231494944256</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>53.05210868806266</v>
+        <v>42.26548947949723</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>54.08782992511732</v>
+        <v>52.5737644992771</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>66.98916012571569</v>
+        <v>59.11241295865811</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>38.71154302304274</v>
+        <v>48.58597524315054</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>32.3511019474348</v>
+        <v>34.01185082039006</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>41.73587370902499</v>
+        <v>37.51323742396089</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>20.03949153154151</v>
+        <v>31.80144213582625</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>55.84911115557317</v>
+        <v>44.08775384448343</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>52.39464824820773</v>
+        <v>52.00227836814763</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>65.21306975216596</v>
+        <v>58.07476591123829</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>34.30616243828912</v>
+        <v>46.35947364339484</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>20.94430301176679</v>
+        <v>26.00070612308121</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>28.95589999055121</v>
+        <v>28.72744424097419</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>9.979919786078781</v>
+        <v>24.78261623252333</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>56.35623892018548</v>
+        <v>43.6399180111433</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>44.80617253029084</v>
+        <v>45.29696556762481</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>55.55581064738153</v>
+        <v>49.85662868959195</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>26.43985007072462</v>
+        <v>38.24726699234105</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>42.57653092175308</v>
+        <v>36.27187357991478</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>31.35045262605879</v>
+        <v>34.68326105199966</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>38.76048408819048</v>
+        <v>38.20877835483563</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>17.2782594540966</v>
+        <v>26.83727266777398</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>30.44443928180679</v>
+        <v>21.09098856052711</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>49.41902784918784</v>
+        <v>44.00644971938426</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>45.97866105296667</v>
+        <v>48.29317951727259</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>57.04889606819034</v>
+        <v>54.43585940461887</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>30.06128791738153</v>
+        <v>42.22840207245055</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>48.94543695913521</v>
+        <v>39.54868841540777</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>48.72524356918609</v>
+        <v>41.53852934244371</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>43.64125154848348</v>
+        <v>43.76210387388653</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>54.16256465625217</v>
+        <v>49.02723726358278</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>24.79581695991114</v>
+        <v>34.83429281402025</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>48.1747594491723</v>
+        <v>39.06113292012026</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>51.06456790267519</v>
+        <v>42.78746692072482</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>40.24357675861071</v>
+        <v>43.58433289330319</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>49.93966495918778</v>
+        <v>48.65246631394687</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>19.83434232963121</v>
+        <v>33.87584372071175</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>45.04335369536493</v>
+        <v>36.75541963925481</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>22.62220250006061</v>
+        <v>24.68363688222747</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>28.00695244288293</v>
+        <v>26.90292575920908</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>10.17659932569065</v>
+        <v>19.68137715381562</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>34.63634463643951</v>
+        <v>29.20140924339735</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>25.58874729751841</v>
+        <v>31.00122813921491</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>32.84998002908929</v>
+        <v>33.10714793219444</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>8.088709730136427</v>
+        <v>23.71938268029518</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>41.09227772442244</v>
+        <v>41.83401740132324</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>51.15007750830146</v>
+        <v>47.16848595571783</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>25.61945994318589</v>
+        <v>36.66675228642592</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>56.43975358813381</v>
+        <v>48.04558120152913</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>51.35870470803447</v>
+        <v>53.32055832453448</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>64.83709936629479</v>
+        <v>60.0080528913393</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>30.64763634202249</v>
+        <v>45.99873694861257</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>37.23861707621469</v>
+        <v>40.70485634439402</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>46.81685187757137</v>
+        <v>45.37989866830907</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>20.94164764147239</v>
+        <v>35.43604125449035</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>57.7390054893648</v>
+        <v>46.57159462112153</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>50.23732881485928</v>
+        <v>51.05988661492061</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>63.75283622304866</v>
+        <v>57.32398583917121</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>27.83291770639733</v>
+        <v>42.82964887340401</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>30.71658062711548</v>
+        <v>35.45631974185717</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>39.36341215748686</v>
+        <v>39.25139479456095</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>16.97354112056943</v>
+        <v>32.32114456925301</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>58.12963859895414</v>
+        <v>47.19811094337625</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>47.55444089050224</v>
+        <v>49.75761861650686</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>59.86069727875453</v>
+        <v>55.00957441491938</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>26.3626721363334</v>
+        <v>42.49811910865503</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>41.22622839899004</v>
+        <v>40.42025016250093</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>21.1238105510959</v>
+        <v>29.09758677765133</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>29.26953739660157</v>
+        <v>32.88415424763333</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>5.706216862144267</v>
+        <v>25.76791174322473</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>35.61428213143031</v>
+        <v>22.96387989230259</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>51.40775128017414</v>
+        <v>46.11676801208125</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>41.73728542786401</v>
+        <v>44.66512095233283</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>54.02125123347068</v>
+        <v>50.60260025179463</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>21.85718454874934</v>
+        <v>37.99762240381556</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>54.46258971221081</v>
+        <v>40.69480940298772</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>51.22467662601458</v>
+        <v>44.25971428535257</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>38.07780848484326</v>
+        <v>41.57677232149256</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>49.87812610330309</v>
+        <v>46.91340057645199</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>13.60464740079832</v>
+        <v>30.47259331706954</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>55.25197030991377</v>
+        <v>39.81350642185525</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>55.49997417234201</v>
+        <v>47.60893858880862</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>31.80110967082981</v>
+        <v>38.51170151958807</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>42.61025300936902</v>
+        <v>43.10859310451414</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>6.565324763936193</v>
+        <v>26.40405394451164</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>56.8058721876381</v>
+        <v>41.32047382056619</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>23.7866360050143</v>
+        <v>25.60573987895865</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>30.15101423882137</v>
+        <v>27.58369741313366</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>9.899602332417306</v>
+        <v>19.06663804553165</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>38.00204688393412</v>
+        <v>29.56631065813552</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>26.30055601663368</v>
+        <v>30.67247029112884</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>33.72306540066583</v>
+        <v>32.54759827903565</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>9.109380948882325</v>
+        <v>22.20016071475016</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>47.83151227986443</v>
+        <v>46.12186228690807</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>60.47871675414879</v>
+        <v>52.23821530991246</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>32.05749177240419</v>
+        <v>41.32663318237779</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>62.22894945485659</v>
+        <v>48.39873251213605</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>58.28313308148516</v>
+        <v>55.17701099177512</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>73.34728655240215</v>
+        <v>62.67243562244744</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>38.77799031341588</v>
+        <v>48.50030811766977</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>43.5359359143482</v>
+        <v>43.27924515002485</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>55.95280710677119</v>
+        <v>48.96103668554727</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>25.8705040092998</v>
+        <v>37.59799394289831</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>63.69093390309116</v>
+        <v>48.18370159570497</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>55.35974279393545</v>
+        <v>52.55367266532852</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>70.43797265482033</v>
+        <v>59.72098436720438</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>33.01519224404804</v>
+        <v>44.29203154954148</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>34.94811531061272</v>
+        <v>37.33934043842588</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>46.30226183803504</v>
+        <v>42.28654323886779</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>18.874359919325</v>
+        <v>33.14612871408312</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>68.0796540228506</v>
+        <v>51.88920814084462</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>51.91143282882602</v>
+        <v>53.83872112511682</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>65.23277187208258</v>
+        <v>60.42420438363757</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>29.23528601175997</v>
+        <v>45.39392965655264</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>41.74650478004827</v>
+        <v>37.41091086356538</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>21.6844503410046</v>
+        <v>25.28903120863795</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>27.82244466000227</v>
+        <v>27.46775400835188</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>9.715694035043587</v>
+        <v>19.89546452566551</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>49.60858066610761</v>
+        <v>39.94485716959981</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>53.21766702871403</v>
+        <v>47.34174514206403</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>42.92622661187037</v>
+        <v>43.47746084773079</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>52.64214854382809</v>
+        <v>48.54286378409365</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>27.30471160048641</v>
+        <v>34.92938745495483</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>67.00897298075674</v>
+        <v>56.05123499589098</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>56.00976098166045</v>
+        <v>50.85405634274327</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>42.076671091742</v>
+        <v>44.85180859022792</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>51.48425531879558</v>
+        <v>50.16428588116332</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>22.15933830438903</v>
+        <v>33.20764169905519</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>69.39784280826971</v>
+        <v>57.17751029648372</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>59.78957449332503</v>
+        <v>50.85752703739139</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>35.77349802175518</v>
+        <v>38.80242155027655</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>44.74353391025212</v>
+        <v>43.72893865475424</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>14.90619345545166</v>
+        <v>27.40805537125369</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>71.51818645972813</v>
+        <v>57.65940536754726</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>27.51723351196651</v>
+        <v>29.45001815258156</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>31.88234666219465</v>
+        <v>30.59344227859127</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>15.35297626420181</v>
+        <v>23.11748468910934</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>51.64547231896931</v>
+        <v>44.5599754214268</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>31.9419565775401</v>
+        <v>36.31874232821833</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>37.41819014797025</v>
+        <v>37.73423008501074</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>16.34539716886248</v>
+        <v>29.01639657660375</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>49.64775002961991</v>
+        <v>47.50975461972487</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>59.87497915340228</v>
+        <v>52.03124403638395</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>36.41877300199337</v>
+        <v>43.40844808962191</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>75.42292606525579</v>
+        <v>63.14520778896203</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>63.03468292273327</v>
+        <v>59.50664988703784</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>75.60150405452691</v>
+        <v>65.74673610496828</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>45.48641333282394</v>
+        <v>53.9924552320354</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>47.00911998832122</v>
+        <v>46.78896184609322</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>57.12004498115454</v>
+        <v>51.23109260577378</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>31.9895038379656</v>
+        <v>41.91966940893592</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>78.40713544353524</v>
+        <v>65.47692657195319</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>61.54208762893599</v>
+        <v>58.89232569118597</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>74.1026785055091</v>
+        <v>64.83245613795727</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>41.19743412319959</v>
+        <v>51.4556826623609</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>39.71446072817739</v>
+        <v>42.0006255530209</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>49.11106077073816</v>
+        <v>46.65341355545516</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>25.73061368383944</v>
+        <v>37.9226398844396</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>82.70351528618782</v>
+        <v>67.55759232155408</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>58.24309606454732</v>
+        <v>59.33219850039356</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>69.34338435580278</v>
+        <v>65.25298194908741</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>37.3791844545506</v>
+        <v>51.47910416982536</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>28.44959053535276</v>
+        <v>21.34103617167132</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>20.14070813537544</v>
+        <v>22.65647269995403</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>27.30961237044765</v>
+        <v>25.23470761163682</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>7.831433417828858</v>
+        <v>17.58548825676474</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>22.50147778492401</v>
+        <v>17.05806647627035</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>43.52742066729998</v>
+        <v>41.15611514025601</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>43.50676456857386</v>
+        <v>46.52565702245845</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>55.39942622915257</v>
+        <v>52.91732356342389</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>27.94272054466813</v>
+        <v>41.09695715018081</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>46.81870590533151</v>
+        <v>39.81229757610249</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>43.96900404913406</v>
+        <v>39.10783487902421</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>41.27281618713587</v>
+        <v>41.81006849677961</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>52.63752388206177</v>
+        <v>47.25816507691914</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>21.81460262429023</v>
+        <v>32.25077894478562</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>47.14831163733741</v>
+        <v>39.66138487036372</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>40.84136016683964</v>
+        <v>29.88298471933951</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>31.33541403880534</v>
+        <v>35.46830157898285</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>40.86317119227775</v>
+        <v>39.12786975320585</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>10.83310414917434</v>
+        <v>26.49409720402103</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>39.92098560689857</v>
+        <v>31.82762648801597</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>12.76342441957215</v>
+        <v>19.74576408758213</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>18.04579934681617</v>
+        <v>21.42844469463407</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>-0.9744443812840515</v>
+        <v>13.57186016500851</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>29.28552693581195</v>
+        <v>23.05705099196827</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>19.13904401587772</v>
+        <v>25.74799245772704</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>25.70709801113463</v>
+        <v>27.62492689991825</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>1.405056684344082</v>
+        <v>19.26750635261778</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>37.95573646627292</v>
+        <v>42.03191865246492</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>49.03815264111277</v>
+        <v>47.71985353405577</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>20.87104248964787</v>
+        <v>36.23887169344525</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>57.51882413568758</v>
+        <v>47.54323308985788</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>51.95099900224676</v>
+        <v>53.95930221903919</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>65.78344875050595</v>
+        <v>61.16754458712921</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>30.61143810418534</v>
+        <v>47.56299706690508</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>34.18958097163247</v>
+        <v>40.27234173793086</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>44.87701647459771</v>
+        <v>45.28295294932359</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>15.72324479766323</v>
+        <v>34.24498617486017</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>59.25138343012132</v>
+        <v>47.46216032185505</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>50.36068692699868</v>
+        <v>52.1351587265866</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>64.27454718233186</v>
+        <v>58.7940863984491</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>26.73276123154971</v>
+        <v>44.38544710426631</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>21.69691420528641</v>
+        <v>27.44766369211984</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>30.79100521535486</v>
+        <v>30.23139960326972</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>5.846958232188047</v>
+        <v>22.28511055050518</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>56.34918954760727</v>
+        <v>44.81914207207568</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>43.25144624442147</v>
+        <v>46.95201810331733</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>55.30014184193787</v>
+        <v>51.91919069579475</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>20.71406489488944</v>
+        <v>39.25678490441364</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>13.37772212978362</v>
+        <v>12.83586876771572</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>3.980731933478582</v>
+        <v>13.48743515479296</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>7.751477267052749</v>
+        <v>13.90532551119085</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>-4.344752317907002</v>
+        <v>11.77899790696229</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>19.46193812691709</v>
+        <v>14.23643890365141</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>24.26772051977687</v>
+        <v>20.7950500122898</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>22.96869219609917</v>
+        <v>24.99095830261409</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>30.13744855905022</v>
+        <v>27.11817501414673</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>11.413257553351</v>
+        <v>21.57751691105692</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>41.94715009291555</v>
+        <v>36.52129753851278</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>25.21937640149367</v>
+        <v>20.78199750882951</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>20.79637099634037</v>
+        <v>23.28635849414011</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>27.43752542551273</v>
+        <v>24.99501733279075</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>5.700665686795395</v>
+        <v>17.76558865392348</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>43.06506602948278</v>
+        <v>33.1660937526212</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>26.29173504018146</v>
+        <v>20.15134727322187</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>13.51681288026637</v>
+        <v>20.42772608317959</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>19.10178169836278</v>
+        <v>21.5928055299859</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>-2.427690220361935</v>
+        <v>15.29973287169447</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>42.90048815020991</v>
+        <v>34.29202873775551</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>11.5395970805416</v>
+        <v>17.60807717770055</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>14.43960091301807</v>
+        <v>18.7612090690115</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>1.238093083703628</v>
+        <v>12.74210292465705</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>21.26777261003796</v>
+        <v>15.2918879661202</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>12.82146332854388</v>
+        <v>16.31644857355844</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>16.81624044525796</v>
+        <v>17.11541723098629</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>-1.174651095145389</v>
+        <v>11.35909560247145</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>37.58100697052144</v>
+        <v>38.98089441437886</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>45.7850477277657</v>
+        <v>43.51449772930668</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>25.363330997079</v>
+        <v>34.00495672047346</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>54.24022236852849</v>
+        <v>45.30091281361872</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>52.47603838777286</v>
+        <v>51.70056068616255</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>63.34103673162147</v>
+        <v>57.7552345566821</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>35.84970585334585</v>
+        <v>46.70777465783445</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>34.26935884106174</v>
+        <v>34.72452312427345</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>41.99125883941831</v>
+        <v>38.08883708905211</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>20.698468211297</v>
+        <v>29.93031577546499</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>57.12108963983216</v>
+        <v>45.43101985518281</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>51.67090258822016</v>
+        <v>49.51850643220158</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>62.32559394216702</v>
+        <v>54.52137782435188</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>32.64397495120244</v>
+        <v>42.57939126026127</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>25.44599785765443</v>
+        <v>31.28463258935722</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>31.75914577139918</v>
+        <v>33.49677270152571</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>12.82983757287694</v>
+        <v>26.81717547924465</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>53.95160327074154</v>
+        <v>44.01654307540869</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>41.41705734680336</v>
+        <v>43.20159828280819</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>49.6357758523546</v>
+        <v>45.58226984876124</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>21.96595807339237</v>
+        <v>33.82953553673105</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>21.04433061376362</v>
+        <v>11.11430170014561</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>9.105956763858359</v>
+        <v>12.65127473416849</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>13.91087109770255</v>
+        <v>13.29131714495297</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>0.7054420501231817</v>
+        <v>12.13935599209434</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>28.62721969573285</v>
+        <v>16.98468409108292</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>32.63145294487153</v>
+        <v>23.57109374108058</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>30.39630741604207</v>
+        <v>32.40821743546543</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>38.74474623820805</v>
+        <v>35.99521935546773</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>18.71262153101742</v>
+        <v>28.65910276732245</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>46.76829691780028</v>
+        <v>33.40382287710575</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>37.15793350880605</v>
+        <v>33.02778295860529</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>30.96697257550383</v>
+        <v>38.13542646343491</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>39.08129068095131</v>
+        <v>42.33199505461175</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>15.04843164100827</v>
+        <v>31.50532451189712</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>50.37302121870292</v>
+        <v>37.10682022541913</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>41.05379923810152</v>
+        <v>32.56615369940194</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>24.96911029497278</v>
+        <v>32.17667488652931</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>32.55908331995845</v>
+        <v>35.99493291353758</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>8.189735328227883</v>
+        <v>27.14391654331716</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>52.2129699920857</v>
+        <v>37.36496795900423</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>13.47414513006134</v>
+        <v>17.91766597249405</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>16.23701931805343</v>
+        <v>17.89461708868861</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>2.675104935449886</v>
+        <v>11.57390452501673</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>26.79813818347883</v>
+        <v>15.22254793998511</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>13.54113930941666</v>
+        <v>15.89396249854665</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>17.59774278799467</v>
+        <v>15.44344357650709</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>-0.7237890783020298</v>
+        <v>9.110151904533758</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>36.58683488462452</v>
+        <v>36.85816753044875</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>45.10085302977386</v>
+        <v>40.20762869621635</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>24.97849297179707</v>
+        <v>32.67578643829039</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>52.65154874140218</v>
+        <v>40.1981126085775</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>46.73972438094684</v>
+        <v>46.06664290526271</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>57.7959147364339</v>
+        <v>50.66446763629884</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>30.66763647697264</v>
+        <v>40.53744822752051</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>34.920818356023</v>
+        <v>38.19980945022814</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>43.33804140269511</v>
+        <v>41.58860058127419</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>21.52240780376375</v>
+        <v>33.06720769326753</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>56.84722325709558</v>
+        <v>45.03238322324185</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>46.18307223868696</v>
+        <v>47.13555266678295</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>57.23132661074055</v>
+        <v>51.60117990976916</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>27.28075593043383</v>
+        <v>39.3209967059829</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>27.06756851590974</v>
+        <v>33.37895361963024</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>34.70989511057036</v>
+        <v>36.97605572161453</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>14.53540522081085</v>
+        <v>28.82687667852036</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>59.7241060279777</v>
+        <v>43.2072065107598</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>41.3819127750089</v>
+        <v>42.36431564468808</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>50.86198137161858</v>
+        <v>46.158114418297</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>21.87095909983283</v>
+        <v>34.02877425405684</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>48.53685566817791</v>
+        <v>39.94105554816726</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>28.61324113338734</v>
+        <v>30.44337783850187</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>35.69761332228123</v>
+        <v>33.49523807326933</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>13.97809495529967</v>
+        <v>27.95674910890223</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>37.34173115838884</v>
+        <v>23.7426622176462</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>55.52012622287747</v>
+        <v>45.74895298479807</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>44.7886009912235</v>
+        <v>45.98832152536376</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>55.45984649903038</v>
+        <v>50.94989942414851</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>26.2762262996412</v>
+        <v>39.69130554859812</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>53.07107465163058</v>
+        <v>38.57386155782717</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>54.25068976267895</v>
+        <v>44.27626940662664</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>40.54107375026946</v>
+        <v>43.40231441149378</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>50.58911903013895</v>
+        <v>47.36964314787042</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>17.85720804642323</v>
+        <v>32.29432988516873</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>54.14316111773992</v>
+        <v>38.95308331960494</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>56.97881757786323</v>
+        <v>46.6986595496876</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>34.49836527804436</v>
+        <v>42.14357019512394</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>43.63983708034564</v>
+        <v>45.67495899002773</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>10.3369491459289</v>
+        <v>29.58073141124637</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>56.21427148817006</v>
+        <v>39.10653427860954</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>24.16240959305242</v>
+        <v>27.14264557568217</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>29.96169486632609</v>
+        <v>29.93640462831394</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>12.39413123137716</v>
+        <v>22.65777663848124</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>37.61208798347505</v>
+        <v>28.97832726905614</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>27.44638274385848</v>
+        <v>32.06815258144681</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>34.30379534282107</v>
+        <v>34.47576518721346</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>11.55152726488949</v>
+        <v>24.80508599876413</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>42.84985723093484</v>
+        <v>42.67533010663323</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>53.78812884777079</v>
+        <v>48.26423588513249</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>28.78988910716922</v>
+        <v>38.15705489519919</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>60.68410637167389</v>
+        <v>47.2563706390018</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>55.89820638354692</v>
+        <v>53.26363342866001</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>69.39814631500612</v>
+        <v>60.24085943699144</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>37.36635835669429</v>
+        <v>46.63032378782367</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>39.68466573677133</v>
+        <v>41.68012252742446</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>50.29427865626266</v>
+        <v>46.84502537710956</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>24.0053307512999</v>
+        <v>36.54412888913703</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>63.89428568483886</v>
+        <v>48.81380974325438</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>55.40979961765734</v>
+        <v>53.20177628295494</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>68.97326055158882</v>
+        <v>59.95538658685804</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>34.43023247855999</v>
+        <v>45.20104590092868</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>34.62757963386314</v>
+        <v>38.25698885189176</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>44.39380969305335</v>
+        <v>43.35223780206923</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>20.33169339894616</v>
+        <v>33.93099804159341</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>66.45110426420827</v>
+        <v>49.19059091495055</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>52.57925595617738</v>
+        <v>52.03414562515323</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>64.6525348719649</v>
+        <v>58.06866934327554</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>31.59898537233214</v>
+        <v>43.18500828853044</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>26.38703356287336</v>
+        <v>19.53086820241495</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>14.752851631892</v>
+        <v>18.55188355699344</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>21.60046541486092</v>
+        <v>20.95117047611191</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>2.703538877917381</v>
+        <v>14.05591356266826</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>25.86706686084624</v>
+        <v>20.44180727828365</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>45.20343251977243</v>
+        <v>41.2256620109338</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>41.88772332034921</v>
+        <v>44.84501886742984</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>53.28062074983765</v>
+        <v>50.97172858072506</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>26.45000625004154</v>
+        <v>39.76780842503025</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>51.1728169508356</v>
+        <v>39.85247731987363</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>46.31973936546851</v>
+        <v>40.4936498921241</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>40.20893013854987</v>
+        <v>41.61200851771482</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>51.13209712444421</v>
+        <v>47.09317235868463</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>20.79488302116512</v>
+        <v>32.49024646158844</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>51.77407265414155</v>
+        <v>39.75761541573983</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>41.60935393306519</v>
+        <v>33.78956381921505</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>28.10340287233544</v>
+        <v>34.65115247028719</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>37.42966596300428</v>
+        <v>38.7011265699965</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>7.700535038111951</v>
+        <v>25.56123823971039</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>44.93313776574401</v>
+        <v>36.10657838284598</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>16.9919665494598</v>
+        <v>24.60856639607261</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>22.71630305001791</v>
+        <v>26.96711704356822</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>4.506053667025874</v>
+        <v>19.32853240240515</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>27.89216410863027</v>
+        <v>22.14021436898442</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>17.13911841722591</v>
+        <v>24.18192471547275</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>23.21916348592591</v>
+        <v>25.65045803193149</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>0.389422590517654</v>
+        <v>17.35333420908979</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>43.51156802114879</v>
+        <v>43.78904129970655</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>54.9500217564771</v>
+        <v>49.92062585373792</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>27.81688096432867</v>
+        <v>38.81451330722376</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>57.93873465155869</v>
+        <v>47.34119930964872</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>51.75783315433969</v>
+        <v>52.21217017665107</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>65.08005597148103</v>
+        <v>59.02607264169069</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>31.42601122262267</v>
+        <v>45.20969982013703</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>39.93943734788522</v>
+        <v>42.24628010479388</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>51.02592938151044</v>
+        <v>47.79137482990265</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>22.80291924709401</v>
+        <v>36.98272451562104</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>59.57239192060749</v>
+        <v>47.15035142729485</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>49.9650970529697</v>
+        <v>50.20186938670354</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>63.35917458140527</v>
+        <v>56.43651339552573</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>27.30283497689165</v>
+        <v>41.8774335906936</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>27.58367418698611</v>
+        <v>34.77347130080805</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>37.32406097576823</v>
+        <v>38.91865933911634</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>13.09385971153056</v>
+        <v>31.07003538403035</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>54.71922483092679</v>
+        <v>42.42623386301918</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>40.74840988863644</v>
+        <v>43.51718332324018</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>52.2208491777431</v>
+        <v>47.84902590753393</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>19.24998301937094</v>
+        <v>35.52395872791332</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/aryl_halide/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/aryl_halide/ranking_test3/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.573</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.93</v>
+        <v>16.479</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.499</v>
+        <v>0.638</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.758</v>
+        <v>15.932</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.995</v>
+        <v>0.967</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.957</v>
+        <v>4.964</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>14.4351634152303</v>
+        <v>11.90567270351984</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>18.91494635687325</v>
+        <v>11.04076455111687</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>18.78433130084115</v>
+        <v>11.81988534121575</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>17.55050265020459</v>
+        <v>9.008272469763615</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>19.42432815400235</v>
+        <v>22.33154442712319</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>20.071803648494</v>
+        <v>19.29516128985677</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>25.70053745781487</v>
+        <v>25.39701611272642</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>26.88752648862547</v>
+        <v>28.81513060541802</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>23.79416985096308</v>
+        <v>20.78733322438585</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>41.10441942153352</v>
+        <v>44.59406276267678</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>17.98737592378882</v>
+        <v>17.86983399834929</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>22.79394660269631</v>
+        <v>21.3443487678989</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>23.52590687364325</v>
+        <v>24.40121304997851</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>19.52268184031005</v>
+        <v>13.52288458333708</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>37.85122430432921</v>
+        <v>42.28058397253527</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>18.44127893941501</v>
+        <v>20.15552463024303</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>20.72602976451667</v>
+        <v>16.54004606930401</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>21.3559870563808</v>
+        <v>18.9009056200246</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>17.99889592708009</v>
+        <v>8.78814251513532</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>37.72861681438473</v>
+        <v>42.98948316951135</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>27.42181663024495</v>
+        <v>26.03950228947348</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>27.59801569221434</v>
+        <v>27.29697065394061</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>22.16690355792613</v>
+        <v>17.26001324854312</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>17.33754352135092</v>
+        <v>19.72737812060909</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>26.26579370884336</v>
+        <v>25.11819338968954</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>26.51320311612162</v>
+        <v>26.92199306763139</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>21.3437407258198</v>
+        <v>16.9430015723849</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>45.41679061226988</v>
+        <v>52.21425147673941</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>49.7081785300014</v>
+        <v>58.17836633056974</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>43.07460244175478</v>
+        <v>45.70374149292283</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>43.41657892793998</v>
+        <v>48.95365964804711</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>53.42007157563974</v>
+        <v>61.96212626345449</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>59.07953166489431</v>
+        <v>70.05657869889511</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>51.52997123649102</v>
+        <v>55.49754560304963</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>42.43396127015136</v>
+        <v>47.80146028539823</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>45.40521877061114</v>
+        <v>53.13818085172657</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>39.48200525021872</v>
+        <v>40.94460808581495</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>43.52877131591453</v>
+        <v>49.12858285151162</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>49.56781948629438</v>
+        <v>59.30988524739433</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>54.81896278573434</v>
+        <v>67.0978678551696</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>46.98835892708478</v>
+        <v>51.07048186682204</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>37.51987362172093</v>
+        <v>39.60223340964284</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>39.89403763201227</v>
+        <v>44.14488158965594</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>35.33088054387998</v>
+        <v>33.77533597819067</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>45.1730721829968</v>
+        <v>52.35243145151127</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>50.24926978262451</v>
+        <v>56.6507592575776</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>55.40057118750803</v>
+        <v>63.20244452599406</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>47.12342218664782</v>
+        <v>46.71841707765591</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>36.80657882555981</v>
+        <v>41.55443156862989</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>32.91125528199867</v>
+        <v>32.74592871822833</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>36.10075329929869</v>
+        <v>38.64722868542713</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>27.4872524832279</v>
+        <v>22.83524294829827</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>23.33927154782478</v>
+        <v>25.87746582657091</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>40.08329114204687</v>
+        <v>47.54298084176817</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>41.3293270905013</v>
+        <v>46.80724058590948</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>46.6545001215252</v>
+        <v>55.48387272064362</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>38.03746624150472</v>
+        <v>35.78522749541047</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>43.27272050350611</v>
+        <v>48.09608191057374</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>38.66037766145755</v>
+        <v>44.07558603973501</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>37.8828540184339</v>
+        <v>41.83964789569218</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>42.0730784004388</v>
+        <v>49.817424021531</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>31.74285184224389</v>
+        <v>27.32052003185527</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>39.76480429595016</v>
+        <v>46.36371808904522</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>42.2083792026069</v>
+        <v>48.41517107435187</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>39.41888615826447</v>
+        <v>42.16070125485454</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>44.00824233600588</v>
+        <v>49.83383769576076</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>33.98164294313136</v>
+        <v>28.04823349644721</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>40.60339860618642</v>
+        <v>45.63912896133438</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>30.52022382675352</v>
+        <v>29.32015334089807</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>32.27975614285121</v>
+        <v>33.50917727467413</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>25.99678337728137</v>
+        <v>20.26565718624565</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>33.06905415238188</v>
+        <v>36.28149071832323</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>34.9708539936509</v>
+        <v>35.69784779533537</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>36.90636647680399</v>
+        <v>40.44560711285019</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>28.76728568378344</v>
+        <v>23.6825793659435</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>46.5934471096692</v>
+        <v>51.67859636816667</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>52.02923788526954</v>
+        <v>59.66269794025614</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>42.6596646797989</v>
+        <v>42.35735428353439</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>48.55979379503474</v>
+        <v>56.508786415934</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>52.62194942281833</v>
+        <v>61.60457314986446</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>59.5420536679263</v>
+        <v>71.941229929811</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>47.92504846412425</v>
+        <v>49.31088875107203</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>43.88601749628653</v>
+        <v>48.86904938633808</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>48.34051554024732</v>
+        <v>56.10557028944552</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>40.05713361719314</v>
+        <v>39.40132163094499</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>47.37024188407083</v>
+        <v>55.39625169808139</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>51.37949795227551</v>
+        <v>60.14102084976894</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>57.65175829998873</v>
+        <v>70.25535029757633</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>46.79495225603959</v>
+        <v>46.86201236404802</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>40.99598423772859</v>
+        <v>43.06271963390398</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>44.59621491523131</v>
+        <v>49.25554738391425</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>39.18110497486654</v>
+        <v>36.74077628517522</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>46.13186413365582</v>
+        <v>55.62123996231016</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>50.37450987698292</v>
+        <v>58.1809153054236</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>55.7600380743464</v>
+        <v>67.16818370605395</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>46.78232515141949</v>
+        <v>46.70777488568524</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>27.5974157737691</v>
+        <v>29.1219154169807</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>25.8532211832342</v>
+        <v>24.16807105779764</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>27.86384150171061</v>
+        <v>28.42652769455792</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>22.13815338281358</v>
+        <v>16.33827324599875</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>24.44112840756812</v>
+        <v>26.26385504627795</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>38.99401630818378</v>
+        <v>42.07806471108907</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>42.62796111836519</v>
+        <v>45.44769874715643</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>47.71745224303592</v>
+        <v>52.77950867734626</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>38.72454101127671</v>
+        <v>36.08453130772962</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>43.79478519943782</v>
+        <v>49.90688323695008</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>37.10143716448718</v>
+        <v>40.24399777023758</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>37.86359960100526</v>
+        <v>41.42011109844908</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>42.02627103821386</v>
+        <v>48.21128759043901</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>29.48016990912695</v>
+        <v>27.71124311536088</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>42.69759374136616</v>
+        <v>49.63370130900336</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>40.97172632302615</v>
+        <v>45.22790539004209</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>40.57727441979082</v>
+        <v>42.74608396655543</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>45.32183360301523</v>
+        <v>49.60072598090125</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>33.45701879252845</v>
+        <v>29.08280718444713</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>42.61583124102314</v>
+        <v>47.74363316490796</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>31.2390815899431</v>
+        <v>29.7978562533203</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>32.99070745395149</v>
+        <v>34.15653674800888</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>26.9079319984051</v>
+        <v>20.37335280573335</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>32.7977604461468</v>
+        <v>34.86538430258652</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>35.00917533348836</v>
+        <v>36.02417936914639</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>36.77740419039034</v>
+        <v>40.2464655614187</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>29.25873552978578</v>
+        <v>24.4666170662197</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>47.24215233243249</v>
+        <v>53.07664728902672</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>52.54392317114897</v>
+        <v>61.23724246984246</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>43.13386759002703</v>
+        <v>43.12538474655912</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>46.48679666673962</v>
+        <v>56.29631799849079</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>51.5864321846724</v>
+        <v>63.34978250896174</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>57.81658328718578</v>
+        <v>73.15028129540576</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>47.72515206704499</v>
+        <v>52.05362030605679</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>46.00144406927183</v>
+        <v>51.33872709860199</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>51.11828835869711</v>
+        <v>59.03479779458885</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>41.69584774517323</v>
+        <v>40.87226995222883</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>46.10964564039921</v>
+        <v>56.44442874799607</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>51.20043300893779</v>
+        <v>62.89188785808231</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>57.55713315782377</v>
+        <v>72.84083692183859</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>46.65640559873711</v>
+        <v>50.27308565641748</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>42.09623884663669</v>
+        <v>45.36531644320154</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>47.06499162761526</v>
+        <v>52.64827927738443</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>39.04193131205441</v>
+        <v>37.42311058388411</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>48.53483902418917</v>
+        <v>58.23092181888781</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>51.94470275001427</v>
+        <v>62.45770544155491</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>58.64709461650142</v>
+        <v>72.04424641179966</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>47.57847174531801</v>
+        <v>50.57584845662264</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>17.0735886058209</v>
+        <v>14.34284776209274</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>27.84671670313652</v>
+        <v>23.70170702558768</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>29.82120372058138</v>
+        <v>26.38256695122165</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>35.31209768656451</v>
+        <v>33.38982535126807</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>14.27505234225336</v>
+        <v>18.34932931653705</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>22.92053077595394</v>
+        <v>21.32642186345019</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>33.95113740388635</v>
+        <v>37.48645768673043</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>37.10764144398522</v>
+        <v>42.91719361189613</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>38.96698762977736</v>
+        <v>43.18350284377032</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>42.15821208411232</v>
+        <v>46.72287490878195</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>20.9686858584541</v>
+        <v>20.42959187587002</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>32.43888003155458</v>
+        <v>34.52305933867426</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>35.43624226741769</v>
+        <v>39.73582790872616</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>37.17540839813799</v>
+        <v>37.23451936925906</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>37.92584695317583</v>
+        <v>44.12544770799234</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>22.11514786385209</v>
+        <v>23.39040406508077</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>31.17705929111277</v>
+        <v>30.19474511371197</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>34.17758655502637</v>
+        <v>34.76010838756598</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>37.06541317005212</v>
+        <v>34.45450455920138</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>34.03304153987095</v>
+        <v>38.35058152098591</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>22.57537804552816</v>
+        <v>20.84763418414396</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>22.42718330853171</v>
+        <v>22.62842578891016</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>18.84720235816561</v>
+        <v>13.84021980153569</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>17.52690355864666</v>
+        <v>18.18438869343835</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>24.19196305824828</v>
+        <v>23.30865024244386</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>24.68433536323703</v>
+        <v>25.24305072523947</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>22.54254079026292</v>
+        <v>18.07686142197513</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>46.51455671237711</v>
+        <v>52.04527613029467</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>51.02537507752218</v>
+        <v>58.38921958676191</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>43.5946830697262</v>
+        <v>45.42325110281483</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>45.97709552443924</v>
+        <v>50.76356798061364</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>53.54324220164813</v>
+        <v>62.59586622944988</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>59.10864237319701</v>
+        <v>70.10276588054731</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>50.53630622319596</v>
+        <v>56.24981345838933</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>41.99761786998344</v>
+        <v>48.0163074833372</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>45.12521416839284</v>
+        <v>53.67042112681363</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>38.58723083699351</v>
+        <v>41.18258082017481</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>42.97950296884837</v>
+        <v>49.44606016160758</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>50.45966898956395</v>
+        <v>59.19096087601547</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>54.74172411204374</v>
+        <v>66.14862105613661</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>47.14061766225951</v>
+        <v>51.18288231386261</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>33.37373458236123</v>
+        <v>34.39052481400019</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>35.47615264667026</v>
+        <v>39.25690027849805</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>31.56695585864194</v>
+        <v>29.79745720757789</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>40.99407991662515</v>
+        <v>46.24115161876985</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>45.19979077103383</v>
+        <v>50.16155832170829</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>48.80579481462327</v>
+        <v>56.16221148703508</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>42.75756402160477</v>
+        <v>42.34548759066731</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>24.24079654799732</v>
+        <v>26.58625917917928</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>21.81636008389976</v>
+        <v>17.0003051811521</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>23.40927422363508</v>
+        <v>20.82756919559487</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>18.05879496807457</v>
+        <v>3.887184937528762</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>25.34943317664184</v>
+        <v>27.95810644779662</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>36.95718144899137</v>
+        <v>39.92023340708727</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>32.48615440578157</v>
+        <v>34.91811932250194</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>35.38280392199249</v>
+        <v>41.07965061311824</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>17.72294180323332</v>
+        <v>13.64431312861661</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>44.8275440542411</v>
+        <v>48.26663366909864</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>36.66852086995096</v>
+        <v>40.5426136877603</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>34.56434719156339</v>
+        <v>33.28095110991924</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>37.10788566417195</v>
+        <v>39.22625511330238</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>17.98506518139077</v>
+        <v>8.092578206109494</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>43.99382215587711</v>
+        <v>47.46626190704314</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>41.33272640594178</v>
+        <v>45.64728222497763</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>34.04735089898325</v>
+        <v>31.20990504845147</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>37.19723623054772</v>
+        <v>37.28601676909766</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>17.07426427030725</v>
+        <v>8.042602928190163</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>43.92716912943243</v>
+        <v>50.08394954405786</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>33.13042532849052</v>
+        <v>35.40602848285816</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>35.24927342613169</v>
+        <v>39.74375921841976</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>29.93839580822304</v>
+        <v>26.91652164406269</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>30.30056124307894</v>
+        <v>30.50122506664107</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>34.46498873969096</v>
+        <v>35.5091589810683</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>35.95889430145822</v>
+        <v>39.09873402625944</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>30.44775130910979</v>
+        <v>27.03520733243096</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>50.29928787121</v>
+        <v>58.04692164415516</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>56.08630910353419</v>
+        <v>66.38389800584599</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>46.73101355287633</v>
+        <v>49.35778745705716</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>46.36441008344565</v>
+        <v>52.14500753317078</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>52.77498780193767</v>
+        <v>63.66785134833962</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>59.23390461655705</v>
+        <v>72.6676903967426</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>49.79747569243125</v>
+        <v>54.99045072309056</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>48.58450303378883</v>
+        <v>55.16031336760359</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>54.07105070979344</v>
+        <v>63.18732226204465</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>44.26786383445673</v>
+        <v>45.7146152139186</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>43.2061829950607</v>
+        <v>51.26753459401656</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>50.75246476640886</v>
+        <v>60.7240231462313</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>56.55304147190589</v>
+        <v>69.57985070820411</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>47.3961158347395</v>
+        <v>50.24940762936962</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>44.86229734726788</v>
+        <v>50.69774365897976</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>50.62677595700329</v>
+        <v>59.16372658527212</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>43.02302205280444</v>
+        <v>43.52190752881504</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>49.04493907610492</v>
+        <v>58.30725030007402</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>52.49370682964839</v>
+        <v>62.63487999723871</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>59.12392119167553</v>
+        <v>71.65447265185807</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>48.88831454119546</v>
+        <v>51.53659952213538</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>31.260643611121</v>
+        <v>35.67134006664641</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>21.97860103390725</v>
+        <v>19.53739954722318</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>24.56767463127056</v>
+        <v>24.21765209725009</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>16.13791624400172</v>
+        <v>3.388882715274057</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>30.81144205857424</v>
+        <v>34.58788782456337</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>35.51516982296562</v>
+        <v>38.96431047867581</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>30.10513426836383</v>
+        <v>28.96473378771163</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>32.74586139146579</v>
+        <v>34.66548350413139</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>15.7276186830629</v>
+        <v>4.321723109420045</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>44.99557534655177</v>
+        <v>50.66623956808387</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>37.45209664159839</v>
+        <v>39.79847004156755</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>34.82042424832994</v>
+        <v>29.25427793109332</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>37.08222417367237</v>
+        <v>34.63269195577505</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>17.5389424569683</v>
+        <v>0.2809400284458405</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>46.27219699793618</v>
+        <v>49.98009925178758</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>42.41261688686271</v>
+        <v>47.80715507745568</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>35.88525413441323</v>
+        <v>30.87222166253439</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>39.02582645462248</v>
+        <v>36.88201169556713</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>17.28490366784111</v>
+        <v>2.957881290194972</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>46.25801540234191</v>
+        <v>52.9759807559241</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>35.70664408433515</v>
+        <v>38.1648659551765</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>38.70303764650313</v>
+        <v>44.04131228115492</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>31.68673282398439</v>
+        <v>29.62442820120041</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>33.38049170087451</v>
+        <v>36.33904866188642</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>36.07154449208396</v>
+        <v>37.47678368033697</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>38.32305934554648</v>
+        <v>42.28824779726314</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>30.51980246519493</v>
+        <v>27.09578377684529</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>49.66944074884192</v>
+        <v>56.45047924743092</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>55.69009266761093</v>
+        <v>65.60562525875635</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>45.8305094931538</v>
+        <v>46.80017251624645</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>45.31375500846399</v>
+        <v>54.0040626634119</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>51.36801560460565</v>
+        <v>61.17982715581297</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>57.60018547145308</v>
+        <v>70.68146436918259</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>48.31703755911103</v>
+        <v>50.95465196196579</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>48.8728268403965</v>
+        <v>54.93500857992912</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>55.02969328443461</v>
+        <v>63.99152564071675</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>44.38411774858893</v>
+        <v>44.76098921427389</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>46.24166540579055</v>
+        <v>55.28795854358097</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>52.52309645132055</v>
+        <v>62.31380884774526</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>58.90954339906331</v>
+        <v>72.0335215381991</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>48.9379163211478</v>
+        <v>51.10297346286006</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>46.7808977615329</v>
+        <v>52.58183728136373</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>52.65870216441289</v>
+        <v>61.48005499762125</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>44.41290082237767</v>
+        <v>45.02843672123261</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>47.94037264480611</v>
+        <v>58.20989173815235</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>51.09682971667101</v>
+        <v>61.52949477111926</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>57.37906744137499</v>
+        <v>71.06048981329039</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>46.79106987452809</v>
+        <v>50.10513928952581</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>14.72425086157054</v>
+        <v>9.76921301703887</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>19.16304645337456</v>
+        <v>11.3010792074829</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>18.97382276203491</v>
+        <v>11.71668648820773</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>18.05016724960903</v>
+        <v>8.188808880375113</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>20.83374087785835</v>
+        <v>19.20713236213367</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>18.69950267449773</v>
+        <v>14.08510161946062</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>24.84798925896195</v>
+        <v>20.66696878061463</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>25.62383203357888</v>
+        <v>22.97367224710986</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>22.23106093397504</v>
+        <v>15.22233569697714</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>34.19906995384319</v>
+        <v>38.36950486779418</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>15.85583949119221</v>
+        <v>11.79210136387008</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>21.27709266348493</v>
+        <v>16.27837106067421</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>21.29790047279526</v>
+        <v>18.04162110549276</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>16.38011518836644</v>
+        <v>7.594229716873546</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>34.57546506457145</v>
+        <v>36.53721092555591</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>15.13797309759825</v>
+        <v>13.59622827304719</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>18.96922320923439</v>
+        <v>14.2898317108173</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>19.00171222182713</v>
+        <v>15.89180420242299</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>15.29896710328683</v>
+        <v>5.590417417393052</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>32.58036297419603</v>
+        <v>35.50232143810452</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>26.72139391587045</v>
+        <v>23.24878423091679</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>27.7226679178283</v>
+        <v>25.50240747103587</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>23.87901904324073</v>
+        <v>15.81617124141232</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>20.87391101451339</v>
+        <v>20.58462630769699</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>27.77948314232687</v>
+        <v>25.85845154874385</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>28.27195942671184</v>
+        <v>28.27392214389373</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>23.62083202840067</v>
+        <v>18.0557791073464</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>37.41422264889316</v>
+        <v>41.95374673343952</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>41.36718885941583</v>
+        <v>47.62896665935383</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>34.1813090437099</v>
+        <v>34.32773389425115</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>41.99888618674552</v>
+        <v>46.65707184024896</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>46.98657850237369</v>
+        <v>55.56033645194081</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>52.27615116968936</v>
+        <v>63.18681818459413</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>44.94533769521252</v>
+        <v>48.88748944719659</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>37.43421621115658</v>
+        <v>38.48098899442778</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>40.35860853389831</v>
+        <v>43.51970530180979</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>34.67643823980981</v>
+        <v>30.68461857073419</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>42.37764384942979</v>
+        <v>48.15682714538099</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>47.22724853933381</v>
+        <v>55.53368331411292</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>52.34308761688779</v>
+        <v>63.16974209585394</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>45.04897580738488</v>
+        <v>47.5554834850864</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>32.23757835308538</v>
+        <v>33.06372561597776</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>34.66934635002875</v>
+        <v>37.62855353139658</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>30.3111386105832</v>
+        <v>27.10648806584759</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>44.73385505312201</v>
+        <v>51.69785732628957</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>48.38133058246656</v>
+        <v>56.63665051157378</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>53.65339693409337</v>
+        <v>64.01283200072288</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>45.12097266968892</v>
+        <v>47.29963763782561</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>10.62453189417251</v>
+        <v>7.065078118818516</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>16.30829920202753</v>
+        <v>7.085393161887438</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>16.23200213019475</v>
+        <v>7.556015149906493</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>15.96041029266336</v>
+        <v>7.486562337319548</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>11.36999779039717</v>
+        <v>9.011026835518638</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>14.78708435636155</v>
+        <v>10.94536994249194</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>19.04468669944436</v>
+        <v>15.88242806166848</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>19.6408262971123</v>
+        <v>18.33442152516326</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>17.95025482254476</v>
+        <v>12.33855122146998</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>19.76566486417247</v>
+        <v>19.03817472313185</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>13.40619614336851</v>
+        <v>9.909764744494062</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>17.9701535255902</v>
+        <v>12.68883053487887</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>18.54139354589293</v>
+        <v>14.83135330921839</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>17.25454431699493</v>
+        <v>6.245275119507305</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>20.97975711605128</v>
+        <v>17.33214522125326</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>10.71363942653322</v>
+        <v>10.2430362612885</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>14.49305533184841</v>
+        <v>7.317200058842651</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>14.40891144613825</v>
+        <v>8.800567892833163</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>13.84062572941471</v>
+        <v>2.175521428314568</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>13.50566552174664</v>
+        <v>15.10350103592585</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>20.70278821888275</v>
+        <v>14.72271248354233</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>19.92234229892269</v>
+        <v>14.08062820980668</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>17.15936975043683</v>
+        <v>7.100780824632906</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>14.46215405125857</v>
+        <v>17.08634985794381</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>21.47268714335252</v>
+        <v>16.35844700156665</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>20.64892621338799</v>
+        <v>15.60754404150932</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>16.34466903362766</v>
+        <v>5.747350917505987</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>25.99383025005808</v>
+        <v>24.86318247474915</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>26.67441058429312</v>
+        <v>27.03012152451385</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>20.86300708111046</v>
+        <v>16.60383036343461</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>34.10934858605615</v>
+        <v>37.10603723200705</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>37.44309003030645</v>
+        <v>39.28566632002366</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>39.56212692906352</v>
+        <v>43.00991509744937</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>31.64247009341993</v>
+        <v>27.46521697928415</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>23.65975617957845</v>
+        <v>20.67933890454976</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>23.60726406064964</v>
+        <v>22.18102845166237</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>18.64434850381583</v>
+        <v>11.92634647692559</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>33.40811764530051</v>
+        <v>36.32356368138204</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>34.09241877968482</v>
+        <v>35.60300411210309</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>34.74200832045985</v>
+        <v>38.6844243111844</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>26.21663957735261</v>
+        <v>21.85657780892305</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>16.48060017293689</v>
+        <v>12.62030606148714</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>16.38315970650829</v>
+        <v>14.05421699480329</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>14.82294176129905</v>
+        <v>6.893926762350027</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>34.2980104302664</v>
+        <v>37.93448338867274</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>33.81076532939488</v>
+        <v>34.25746520874289</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>33.78348877098102</v>
+        <v>36.64167898793918</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>26.51183812538114</v>
+        <v>20.60312392087412</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>37.50432762960588</v>
+        <v>44.66537711442907</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>30.39524137056565</v>
+        <v>31.94722657561195</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>32.77937485721211</v>
+        <v>36.73323796946193</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>30.3503756226658</v>
+        <v>25.4313987456558</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>23.2731462068427</v>
+        <v>22.92911724347134</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>42.03925366653394</v>
+        <v>52.30531025749374</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>44.88567387252405</v>
+        <v>50.64867878140525</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>49.77025867166859</v>
+        <v>58.19963186292203</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>42.69818384389382</v>
+        <v>40.90251549735859</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>36.68871275373086</v>
+        <v>41.52975700751266</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>43.54853373410872</v>
+        <v>49.14704418018749</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>42.96603937073736</v>
+        <v>46.55086735171077</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>47.10099226653641</v>
+        <v>53.58773501304614</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>36.15690165967206</v>
+        <v>32.21823883827015</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>37.60291221802806</v>
+        <v>40.5019520636571</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>42.5425322242473</v>
+        <v>52.38444435637839</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>40.14929524816181</v>
+        <v>42.53756790752575</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>43.3477371066996</v>
+        <v>49.00137058771055</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>32.86870730444021</v>
+        <v>26.65637933947572</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>34.2590992282005</v>
+        <v>39.6326554285362</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>28.5277932334044</v>
+        <v>25.73612719196222</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>30.30573214361849</v>
+        <v>30.11203526548813</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>25.06635149485151</v>
+        <v>18.20110293377431</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>32.14627992873645</v>
+        <v>35.26910053292579</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>33.40580095400082</v>
+        <v>35.83694408537227</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>35.12967271219624</v>
+        <v>39.62405393998169</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>28.77211732319812</v>
+        <v>26.25809250300545</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>40.16010900651729</v>
+        <v>46.19540317648839</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>44.60353224781686</v>
+        <v>53.84333383442774</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>37.48372296849934</v>
+        <v>38.90336948953046</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>45.26839745672306</v>
+        <v>52.81982645582215</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>47.82682163287578</v>
+        <v>58.41118877666369</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>53.29563373007065</v>
+        <v>67.11525337255527</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>44.75858074990879</v>
+        <v>50.04998232094444</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>39.78230506824521</v>
+        <v>43.83655731965075</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>44.05334220010899</v>
+        <v>51.12326155013432</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>36.71673045200035</v>
+        <v>35.9873832446273</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>46.92936717657409</v>
+        <v>53.60179571796991</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>50.00365957421928</v>
+        <v>58.43737689596306</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>55.82755957374718</v>
+        <v>67.29380383968402</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>46.99370383411556</v>
+        <v>48.94479586642241</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>34.42230162228648</v>
+        <v>36.81807671410898</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>38.16250678400591</v>
+        <v>43.73557647930411</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>32.79195071024261</v>
+        <v>30.57505812156402</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>45.72303285980799</v>
+        <v>55.41237785992223</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>48.5881959783352</v>
+        <v>57.98091897764711</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>54.46787963240314</v>
+        <v>66.41464130055262</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>45.54861773815838</v>
+        <v>47.80939109806752</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>11.46833847879939</v>
+        <v>5.21961723979204</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>15.99685083670519</v>
+        <v>6.560448320257628</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>15.42925731977355</v>
+        <v>6.616508106434548</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>15.0955742661865</v>
+        <v>3.492139649191412</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>12.15214166659018</v>
+        <v>8.941300730744263</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>15.46437745843705</v>
+        <v>13.90299346512731</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>20.98575500117043</v>
+        <v>18.39233635858089</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>21.4736657858362</v>
+        <v>20.54217966618922</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>19.41285465738829</v>
+        <v>14.16159996190071</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>31.19814555051074</v>
+        <v>33.82047123570106</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>15.45375297141256</v>
+        <v>11.56140505060946</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>20.01541175121215</v>
+        <v>13.64270226318732</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>20.15975351477504</v>
+        <v>15.12084246891098</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>17.54107299506079</v>
+        <v>6.809717611240877</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>27.99420742062367</v>
+        <v>30.29519214098664</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>13.44498822363619</v>
+        <v>9.717563201212105</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>17.50352653790721</v>
+        <v>10.23557048627381</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>17.55911756864608</v>
+        <v>11.23269386085229</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>16.37145600272014</v>
+        <v>4.83719984937213</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>21.14828168974486</v>
+        <v>21.64553189082409</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>18.40672053204712</v>
+        <v>11.35296140110056</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>18.05491796637864</v>
+        <v>12.07577005505736</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>15.50638298395789</v>
+        <v>5.996841967937648</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>12.90947686318876</v>
+        <v>11.51002965935474</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>19.43931978852839</v>
+        <v>14.62871689122326</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>19.54431436584571</v>
+        <v>14.99398643017788</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>17.60432809678484</v>
+        <v>8.683921879463657</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>33.9194977596033</v>
+        <v>34.13116821892437</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>36.7949201914893</v>
+        <v>38.17056177820323</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>30.70052191058057</v>
+        <v>27.62788075085021</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>38.44165625703303</v>
+        <v>44.24156810998657</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>46.39407911178001</v>
+        <v>51.33220266095907</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>50.15887973429879</v>
+        <v>56.39792796779794</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>43.59771341169934</v>
+        <v>43.49180508387151</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>29.34161167084393</v>
+        <v>28.37615198755976</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>30.011801088145</v>
+        <v>31.32152162202669</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>26.23804788060835</v>
+        <v>21.79584725496785</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>38.58884086680149</v>
+        <v>43.00159593619284</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>42.60939187423783</v>
+        <v>47.98820482534225</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>44.37842881145878</v>
+        <v>52.28284848357503</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>37.96317339418353</v>
+        <v>38.43756221239305</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>19.91340814239693</v>
+        <v>15.50465051283451</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>19.88966519941767</v>
+        <v>17.20627447076168</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>19.41294020757697</v>
+        <v>12.42314129361345</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>36.96064285729931</v>
+        <v>41.01657831128802</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>38.2598719161188</v>
+        <v>41.87873501665693</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>39.86533881808355</v>
+        <v>44.92898637810974</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>33.39214868087126</v>
+        <v>33.17570345969931</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>7.493426747235361</v>
+        <v>0.3433276779942247</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>11.35755993264841</v>
+        <v>-0.6980681158641993</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>10.62399437537915</v>
+        <v>-0.6184759775316486</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>11.52386949927851</v>
+        <v>-1.933467410581436</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>23.97517581767773</v>
+        <v>23.32590292497071</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>8.451329653252589</v>
+        <v>4.657881126842785</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>13.78093497451053</v>
+        <v>8.438164927395176</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>13.2715740384923</v>
+        <v>9.900861899800727</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>12.73421310353443</v>
+        <v>3.994832252401164</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>35.85089626347317</v>
+        <v>41.19833208626906</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>11.23515240929821</v>
+        <v>6.678388846936745</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>17.61326625200048</v>
+        <v>8.465392908796169</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>16.74128406549012</v>
+        <v>9.455258979105427</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>14.04588034030489</v>
+        <v>0.05138251598753385</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>36.30212326376252</v>
+        <v>41.59734838320261</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>13.60906461765157</v>
+        <v>11.22567266940003</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>16.80177711253657</v>
+        <v>11.15437726031108</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>16.11019700966856</v>
+        <v>12.70482187635985</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>15.36503176527717</v>
+        <v>4.774370710111445</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>34.61947034227974</v>
+        <v>40.14625378913733</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>27.99439746010236</v>
+        <v>26.77168311964282</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>29.38382677627845</v>
+        <v>30.23888785516856</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>25.21708157119198</v>
+        <v>19.50117467148392</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>27.42503612720651</v>
+        <v>27.9505160708128</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>30.41407247550166</v>
+        <v>29.27227028808722</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>31.31774017509256</v>
+        <v>32.79719028448318</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>25.25606847226081</v>
+        <v>19.64874705881716</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>38.86399261328538</v>
+        <v>44.60829377074297</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>43.02240629176696</v>
+        <v>51.42514799651173</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>36.13766472265251</v>
+        <v>36.55836561634106</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>44.97987433995836</v>
+        <v>49.79714911246657</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>48.83565071622793</v>
+        <v>57.11755786586243</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>54.82746055745478</v>
+        <v>65.82192901062596</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>45.2840228092096</v>
+        <v>47.29143214880563</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>39.56672024535368</v>
+        <v>43.99875252942526</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>43.64409281398689</v>
+        <v>50.48019459690843</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>36.40727462097759</v>
+        <v>35.50676231626468</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>45.76321641434177</v>
+        <v>52.06470737259472</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>50.15143858563263</v>
+        <v>59.27637980537369</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>56.26073811968831</v>
+        <v>68.21958745243353</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>46.33984258340672</v>
+        <v>48.28224610363804</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>35.03726809829027</v>
+        <v>39.38326598916636</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>38.86368082241454</v>
+        <v>45.61639846465418</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>32.91647351412433</v>
+        <v>33.84147825851723</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>46.09172951298169</v>
+        <v>53.17347921583796</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>50.59307036339937</v>
+        <v>58.15111444100418</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>56.80205538088592</v>
+        <v>67.06657650787507</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>46.48119815237109</v>
+        <v>48.42118311938765</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>13.4743062883937</v>
+        <v>8.723901680269261</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>18.87583127277967</v>
+        <v>11.90790165891211</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>18.55191725975459</v>
+        <v>12.09035211444405</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>17.62946834121674</v>
+        <v>10.11639634331862</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>10.0885934593453</v>
+        <v>4.974436520433159</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>18.90327586570666</v>
+        <v>15.37261995512704</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>24.02779366754136</v>
+        <v>23.04893395710711</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>24.98324378920555</v>
+        <v>25.2950931356014</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>22.2857358438345</v>
+        <v>19.74624363734309</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>24.09697708441499</v>
+        <v>22.55659152301219</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>20.13465598470767</v>
+        <v>14.47772301630348</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>23.71295499494629</v>
+        <v>20.01704543402711</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>24.22256036274177</v>
+        <v>21.83022764102626</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>20.013288066749</v>
+        <v>13.57503947366676</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>21.74644115333591</v>
+        <v>20.78338779354974</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>17.09192537088182</v>
+        <v>13.08833163530826</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>20.21347949790819</v>
+        <v>16.1483421667776</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>20.65924566457476</v>
+        <v>17.93548093907978</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>18.15184666012011</v>
+        <v>10.93533677591617</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>17.13351393043655</v>
+        <v>16.23052115083793</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>16.17824074210007</v>
+        <v>6.975354166196247</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>15.60129580732932</v>
+        <v>6.839565031515384</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>14.14456647874864</v>
+        <v>2.440452979990148</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>19.04337274478524</v>
+        <v>15.53536861330762</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>22.6921099705246</v>
+        <v>18.64199085704967</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>23.25491734484411</v>
+        <v>20.00410891079167</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>20.81940690843788</v>
+        <v>12.32667188352433</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>27.41996627458314</v>
+        <v>23.48541147120452</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>28.40252543682807</v>
+        <v>25.89239402418976</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>25.5209144744198</v>
+        <v>18.13229170790951</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>33.78553861987934</v>
+        <v>34.38291642799092</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>39.88220931619851</v>
+        <v>42.78854286124739</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>42.53473911137433</v>
+        <v>48.0103409338596</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>36.55420883908146</v>
+        <v>34.68752069028798</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>23.75400948388632</v>
+        <v>20.64475594769615</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>23.89715776160883</v>
+        <v>22.35778910815879</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>21.1981759972731</v>
+        <v>14.93036295870087</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>34.44031562277662</v>
+        <v>34.52212589723776</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>39.05772585830793</v>
+        <v>42.27011898302025</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>41.67161969241895</v>
+        <v>47.2719741074578</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>33.47837174551656</v>
+        <v>32.45523299088326</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>17.58079952709741</v>
+        <v>12.41845543532234</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>17.41854283712885</v>
+        <v>13.75573068429732</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>16.54578657078007</v>
+        <v>9.036828776126931</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>31.616253059175</v>
+        <v>33.26052689648997</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>34.93777684230381</v>
+        <v>37.44973868174475</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>37.84047360252589</v>
+        <v>42.30889399515247</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>30.78914167467814</v>
+        <v>29.3051342315037</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>7.584925567367979</v>
+        <v>-0.9545308260058079</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>11.94250699532402</v>
+        <v>3.046103179746545</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>11.14603548302486</v>
+        <v>2.372583605804007</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>11.9272063201391</v>
+        <v>5.234273857930766</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>6.989837204797038</v>
+        <v>-2.212102871041484</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>10.12477586599575</v>
+        <v>0.6389067157761836</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>14.63501392513155</v>
+        <v>7.726843046892387</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>14.33084392369917</v>
+        <v>8.051608770387155</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>13.80237595059926</v>
+        <v>8.186600307702633</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>9.813831245308695</v>
+        <v>6.083819407760011</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>11.18799662487593</v>
+        <v>1.193182072228865</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>16.54175354536205</v>
+        <v>6.696632721509218</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>16.1857429598826</v>
+        <v>6.632754441272446</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>15.24654725058521</v>
+        <v>4.693975653085044</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>9.14541277350245</v>
+        <v>4.162695798880186</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>10.30482891223444</v>
+        <v>2.699985293200804</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>14.1912720280138</v>
+        <v>7.036305673566311</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>13.69797298088449</v>
+        <v>7.519915746384857</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>13.95359883860157</v>
+        <v>6.992423021613895</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>8.48207000455837</v>
+        <v>3.172951930440533</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>12.0107851324867</v>
+        <v>1.276005017065241</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>11.19826535058484</v>
+        <v>0.6110836163688518</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>11.75670285223363</v>
+        <v>0.2374437329069252</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>14.9093624460403</v>
+        <v>9.120428279331058</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>18.65292089938526</v>
+        <v>12.79703843197381</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>18.79647001967431</v>
+        <v>13.02580653085722</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>17.95863184678075</v>
+        <v>9.735077064237922</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>13.89173086504992</v>
+        <v>7.775326776362142</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>13.51003446861952</v>
+        <v>8.746462600478507</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>13.32732254449986</v>
+        <v>5.814092269229583</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>22.36016976069748</v>
+        <v>21.62075336478851</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>30.33502254129577</v>
+        <v>29.98006425237767</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>31.4126743235766</v>
+        <v>32.92409181381134</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>27.77501313399301</v>
+        <v>25.24027069112847</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>12.68522582640511</v>
+        <v>5.005100565540648</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>12.07736833197614</v>
+        <v>5.228471775238457</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>12.20160876776289</v>
+        <v>3.093311895859344</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>22.66453937806698</v>
+        <v>22.04149933045027</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>29.33650400287324</v>
+        <v>29.73933381091742</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>30.53491408544413</v>
+        <v>32.31845751329383</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>26.81975406735316</v>
+        <v>23.70387061507277</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>11.71171013246861</v>
+        <v>2.066816439101515</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>11.15432829988018</v>
+        <v>2.401909141351474</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>11.92215417296986</v>
+        <v>2.923700582300405</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>23.80714065932101</v>
+        <v>22.64834704419827</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>27.40867840965778</v>
+        <v>26.95730917285815</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>28.88627891165689</v>
+        <v>29.90134479047041</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>25.79191499065201</v>
+        <v>22.72539235501734</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>20.70817797246286</v>
+        <v>17.42573656937407</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>23.20171871076155</v>
+        <v>19.29736124312635</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>24.02903491244828</v>
+        <v>21.34154855458576</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>22.26486821943849</v>
+        <v>19.7194005881275</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>11.49525466990564</v>
+        <v>4.315998261269915</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>32.14713231065944</v>
+        <v>33.55361605977297</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>39.72900780474628</v>
+        <v>44.31149996222992</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>43.49486017481016</v>
+        <v>49.77486396806387</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>38.52146722453646</v>
+        <v>42.55393746839231</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>22.8364063225987</v>
+        <v>25.72845993035899</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>33.91229293822146</v>
+        <v>36.13238008281053</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>41.65142619841465</v>
+        <v>44.86331857851128</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>45.5036106468377</v>
+        <v>50.06135904010952</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>40.58670178322502</v>
+        <v>40.24466576081199</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>25.59050586086209</v>
+        <v>27.21765073541663</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>29.57488814888707</v>
+        <v>30.18102315657377</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>32.00683388697188</v>
+        <v>30.87835541955956</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>33.74769479288966</v>
+        <v>34.46492315756016</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>33.26419806361771</v>
+        <v>27.07964662208428</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>25.05848424635661</v>
+        <v>26.49491743541579</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>16.1992418907515</v>
+        <v>8.540820945701469</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>15.85913063661409</v>
+        <v>8.85691924366288</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>14.91959765697839</v>
+        <v>4.351395708005732</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>18.03709082221192</v>
+        <v>15.30964027140566</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>20.95817519873043</v>
+        <v>17.14583747309145</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>20.85304369744583</v>
+        <v>18.25416695075791</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>18.08399478336857</v>
+        <v>10.49180946484734</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>31.23529856469436</v>
+        <v>34.91283403972883</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>33.69915424587123</v>
+        <v>39.58003475312159</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>30.976841688599</v>
+        <v>31.9028592059171</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>36.80436838015318</v>
+        <v>43.22036354507337</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>46.43239054486168</v>
+        <v>54.16815148197234</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>50.91175658543472</v>
+        <v>61.33583577397341</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>44.04243013499</v>
+        <v>48.55323505358322</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>33.78942264916365</v>
+        <v>34.76050327126102</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>36.20352261250465</v>
+        <v>38.85660084005738</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>34.00754646354545</v>
+        <v>31.30305348544066</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>39.29281030598067</v>
+        <v>45.51420033267029</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>48.26785761959216</v>
+        <v>54.34478163603469</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>52.78730190078571</v>
+        <v>61.22700364619795</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>45.53225519565071</v>
+        <v>46.93391772016184</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>27.05080892290397</v>
+        <v>24.89685844718614</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>29.04109366400188</v>
+        <v>28.1538260452222</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>28.10778695521361</v>
+        <v>22.97086901134172</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>40.1726552070914</v>
+        <v>45.55207216205324</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>41.99462327907734</v>
+        <v>46.68569594827207</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>45.31095661306431</v>
+        <v>51.92942703995256</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>37.13507037995042</v>
+        <v>37.47567674725808</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>33.82264385436219</v>
+        <v>37.76018559138583</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>32.95398307831703</v>
+        <v>34.7660706063467</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>35.33069027535711</v>
+        <v>39.00666016579864</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>28.39758587765747</v>
+        <v>24.68458791848473</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>20.67509868421308</v>
+        <v>22.15096490646936</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>40.1039366926468</v>
+        <v>45.79940526863268</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>44.08852674617303</v>
+        <v>49.78161698320459</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>48.524634365337</v>
+        <v>56.68950246539927</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>41.46033211021469</v>
+        <v>40.80982034314639</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>37.46812655796394</v>
+        <v>41.73037750888391</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>38.66850471287189</v>
+        <v>42.76950998833348</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>40.21209012750944</v>
+        <v>45.02992252519572</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>43.70035180383036</v>
+        <v>51.31456370975323</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>33.82644327149902</v>
+        <v>33.09545337177462</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>35.742392482735</v>
+        <v>40.77675262554628</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>40.55815817276565</v>
+        <v>45.20672874466867</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>41.05286246895146</v>
+        <v>44.84800641276417</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>44.85881549715869</v>
+        <v>50.82947673557165</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>34.23795166927358</v>
+        <v>32.48071490010602</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>34.0232993100829</v>
+        <v>38.50668361137294</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>25.94884941370501</v>
+        <v>24.2214088973437</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>27.14315252036349</v>
+        <v>27.10724928116391</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>22.32702352143619</v>
+        <v>17.14913240133107</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>28.35352371217542</v>
+        <v>30.27983779375932</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>31.0473531837309</v>
+        <v>30.66027366711422</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>31.94290920377583</v>
+        <v>33.409835448217</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>25.92144198640775</v>
+        <v>21.05326365910902</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>38.67837881689641</v>
+        <v>43.25301984795404</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>42.9231398146134</v>
+        <v>49.52524907020681</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>36.35244915921798</v>
+        <v>36.25691771110009</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>42.68566831187945</v>
+        <v>50.301298558274</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>47.00920658196578</v>
+        <v>55.66160022516516</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>52.48107156094919</v>
+        <v>63.37764927159363</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>43.48691073242072</v>
+        <v>45.78177375360866</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>39.20417499395054</v>
+        <v>41.39590032349977</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>42.85593685861485</v>
+        <v>46.95511307942736</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>35.97290744584361</v>
+        <v>33.98787609900947</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>40.40475876756112</v>
+        <v>48.77338342878653</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>46.45075816619363</v>
+        <v>53.49200855977071</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>51.02605993401197</v>
+        <v>60.94123074203013</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>42.59222039993139</v>
+        <v>42.29590395457061</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>34.00952161205205</v>
+        <v>35.4020861954785</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>37.09181868278391</v>
+        <v>40.05610191104633</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>33.32845352775475</v>
+        <v>30.63665387467248</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>42.43927634930033</v>
+        <v>49.88917441541886</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>45.9244732969385</v>
+        <v>51.98669065372999</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>49.72541183383758</v>
+        <v>58.38082848749686</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>41.69078390678985</v>
+        <v>41.97815560329937</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>38.88572445513676</v>
+        <v>40.60281478311038</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>29.89772577808804</v>
+        <v>28.8737891384863</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>32.57303425678207</v>
+        <v>32.80461650077316</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>28.99274363017958</v>
+        <v>22.82344785768834</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>21.11386500096193</v>
+        <v>23.58736502411907</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>40.64906400293294</v>
+        <v>47.75892023466648</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>40.130794669748</v>
+        <v>45.79324110678036</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>44.02687530670663</v>
+        <v>52.56907756716799</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>37.32482303572499</v>
+        <v>36.21588441862962</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>37.07798923348044</v>
+        <v>42.32196903751755</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>40.45630962320115</v>
+        <v>45.22321780279312</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>39.63292775214935</v>
+        <v>41.46764360276062</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>42.96982388189338</v>
+        <v>47.81065725218962</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>32.01725637589011</v>
+        <v>27.76826441740376</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>36.07382305119896</v>
+        <v>40.70771663615468</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>40.75757540278549</v>
+        <v>48.49079341615014</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>38.38474897046743</v>
+        <v>36.43292547104366</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>41.27293080440391</v>
+        <v>41.96572754721281</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>29.85971399129803</v>
+        <v>22.27544995546642</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>36.50674428776615</v>
+        <v>42.46116962703721</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>25.93994702659255</v>
+        <v>24.55082432550656</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>26.83099419003121</v>
+        <v>27.25908233183439</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>22.24948539620303</v>
+        <v>15.69496065146501</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>29.00928745158214</v>
+        <v>29.56705716404728</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>31.85356014057124</v>
+        <v>30.07884088624289</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>32.79567671604902</v>
+        <v>32.64970284184896</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>26.81254048253624</v>
+        <v>19.66099043624332</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>40.29846725122572</v>
+        <v>47.34782077548771</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>44.53583443164963</v>
+        <v>54.53598412620216</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>38.22959497911193</v>
+        <v>40.36133969759913</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>42.10517376481405</v>
+        <v>50.02532892280629</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>47.10625674688097</v>
+        <v>57.44379513708328</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>52.4686749944829</v>
+        <v>66.01548276272459</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>43.56076115097004</v>
+        <v>48.56539251378755</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>38.8062670851442</v>
+        <v>43.87587906450928</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>42.78176550116825</v>
+        <v>50.61515634338315</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>35.6543422829072</v>
+        <v>36.20948912007314</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>43.43009614567443</v>
+        <v>49.9113132993311</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>47.52948860850346</v>
+        <v>55.06701661865156</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>52.89411577891238</v>
+        <v>63.47820123245886</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>43.38642823185371</v>
+        <v>44.49619305991759</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>35.47574402487482</v>
+        <v>36.96576202245954</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>39.30141403805403</v>
+        <v>43.10564429626243</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>34.072988913937</v>
+        <v>30.67016529572944</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>43.73983519460892</v>
+        <v>54.38199492370462</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>47.50918192022326</v>
+        <v>55.25454858221526</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>52.65842912994527</v>
+        <v>62.68974175597778</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>43.15956884245768</v>
+        <v>43.63976924720563</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>36.97229256501449</v>
+        <v>38.86048685944856</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>26.19767153932216</v>
+        <v>26.14405803285177</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>27.68664896134766</v>
+        <v>28.83717617089187</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>22.62647467306959</v>
+        <v>19.84365349675697</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>37.83709516795955</v>
+        <v>41.96596788251789</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>43.84441364572219</v>
+        <v>49.39096965496636</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>38.80753013168808</v>
+        <v>45.31399324398799</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>42.33550020005134</v>
+        <v>51.20543827213876</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>32.99028251063125</v>
+        <v>34.62722269227337</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>50.44088790214673</v>
+        <v>59.06791635251427</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>45.19329190563337</v>
+        <v>51.90964526739623</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>40.71148645709505</v>
+        <v>45.74487418884608</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>44.27389564059855</v>
+        <v>51.78299221342488</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>32.75594790417068</v>
+        <v>31.36940693925325</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>50.51739440459754</v>
+        <v>60.05635325662587</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>46.89291565291631</v>
+        <v>52.73483917128314</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>38.29375225728842</v>
+        <v>38.59619665329033</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>41.75986144733491</v>
+        <v>44.24967159286726</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>30.27815477261917</v>
+        <v>24.97566311308477</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>51.21216996104455</v>
+        <v>60.45191175743523</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>29.89645156249246</v>
+        <v>29.12895782832979</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>30.46598328440864</v>
+        <v>30.7144682881748</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>26.26803448027879</v>
+        <v>21.4581167089642</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>43.8905363312368</v>
+        <v>45.86841797663099</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>35.63536829177433</v>
+        <v>35.12734114677873</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>36.35218201180037</v>
+        <v>36.7337477856554</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>30.70154545805107</v>
+        <v>26.5029076261416</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>42.02673996310467</v>
+        <v>49.64566385800934</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>45.3508178674071</v>
+        <v>55.00133631457297</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>40.18222053839413</v>
+        <v>43.90107983832773</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>55.7180989007709</v>
+        <v>66.27836688821544</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>50.75848572513272</v>
+        <v>62.5924534884555</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>55.33181587145693</v>
+        <v>69.31402911666245</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>48.11037503821964</v>
+        <v>55.10859741453925</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>41.94953371046128</v>
+        <v>48.91888575258942</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>45.36895542841879</v>
+        <v>54.03631342515463</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>39.55921794206616</v>
+        <v>42.49305912933755</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>57.58577426701212</v>
+        <v>68.26307960190283</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>51.73781097837279</v>
+        <v>62.12841649931658</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>56.17265628216658</v>
+        <v>68.7153199690721</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>48.28971572800756</v>
+        <v>52.65500304022589</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>39.19764875049936</v>
+        <v>42.770686709814</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>42.85641743992496</v>
+        <v>48.36127676475991</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>38.08437249101823</v>
+        <v>37.16239037418816</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>58.78149439072848</v>
+        <v>70.63111123410118</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>52.42038629112491</v>
+        <v>60.26111426308231</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>57.16917631432657</v>
+        <v>66.64096523068383</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>48.51106757081546</v>
+        <v>49.60061321943579</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>23.97705056785834</v>
+        <v>23.02384000549045</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>24.10814891028256</v>
+        <v>22.04173512350195</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>25.44345320077941</v>
+        <v>25.51176524970675</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>20.86829421036164</v>
+        <v>14.78007221419822</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>17.21221233425068</v>
+        <v>16.62894622579627</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>39.87627461552089</v>
+        <v>41.91933275971108</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>43.54180112362616</v>
+        <v>47.34019655840104</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>48.72822304076455</v>
+        <v>54.56798724188362</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>40.5641634131757</v>
+        <v>38.63476649611234</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>36.61414072619223</v>
+        <v>41.01072854666073</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>37.33008798757916</v>
+        <v>39.89452363788325</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>39.37281804614943</v>
+        <v>42.99835116592875</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>43.21889118851019</v>
+        <v>49.55455745908821</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>32.32840864756191</v>
+        <v>30.21730806466176</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>37.04365634704504</v>
+        <v>40.51844006569026</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>28.83163861744587</v>
+        <v>34.83213054182515</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>36.06173847111295</v>
+        <v>36.32448598635746</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>38.3672569607424</v>
+        <v>41.37995273324827</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>30.8736449861713</v>
+        <v>23.99049057632401</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>31.619345511427</v>
+        <v>33.27999322846875</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>23.27031564860324</v>
+        <v>18.34528971593445</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>24.04629389418818</v>
+        <v>20.57426014169636</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>19.84102029030513</v>
+        <v>10.4967793171367</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>22.80850718551299</v>
+        <v>23.09741281130209</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>27.69535783945398</v>
+        <v>24.9127766579761</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>28.2250183825347</v>
+        <v>27.01038439880294</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>23.40533968553664</v>
+        <v>15.9616795436479</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>38.82157743211744</v>
+        <v>43.01529726623156</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>43.30696657485598</v>
+        <v>49.74569681493603</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>36.65208543210176</v>
+        <v>35.36535287390206</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>41.91923420783782</v>
+        <v>49.26337747057463</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>46.82297167005621</v>
+        <v>56.63546566396047</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>52.50832407501598</v>
+        <v>64.80376168405198</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>43.23592705342617</v>
+        <v>47.53945538479535</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>38.60932165921897</v>
+        <v>40.66418379436762</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>42.48357551383309</v>
+        <v>46.73488395712073</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>35.89876032463535</v>
+        <v>32.36807423335671</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>42.29219839213478</v>
+        <v>49.08183961881888</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>47.07763553920458</v>
+        <v>54.88787456850966</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>52.01874478173195</v>
+        <v>62.72474056684431</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>43.41495363227244</v>
+        <v>44.15080171189034</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>29.33139123098919</v>
+        <v>28.17064425955734</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>30.5911043447902</v>
+        <v>32.43558342770697</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>25.40491583048582</v>
+        <v>21.80448998978675</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>39.36468220801495</v>
+        <v>46.52896684133074</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>44.0462096860621</v>
+        <v>48.83255165948638</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>47.40312390304891</v>
+        <v>54.71514623719996</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>40.59417060011985</v>
+        <v>38.39695691985254</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>15.75305169265727</v>
+        <v>11.48461191940536</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>19.24344597387981</v>
+        <v>11.95977799791773</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>19.29591589346956</v>
+        <v>12.3427883576462</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>17.96334638007107</v>
+        <v>10.17930473737106</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>13.82004382731401</v>
+        <v>14.36699259509228</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>20.28955939672831</v>
+        <v>19.32248794781581</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>25.4406533808873</v>
+        <v>24.49902169154229</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>26.42333425201326</v>
+        <v>26.99215425670156</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>23.04330172021056</v>
+        <v>20.16970454377059</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>35.64486770782738</v>
+        <v>37.53292021155771</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>19.05578484404943</v>
+        <v>18.6380694437488</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>23.90686979269409</v>
+        <v>21.97745386368316</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>24.37742773504398</v>
+        <v>23.9628200084301</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>21.05729061311867</v>
+        <v>14.99590594847108</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>31.53565183417684</v>
+        <v>33.67278276628458</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>19.29508196393329</v>
+        <v>20.7576537504081</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>22.3941211278085</v>
+        <v>19.859249765218</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>22.9655013458323</v>
+        <v>21.27291273256253</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>20.35095933730195</v>
+        <v>13.33066988409901</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>32.46949223851966</v>
+        <v>36.10521591267415</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>19.53330579119724</v>
+        <v>15.9966184085041</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>19.45856426566401</v>
+        <v>17.4055355425925</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>17.03512594491977</v>
+        <v>9.63064862941749</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>15.63315216076728</v>
+        <v>14.76908148420293</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>19.85984238308101</v>
+        <v>15.46844544926478</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>19.97858916658724</v>
+        <v>16.52569528400585</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>18.14653264277499</v>
+        <v>8.805767190642786</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>37.12679797528703</v>
+        <v>40.09728980728566</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>40.83579461848176</v>
+        <v>45.34692701861678</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>34.22895938781514</v>
+        <v>33.41821155852173</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>42.63827381749297</v>
+        <v>47.22434717502854</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>47.12256067343894</v>
+        <v>54.05097750959949</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>52.21776670925155</v>
+        <v>60.79904684465438</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>44.11686063000477</v>
+        <v>46.34257699705984</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>34.30270765832463</v>
+        <v>35.26901190861453</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>36.27797552312242</v>
+        <v>39.46436512160474</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>31.6940516106025</v>
+        <v>28.39577888533961</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>41.0757994290829</v>
+        <v>46.67699367412385</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>44.42135855478122</v>
+        <v>51.51733212507192</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>47.93144844105727</v>
+        <v>57.44017478875051</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>40.33453538986785</v>
+        <v>41.85140611510869</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>32.26608288526455</v>
+        <v>31.32285911289548</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>33.7274320565079</v>
+        <v>34.32069184944589</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>30.01608350716418</v>
+        <v>25.35010186371716</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>41.08339228202391</v>
+        <v>45.77566562212851</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>40.5021125506302</v>
+        <v>44.99266084739595</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>42.02967328840771</v>
+        <v>48.41399950011989</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>34.21506116207237</v>
+        <v>33.7946946129802</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>12.55317159464987</v>
+        <v>13.65487920719961</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>17.09965732037045</v>
+        <v>12.7429522128055</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>16.71326013653886</v>
+        <v>13.74782357212404</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>16.11626166327504</v>
+        <v>11.1636014275726</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>15.78114379031421</v>
+        <v>17.67682053988926</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>25.22016837083127</v>
+        <v>27.15829789717564</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>31.02907446970926</v>
+        <v>34.01816336990634</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>33.10150082280917</v>
+        <v>38.36273456467697</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>28.38295563448554</v>
+        <v>28.08554278297968</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>31.48200339858366</v>
+        <v>35.39309820212495</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>33.92712472271029</v>
+        <v>34.13511766625881</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>36.51015328533143</v>
+        <v>38.0135939375272</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>39.52518477927833</v>
+        <v>42.66668649806081</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>32.84777235507027</v>
+        <v>28.49084753358779</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>34.3949757362922</v>
+        <v>38.54226876680835</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>30.53173846915383</v>
+        <v>34.79226835395465</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>32.26195420109561</v>
+        <v>31.30677305025218</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>35.10951921265434</v>
+        <v>35.39643922487362</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>30.78070523223316</v>
+        <v>23.16176522106536</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>32.76249523396947</v>
+        <v>39.47917533126427</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>21.27504917346544</v>
+        <v>16.22243620779857</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>20.6882242941688</v>
+        <v>16.49252100624335</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>16.73391804602119</v>
+        <v>8.41888967330056</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>16.34873900681832</v>
+        <v>16.32154112290936</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>19.47733790467137</v>
+        <v>14.81445783439859</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>18.67118417995489</v>
+        <v>14.510246307248</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>15.3954753453237</v>
+        <v>6.714388942668329</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>34.8442025246384</v>
+        <v>37.81920235825839</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>37.01042339335741</v>
+        <v>41.9749946865241</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>32.21938530091533</v>
+        <v>31.75702710545689</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>37.52318001652944</v>
+        <v>41.83840643279818</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>43.11808453484111</v>
+        <v>47.62681508781678</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>46.22889150530737</v>
+        <v>52.64337096514866</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>39.67812315460878</v>
+        <v>40.0847661981382</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>36.83315759495017</v>
+        <v>38.9296996136254</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>39.47747293652247</v>
+        <v>42.9235916464438</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>33.5377573784255</v>
+        <v>32.10822497866382</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>42.02374728910529</v>
+        <v>45.9984536913317</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>44.58726018737205</v>
+        <v>48.77435898499596</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>47.70486810080931</v>
+        <v>53.73395991290263</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>39.40648468667732</v>
+        <v>39.03412622813273</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>34.06602660235962</v>
+        <v>33.22900150802273</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>36.52366326755486</v>
+        <v>37.51186512809515</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>32.09031999813892</v>
+        <v>27.33806639912862</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>38.54203353838289</v>
+        <v>45.42320870518347</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>40.15474201776129</v>
+        <v>43.47967718292807</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>42.45007617934394</v>
+        <v>47.80871582256904</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>34.4329221879636</v>
+        <v>32.80766265456421</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>38.14449941371145</v>
+        <v>41.97940321253928</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>30.6417630445333</v>
+        <v>32.29020944411388</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>33.10401448670353</v>
+        <v>35.75373994695711</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>29.92676240453098</v>
+        <v>26.58962241351442</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>24.13073607167099</v>
+        <v>25.11437345405552</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>40.6151440302837</v>
+        <v>47.56348166110646</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>40.92646474123889</v>
+        <v>46.65817303109048</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>44.58844874719779</v>
+        <v>52.3298868389968</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>37.69623187234092</v>
+        <v>37.51342972086954</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>36.13111878388903</v>
+        <v>41.04459731605772</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>40.68618433416095</v>
+        <v>46.48123986360694</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>40.22711300486054</v>
+        <v>44.32352876306876</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>42.80048941882977</v>
+        <v>49.32082171164108</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>31.64204349446501</v>
+        <v>30.52801203644968</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>37.14295603722471</v>
+        <v>41.41813084363103</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>41.91256781885811</v>
+        <v>48.70543736478706</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>39.55356138225036</v>
+        <v>40.2006618152354</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>42.15534199213486</v>
+        <v>44.70916967839939</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>30.41930170280318</v>
+        <v>25.27116280129457</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>36.47375879946805</v>
+        <v>42.36590899122339</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>29.77637613339132</v>
+        <v>27.42431905387618</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>31.56257146206778</v>
+        <v>30.58221001354462</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>27.51870765778519</v>
+        <v>20.93053170803697</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>28.59159629737841</v>
+        <v>29.69114471137444</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>32.47612920019151</v>
+        <v>31.76492852691844</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>33.56084200224338</v>
+        <v>34.46542303855836</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>27.73238492398266</v>
+        <v>22.17910182656258</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>39.16425766742849</v>
+        <v>44.85633080696606</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>43.40710322122682</v>
+        <v>51.30947914736659</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>36.58099978452728</v>
+        <v>38.66565644995865</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>43.41118704010407</v>
+        <v>49.02349140857172</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>46.81833567252284</v>
+        <v>55.4823013926846</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>52.32004271855082</v>
+        <v>63.31245163159144</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>43.70201094127604</v>
+        <v>46.65734916098532</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>39.31964191505681</v>
+        <v>43.70018065613476</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>43.19051920464626</v>
+        <v>49.66699323475481</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>36.00532370601849</v>
+        <v>36.66564951454547</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>44.17716354985919</v>
+        <v>51.20264700891526</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>47.66166584104664</v>
+        <v>55.93641488371063</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>52.97494747437989</v>
+        <v>63.62988349788191</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>43.74089361865541</v>
+        <v>45.36002478767415</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>37.5267250560006</v>
+        <v>39.40262856851277</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>41.70188712257386</v>
+        <v>45.32116545825954</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>34.98641029813541</v>
+        <v>33.30623589790616</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>42.97284313257264</v>
+        <v>52.40455258977094</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>44.71190851952198</v>
+        <v>54.06103738763935</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>49.39193509108594</v>
+        <v>61.03431309591429</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>39.30775940758046</v>
+        <v>42.05922165881979</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>19.80127889639683</v>
+        <v>20.38405318060313</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>22.23215712331008</v>
+        <v>17.02984655221676</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>22.99785866542487</v>
+        <v>20.11433830095903</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>19.25406402967873</v>
+        <v>10.96009044258118</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>21.58930153314092</v>
+        <v>20.32949205282847</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>39.89580379368409</v>
+        <v>42.18168103537603</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>42.21705920669711</v>
+        <v>46.03026998890497</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>47.22922839000036</v>
+        <v>53.23887650666354</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>39.67004766101375</v>
+        <v>38.28918879602378</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>35.66259882234595</v>
+        <v>41.06299769382077</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>38.54974370266719</v>
+        <v>41.96385600587298</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>38.87775330688009</v>
+        <v>43.50131913627603</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>43.00901026807391</v>
+        <v>50.22493321539974</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>32.64250765018252</v>
+        <v>31.6726459517533</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>37.03395482225207</v>
+        <v>40.78021901605258</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>33.73253305397158</v>
+        <v>36.99091188071521</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>35.26074761588328</v>
+        <v>34.85907854942313</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>38.2930642079905</v>
+        <v>39.96379896266744</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>29.538536155498</v>
+        <v>23.1737172418781</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>32.8122981524636</v>
+        <v>37.94393520722065</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>26.22760948430466</v>
+        <v>23.18330802778536</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>27.26515801412263</v>
+        <v>25.84674907944571</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>23.62060356245698</v>
+        <v>15.92758365412051</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>21.28851298729275</v>
+        <v>22.01698252504598</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>26.86855886041996</v>
+        <v>22.54077736047221</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>27.27576084438653</v>
+        <v>24.19677262870975</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>22.7146057317618</v>
+        <v>13.03003122048853</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>38.59451370782725</v>
+        <v>44.96112840402061</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>43.06709075869919</v>
+        <v>52.11842416375934</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>36.07652752216037</v>
+        <v>38.1580825385404</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>43.59037797395721</v>
+        <v>49.02610107976362</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>46.32067729696421</v>
+        <v>54.49798162054556</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>51.81219928953007</v>
+        <v>62.36813135259781</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>42.54005999777733</v>
+        <v>44.69011717666034</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>39.29024191869622</v>
+        <v>42.91977419317686</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>43.40760640153369</v>
+        <v>49.47334518381128</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>35.81402907139353</v>
+        <v>35.46893416990984</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>43.10918667260742</v>
+        <v>48.79291465218506</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>46.01293748165634</v>
+        <v>52.57600178649761</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>50.53957984814129</v>
+        <v>60.06920148996365</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>41.65052173476017</v>
+        <v>41.17556314554345</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>34.45821576508306</v>
+        <v>34.80385690404322</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>37.47685296015352</v>
+        <v>39.82951089176425</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>32.55855421681217</v>
+        <v>29.2999562294815</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>38.14040242936747</v>
+        <v>44.2369910642857</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>40.89173884352633</v>
+        <v>44.74737026027603</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>43.27268893019285</v>
+        <v>49.95574778595457</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>35.7581511122612</v>
+        <v>33.80247956346745</v>
       </c>
     </row>
   </sheetData>
